--- a/Gas Data processed.xlsx
+++ b/Gas Data processed.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84B28DA-A571-B244-ACB6-AD5A0ED245A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45009E02-7073-EF49-8A97-33A0F9CDE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="code" sheetId="9" r:id="rId1"/>
-    <sheet name="COALGAS_quarter" sheetId="5" r:id="rId2"/>
-    <sheet name="COALGAS_year" sheetId="3" r:id="rId3"/>
-    <sheet name="COALGAS" sheetId="1" r:id="rId4"/>
-    <sheet name="Prices correction" sheetId="2" r:id="rId5"/>
-    <sheet name="prices quaterly" sheetId="7" r:id="rId6"/>
-    <sheet name="uk ets" sheetId="8" r:id="rId7"/>
-    <sheet name="eur_gbpratz" sheetId="10" r:id="rId8"/>
+    <sheet name="code_monthly" sheetId="11" r:id="rId1"/>
+    <sheet name="code" sheetId="9" r:id="rId2"/>
+    <sheet name="COALGAS_quarter" sheetId="5" r:id="rId3"/>
+    <sheet name="COALGAS_year" sheetId="3" r:id="rId4"/>
+    <sheet name="COALGAS" sheetId="1" r:id="rId5"/>
+    <sheet name="Prices correction" sheetId="2" r:id="rId6"/>
+    <sheet name="prices quaterly" sheetId="7" r:id="rId7"/>
+    <sheet name="uk ets" sheetId="8" r:id="rId8"/>
+    <sheet name="eur_gbpratz" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="381">
   <si>
     <t>Year</t>
   </si>
@@ -717,6 +718,474 @@
   </si>
   <si>
     <t>risen again</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Oct 09</t>
+  </si>
+  <si>
+    <t>Nov 09</t>
+  </si>
+  <si>
+    <t>Dec 09</t>
+  </si>
+  <si>
+    <t>Jan 10</t>
+  </si>
+  <si>
+    <t>Feb 10</t>
+  </si>
+  <si>
+    <t>Mar 10</t>
+  </si>
+  <si>
+    <t>Apr 10</t>
+  </si>
+  <si>
+    <t>May 10</t>
+  </si>
+  <si>
+    <t>Jun 10</t>
+  </si>
+  <si>
+    <t>Jul 10</t>
+  </si>
+  <si>
+    <t>Aug 10</t>
+  </si>
+  <si>
+    <t>Sep 10</t>
+  </si>
+  <si>
+    <t>Oct 10</t>
+  </si>
+  <si>
+    <t>Nov 10</t>
+  </si>
+  <si>
+    <t>Dec 10</t>
+  </si>
+  <si>
+    <t>Jan 11</t>
+  </si>
+  <si>
+    <t>Feb 11</t>
+  </si>
+  <si>
+    <t>Mar 11</t>
+  </si>
+  <si>
+    <t>Apr 11</t>
+  </si>
+  <si>
+    <t>May 11</t>
+  </si>
+  <si>
+    <t>Jun 11</t>
+  </si>
+  <si>
+    <t>Jul 11</t>
+  </si>
+  <si>
+    <t>Aug 11</t>
+  </si>
+  <si>
+    <t>Sep 11</t>
+  </si>
+  <si>
+    <t>Oct 11</t>
+  </si>
+  <si>
+    <t>Nov 11</t>
+  </si>
+  <si>
+    <t>Dec 11</t>
+  </si>
+  <si>
+    <t>Jan 12</t>
+  </si>
+  <si>
+    <t>Feb 12</t>
+  </si>
+  <si>
+    <t>Mar 12</t>
+  </si>
+  <si>
+    <t>Apr 12</t>
+  </si>
+  <si>
+    <t>May 12</t>
+  </si>
+  <si>
+    <t>Jun 12</t>
+  </si>
+  <si>
+    <t>Jul 12</t>
+  </si>
+  <si>
+    <t>Aug 12</t>
+  </si>
+  <si>
+    <t>Sep 12</t>
+  </si>
+  <si>
+    <t>Oct 12</t>
+  </si>
+  <si>
+    <t>Nov 12</t>
+  </si>
+  <si>
+    <t>Dec 12</t>
+  </si>
+  <si>
+    <t>Jan 13</t>
+  </si>
+  <si>
+    <t>Feb 13</t>
+  </si>
+  <si>
+    <t>Mar 13</t>
+  </si>
+  <si>
+    <t>Apr 13</t>
+  </si>
+  <si>
+    <t>May 13</t>
+  </si>
+  <si>
+    <t>Jun 13</t>
+  </si>
+  <si>
+    <t>Jul 13</t>
+  </si>
+  <si>
+    <t>Aug 13</t>
+  </si>
+  <si>
+    <t>Sep 13</t>
+  </si>
+  <si>
+    <t>Oct 13</t>
+  </si>
+  <si>
+    <t>Nov 13</t>
+  </si>
+  <si>
+    <t>Dec 13</t>
+  </si>
+  <si>
+    <t>Jan 14</t>
+  </si>
+  <si>
+    <t>Feb 14</t>
+  </si>
+  <si>
+    <t>Mar 14</t>
+  </si>
+  <si>
+    <t>Apr 14</t>
+  </si>
+  <si>
+    <t>May 14</t>
+  </si>
+  <si>
+    <t>Jun 14</t>
+  </si>
+  <si>
+    <t>Jul 14</t>
+  </si>
+  <si>
+    <t>Aug 14</t>
+  </si>
+  <si>
+    <t>Sep 14</t>
+  </si>
+  <si>
+    <t>Oct 14</t>
+  </si>
+  <si>
+    <t>Nov 14</t>
+  </si>
+  <si>
+    <t>Dec 14</t>
+  </si>
+  <si>
+    <t>Jan 15</t>
+  </si>
+  <si>
+    <t>Feb 15</t>
+  </si>
+  <si>
+    <t>Mar 15</t>
+  </si>
+  <si>
+    <t>Apr 15</t>
+  </si>
+  <si>
+    <t>May 15</t>
+  </si>
+  <si>
+    <t>Jun 15</t>
+  </si>
+  <si>
+    <t>Jul 15</t>
+  </si>
+  <si>
+    <t>Aug 15</t>
+  </si>
+  <si>
+    <t>Sep 15</t>
+  </si>
+  <si>
+    <t>Oct 15</t>
+  </si>
+  <si>
+    <t>Nov 15</t>
+  </si>
+  <si>
+    <t>Dec 15</t>
+  </si>
+  <si>
+    <t>Jan 16</t>
+  </si>
+  <si>
+    <t>Feb 16</t>
+  </si>
+  <si>
+    <t>Mar 16</t>
+  </si>
+  <si>
+    <t>Apr 16</t>
+  </si>
+  <si>
+    <t>May 16</t>
+  </si>
+  <si>
+    <t>Jun 16</t>
+  </si>
+  <si>
+    <t>Jul 16</t>
+  </si>
+  <si>
+    <t>Aug 16</t>
+  </si>
+  <si>
+    <t>Sep 16</t>
+  </si>
+  <si>
+    <t>Oct 16</t>
+  </si>
+  <si>
+    <t>Nov 16</t>
+  </si>
+  <si>
+    <t>Dec 16</t>
+  </si>
+  <si>
+    <t>Jan 17</t>
+  </si>
+  <si>
+    <t>Feb 17</t>
+  </si>
+  <si>
+    <t>Mar 17</t>
+  </si>
+  <si>
+    <t>Apr 17</t>
+  </si>
+  <si>
+    <t>May 17</t>
+  </si>
+  <si>
+    <t>Jun 17</t>
+  </si>
+  <si>
+    <t>Jul 17</t>
+  </si>
+  <si>
+    <t>Aug 17</t>
+  </si>
+  <si>
+    <t>Sep 17</t>
+  </si>
+  <si>
+    <t>Oct 17</t>
+  </si>
+  <si>
+    <t>Nov 17</t>
+  </si>
+  <si>
+    <t>Dec 17</t>
+  </si>
+  <si>
+    <t>Jan 18</t>
+  </si>
+  <si>
+    <t>Feb 18</t>
+  </si>
+  <si>
+    <t>Mar 18</t>
+  </si>
+  <si>
+    <t>Apr 18</t>
+  </si>
+  <si>
+    <t>May 18</t>
+  </si>
+  <si>
+    <t>Jun 18</t>
+  </si>
+  <si>
+    <t>Jul 18</t>
+  </si>
+  <si>
+    <t>Aug 18</t>
+  </si>
+  <si>
+    <t>Sep 18</t>
+  </si>
+  <si>
+    <t>Oct 18</t>
+  </si>
+  <si>
+    <t>Nov 18</t>
+  </si>
+  <si>
+    <t>Dec 18</t>
+  </si>
+  <si>
+    <t>Jan 19</t>
+  </si>
+  <si>
+    <t>Feb 19</t>
+  </si>
+  <si>
+    <t>Mar 19</t>
+  </si>
+  <si>
+    <t>Apr 19</t>
+  </si>
+  <si>
+    <t>May 19</t>
+  </si>
+  <si>
+    <t>Jun 19</t>
+  </si>
+  <si>
+    <t>Jul 19</t>
+  </si>
+  <si>
+    <t>Aug 19</t>
+  </si>
+  <si>
+    <t>Sep 19</t>
+  </si>
+  <si>
+    <t>Oct 19</t>
+  </si>
+  <si>
+    <t>Nov 19</t>
+  </si>
+  <si>
+    <t>Dec 19</t>
+  </si>
+  <si>
+    <t>Jan 20</t>
+  </si>
+  <si>
+    <t>Feb 20</t>
+  </si>
+  <si>
+    <t>Mar 20</t>
+  </si>
+  <si>
+    <t>Apr 20</t>
+  </si>
+  <si>
+    <t>May 20</t>
+  </si>
+  <si>
+    <t>Jun 20</t>
+  </si>
+  <si>
+    <t>Jul 20</t>
+  </si>
+  <si>
+    <t>Aug 20</t>
+  </si>
+  <si>
+    <t>Sep 20</t>
+  </si>
+  <si>
+    <t>Oct 20</t>
+  </si>
+  <si>
+    <t>Nov 20</t>
+  </si>
+  <si>
+    <t>Dec 20</t>
+  </si>
+  <si>
+    <t>Jan 21</t>
+  </si>
+  <si>
+    <t>Feb 21</t>
+  </si>
+  <si>
+    <t>Mar 21</t>
+  </si>
+  <si>
+    <t>Apr 21</t>
+  </si>
+  <si>
+    <t>May 21</t>
+  </si>
+  <si>
+    <t>Jun 21</t>
+  </si>
+  <si>
+    <t>Jul 21</t>
+  </si>
+  <si>
+    <t>Aug 21</t>
+  </si>
+  <si>
+    <t>Sep 21</t>
+  </si>
+  <si>
+    <t>Oct 21</t>
+  </si>
+  <si>
+    <t>Nov 21</t>
+  </si>
+  <si>
+    <t>Dec 21</t>
+  </si>
+  <si>
+    <t>Jan 22</t>
+  </si>
+  <si>
+    <t>Feb 22</t>
+  </si>
+  <si>
+    <t>Mar 22</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>price_brent_gbp</t>
+  </si>
+  <si>
+    <t>price_brent_usd</t>
   </si>
 </sst>
 </file>
@@ -728,7 +1197,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0;;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,6 +1213,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -772,6 +1242,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -815,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -839,12 +1316,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{D60A22BA-C4A3-414F-8DB0-856E8B414708}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10909,11 +11432,4130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1A12A-60AE-8541-8DC2-9465FA0A2F2C}">
+  <dimension ref="A1:H151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2">
+        <v>36.81</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44.242703176269814</v>
+      </c>
+      <c r="D2">
+        <v>18582</v>
+      </c>
+      <c r="E2">
+        <v>12.8</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="G2" s="6">
+        <f>B2+E2</f>
+        <v>49.61</v>
+      </c>
+      <c r="H2">
+        <v>72.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3">
+        <v>29.57</v>
+      </c>
+      <c r="C3" s="7">
+        <v>46.579369337456164</v>
+      </c>
+      <c r="D3">
+        <v>13795</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1.27</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G66" si="0">B3+E3</f>
+        <v>39.57</v>
+      </c>
+      <c r="H3">
+        <v>76.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4">
+        <v>33.72</v>
+      </c>
+      <c r="C4" s="7">
+        <v>46.014032858691309</v>
+      </c>
+      <c r="D4">
+        <v>12590</v>
+      </c>
+      <c r="E4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>37.869999999999997</v>
+      </c>
+      <c r="H4">
+        <v>74.459999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="C5" s="7">
+        <v>47.677856180250714</v>
+      </c>
+      <c r="D5">
+        <v>13650</v>
+      </c>
+      <c r="E5">
+        <v>2.1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>40.870000000000005</v>
+      </c>
+      <c r="H5">
+        <v>76.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6">
+        <v>31.34</v>
+      </c>
+      <c r="C6" s="7">
+        <v>48.582062514409934</v>
+      </c>
+      <c r="D6">
+        <v>12720</v>
+      </c>
+      <c r="E6">
+        <v>4.3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>35.64</v>
+      </c>
+      <c r="H6">
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>29.71</v>
+      </c>
+      <c r="C7" s="7">
+        <v>51.917448425023643</v>
+      </c>
+      <c r="D7">
+        <v>18530</v>
+      </c>
+      <c r="E7">
+        <v>7.4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.32</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>37.11</v>
+      </c>
+      <c r="H7">
+        <v>78.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>55.437509926399215</v>
+      </c>
+      <c r="D8">
+        <v>19305</v>
+      </c>
+      <c r="E8">
+        <v>10.7</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>43.83</v>
+      </c>
+      <c r="H8">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="C9" s="7">
+        <v>52.299922669107097</v>
+      </c>
+      <c r="D9">
+        <v>22865</v>
+      </c>
+      <c r="E9">
+        <v>12.5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1.59</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>49.13</v>
+      </c>
+      <c r="H9">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10">
+        <v>45.49</v>
+      </c>
+      <c r="C10" s="7">
+        <v>50.025661906555868</v>
+      </c>
+      <c r="D10">
+        <v>16700</v>
+      </c>
+      <c r="E10">
+        <v>17.8</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>63.290000000000006</v>
+      </c>
+      <c r="H10">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="C11" s="7">
+        <v>48.145984638895555</v>
+      </c>
+      <c r="D11">
+        <v>2155</v>
+      </c>
+      <c r="E11">
+        <v>20.05</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>60.709999999999994</v>
+      </c>
+      <c r="H11">
+        <v>75.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12">
+        <v>41.83</v>
+      </c>
+      <c r="C12" s="7">
+        <v>49.812524125516703</v>
+      </c>
+      <c r="D12">
+        <v>20755</v>
+      </c>
+      <c r="E12">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>59.23</v>
+      </c>
+      <c r="H12">
+        <v>77.040000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13">
+        <v>47.32</v>
+      </c>
+      <c r="C13" s="7">
+        <v>49.278953442657823</v>
+      </c>
+      <c r="D13">
+        <v>22145</v>
+      </c>
+      <c r="E13">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>62.62</v>
+      </c>
+      <c r="H13">
+        <v>77.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14">
+        <v>47.61</v>
+      </c>
+      <c r="C14" s="7">
+        <v>52.408628817328633</v>
+      </c>
+      <c r="D14">
+        <v>21292</v>
+      </c>
+      <c r="E14">
+        <v>11.75</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>59.36</v>
+      </c>
+      <c r="H14">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15">
+        <v>54.2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>54.820550763971433</v>
+      </c>
+      <c r="D15">
+        <v>22465</v>
+      </c>
+      <c r="E15">
+        <v>6.55</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.79</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>60.75</v>
+      </c>
+      <c r="H15">
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16">
+        <v>61.07</v>
+      </c>
+      <c r="C16" s="7">
+        <v>59.240401370723781</v>
+      </c>
+      <c r="D16">
+        <v>23810</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2.08</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>62.27</v>
+      </c>
+      <c r="H16">
+        <v>91.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17">
+        <v>52.66</v>
+      </c>
+      <c r="C17" s="7">
+        <v>60.975532714649418</v>
+      </c>
+      <c r="D17">
+        <v>28710</v>
+      </c>
+      <c r="E17">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>57.76</v>
+      </c>
+      <c r="H17">
+        <v>96.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18">
+        <v>54.73</v>
+      </c>
+      <c r="C18" s="7">
+        <v>64.420479650594046</v>
+      </c>
+      <c r="D18">
+        <v>22565</v>
+      </c>
+      <c r="E18">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1.99</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>62.23</v>
+      </c>
+      <c r="H18">
+        <v>103.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19">
+        <v>64.06</v>
+      </c>
+      <c r="C19" s="7">
+        <v>71.319833744658325</v>
+      </c>
+      <c r="D19">
+        <v>19575</v>
+      </c>
+      <c r="E19">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2.46</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>72.11</v>
+      </c>
+      <c r="H19">
+        <v>114.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20">
+        <v>57.89</v>
+      </c>
+      <c r="C20" s="7">
+        <v>74.029941105175851</v>
+      </c>
+      <c r="D20">
+        <v>16590</v>
+      </c>
+      <c r="E20">
+        <v>14.149999999999999</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2.68</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>72.039999999999992</v>
+      </c>
+      <c r="H20">
+        <v>123.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21">
+        <v>58.34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>69.742603153731523</v>
+      </c>
+      <c r="D21">
+        <v>19680</v>
+      </c>
+      <c r="E21">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="0"/>
+        <v>72.740000000000009</v>
+      </c>
+      <c r="H21">
+        <v>114.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22">
+        <v>57.29</v>
+      </c>
+      <c r="C22" s="7">
+        <v>70.807943328763344</v>
+      </c>
+      <c r="D22">
+        <v>22840</v>
+      </c>
+      <c r="E22">
+        <v>15.85</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2.02</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>73.14</v>
+      </c>
+      <c r="H22">
+        <v>113.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23">
+        <v>52.23</v>
+      </c>
+      <c r="C23" s="7">
+        <v>71.460470697052685</v>
+      </c>
+      <c r="D23">
+        <v>28520</v>
+      </c>
+      <c r="E23">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="0"/>
+        <v>69.38</v>
+      </c>
+      <c r="H23">
+        <v>116.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24">
+        <v>68.06</v>
+      </c>
+      <c r="C24" s="7">
+        <v>67.587994086203821</v>
+      </c>
+      <c r="D24">
+        <v>32580</v>
+      </c>
+      <c r="E24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>85.66</v>
+      </c>
+      <c r="H24">
+        <v>110.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>66.5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>72.329658621704283</v>
+      </c>
+      <c r="D25">
+        <v>31540</v>
+      </c>
+      <c r="E25">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="0"/>
+        <v>83.35</v>
+      </c>
+      <c r="H25">
+        <v>112.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="C26" s="7">
+        <v>67.993306802185714</v>
+      </c>
+      <c r="D26">
+        <v>30578</v>
+      </c>
+      <c r="E26">
+        <v>13.975000000000001</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>80.765000000000015</v>
+      </c>
+      <c r="H26">
+        <v>109.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27">
+        <v>60.08</v>
+      </c>
+      <c r="C27" s="7">
+        <v>71.015742453335207</v>
+      </c>
+      <c r="D27">
+        <v>21680</v>
+      </c>
+      <c r="E27">
+        <v>10.45</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="0"/>
+        <v>70.53</v>
+      </c>
+      <c r="H27">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28">
+        <v>54.31</v>
+      </c>
+      <c r="C28" s="7">
+        <v>69.973118698073165</v>
+      </c>
+      <c r="D28">
+        <v>24880</v>
+      </c>
+      <c r="E28">
+        <v>6.85</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1.52</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>61.160000000000004</v>
+      </c>
+      <c r="H28">
+        <v>107.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29">
+        <v>56.25</v>
+      </c>
+      <c r="C29" s="7">
+        <v>70.46525914396392</v>
+      </c>
+      <c r="D29">
+        <v>20116</v>
+      </c>
+      <c r="E29">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="0"/>
+        <v>62.85</v>
+      </c>
+      <c r="H29">
+        <v>110.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30">
+        <v>59.38</v>
+      </c>
+      <c r="C30" s="7">
+        <v>74.94637939210088</v>
+      </c>
+      <c r="D30">
+        <v>28785</v>
+      </c>
+      <c r="E30">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F30" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>64.03</v>
+      </c>
+      <c r="H30">
+        <v>119.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31">
+        <v>61.5</v>
+      </c>
+      <c r="C31" s="7">
+        <v>78.323471880656129</v>
+      </c>
+      <c r="D31">
+        <v>29910</v>
+      </c>
+      <c r="E31">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="0"/>
+        <v>71.2</v>
+      </c>
+      <c r="H31">
+        <v>125.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32">
+        <v>57.87</v>
+      </c>
+      <c r="C32" s="7">
+        <v>73.550457149104432</v>
+      </c>
+      <c r="D32">
+        <v>25775</v>
+      </c>
+      <c r="E32">
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>66.97</v>
+      </c>
+      <c r="H32">
+        <v>119.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33">
+        <v>53.98</v>
+      </c>
+      <c r="C33" s="7">
+        <v>71.265304698898589</v>
+      </c>
+      <c r="D33">
+        <v>24190</v>
+      </c>
+      <c r="E33">
+        <v>13.95</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>67.929999999999993</v>
+      </c>
+      <c r="H33">
+        <v>110.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34">
+        <v>55.57</v>
+      </c>
+      <c r="C34" s="7">
+        <v>60.584568506847596</v>
+      </c>
+      <c r="D34">
+        <v>29470</v>
+      </c>
+      <c r="E34">
+        <v>15.5</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>71.069999999999993</v>
+      </c>
+      <c r="H34">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35">
+        <v>54.69</v>
+      </c>
+      <c r="C35" s="7">
+        <v>65.307358883092704</v>
+      </c>
+      <c r="D35">
+        <v>27845</v>
+      </c>
+      <c r="E35">
+        <v>17.25</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="0"/>
+        <v>71.94</v>
+      </c>
+      <c r="H35">
+        <v>102.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36">
+        <v>58.91</v>
+      </c>
+      <c r="C36" s="7">
+        <v>71.790864143895845</v>
+      </c>
+      <c r="D36">
+        <v>34611</v>
+      </c>
+      <c r="E36">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1.63</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>77.81</v>
+      </c>
+      <c r="H36">
+        <v>113.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37">
+        <v>62.07</v>
+      </c>
+      <c r="C37" s="7">
+        <v>69.903215696573227</v>
+      </c>
+      <c r="D37">
+        <v>32259</v>
+      </c>
+      <c r="E37">
+        <v>15.15</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="0"/>
+        <v>77.22</v>
+      </c>
+      <c r="H37">
+        <v>112.86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38">
+        <v>66.34</v>
+      </c>
+      <c r="C38" s="7">
+        <v>69.494774050224606</v>
+      </c>
+      <c r="D38">
+        <v>38230</v>
+      </c>
+      <c r="E38">
+        <v>11.1</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>77.44</v>
+      </c>
+      <c r="H38">
+        <v>111.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39">
+        <v>67.66</v>
+      </c>
+      <c r="C39" s="7">
+        <v>67.987983345250669</v>
+      </c>
+      <c r="D39">
+        <v>27230</v>
+      </c>
+      <c r="E39">
+        <v>7.8</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="0"/>
+        <v>75.459999999999994</v>
+      </c>
+      <c r="H39">
+        <v>109.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="C40" s="7">
+        <v>67.741472456709545</v>
+      </c>
+      <c r="D40">
+        <v>27275</v>
+      </c>
+      <c r="E40">
+        <v>5.8</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>70.31</v>
+      </c>
+      <c r="H40">
+        <v>109.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41">
+        <v>64.94</v>
+      </c>
+      <c r="C41" s="7">
+        <v>71.503672349107049</v>
+      </c>
+      <c r="D41">
+        <v>35885</v>
+      </c>
+      <c r="E41">
+        <v>4.25</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="0"/>
+        <v>69.19</v>
+      </c>
+      <c r="H41">
+        <v>112.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42">
+        <v>67.33</v>
+      </c>
+      <c r="C42" s="7">
+        <v>76.511775099554299</v>
+      </c>
+      <c r="D42">
+        <v>23655</v>
+      </c>
+      <c r="E42">
+        <v>3.95</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>71.28</v>
+      </c>
+      <c r="H42">
+        <v>116.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43">
+        <v>67.75</v>
+      </c>
+      <c r="C43" s="7">
+        <v>71.375412825201636</v>
+      </c>
+      <c r="D43">
+        <v>24125</v>
+      </c>
+      <c r="E43">
+        <v>4.05</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="0"/>
+        <v>71.8</v>
+      </c>
+      <c r="H43">
+        <v>108.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44">
+        <v>63.93</v>
+      </c>
+      <c r="C44" s="7">
+        <v>65.992137738660801</v>
+      </c>
+      <c r="D44">
+        <v>29210</v>
+      </c>
+      <c r="E44">
+        <v>9.1</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>73.03</v>
+      </c>
+      <c r="H44">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45">
+        <v>65.13</v>
+      </c>
+      <c r="C45" s="7">
+        <v>67.344975556584288</v>
+      </c>
+      <c r="D45">
+        <v>28110</v>
+      </c>
+      <c r="E45">
+        <v>12.049999999999999</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1.34</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="0"/>
+        <v>77.179999999999993</v>
+      </c>
+      <c r="H45">
+        <v>102.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46">
+        <v>65.02</v>
+      </c>
+      <c r="C46" s="7">
+        <v>67.691510345449018</v>
+      </c>
+      <c r="D46">
+        <v>21915</v>
+      </c>
+      <c r="E46">
+        <v>15.75</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1.44</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>80.77</v>
+      </c>
+      <c r="H46">
+        <v>102.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47">
+        <v>66.27</v>
+      </c>
+      <c r="C47" s="7">
+        <v>70.810731371916106</v>
+      </c>
+      <c r="D47">
+        <v>24700</v>
+      </c>
+      <c r="E47">
+        <v>21.1</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="0"/>
+        <v>87.37</v>
+      </c>
+      <c r="H47">
+        <v>107.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48">
+        <v>65.19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>71.742217987259437</v>
+      </c>
+      <c r="D48">
+        <v>34985</v>
+      </c>
+      <c r="E48">
+        <v>19.3</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>84.49</v>
+      </c>
+      <c r="H48">
+        <v>111.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49">
+        <v>67.83</v>
+      </c>
+      <c r="C49" s="7">
+        <v>69.021264857971431</v>
+      </c>
+      <c r="D49">
+        <v>24815</v>
+      </c>
+      <c r="E49">
+        <v>15.399999999999999</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="0"/>
+        <v>83.22999999999999</v>
+      </c>
+      <c r="H49">
+        <v>111.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50">
+        <v>70</v>
+      </c>
+      <c r="C50" s="7">
+        <v>68.06375829503655</v>
+      </c>
+      <c r="D50">
+        <v>29520</v>
+      </c>
+      <c r="E50">
+        <v>10.85</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>80.849999999999994</v>
+      </c>
+      <c r="H50">
+        <v>109.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51">
+        <v>71.59</v>
+      </c>
+      <c r="C51" s="7">
+        <v>65.850002016003401</v>
+      </c>
+      <c r="D51">
+        <v>29170</v>
+      </c>
+      <c r="E51">
+        <v>7.25</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="0"/>
+        <v>78.84</v>
+      </c>
+      <c r="H51">
+        <v>107.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52">
+        <v>68.91</v>
+      </c>
+      <c r="C52" s="7">
+        <v>67.147132000252199</v>
+      </c>
+      <c r="D52">
+        <v>29590</v>
+      </c>
+      <c r="E52">
+        <v>6.85</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>75.759999999999991</v>
+      </c>
+      <c r="H52">
+        <v>110.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53">
+        <v>61.12</v>
+      </c>
+      <c r="C53" s="7">
+        <v>65.533706945772863</v>
+      </c>
+      <c r="D53">
+        <v>33005</v>
+      </c>
+      <c r="E53">
+        <v>6.9</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="0"/>
+        <v>68.02</v>
+      </c>
+      <c r="H53">
+        <v>108.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54">
+        <v>56.15</v>
+      </c>
+      <c r="C54" s="7">
+        <v>65.240912102698431</v>
+      </c>
+      <c r="D54">
+        <v>27170</v>
+      </c>
+      <c r="E54">
+        <v>7.5</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>63.65</v>
+      </c>
+      <c r="H54">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55">
+        <v>51.27</v>
+      </c>
+      <c r="C55" s="7">
+        <v>64.576133507010368</v>
+      </c>
+      <c r="D55">
+        <v>25185</v>
+      </c>
+      <c r="E55">
+        <v>9.25</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="0"/>
+        <v>60.52</v>
+      </c>
+      <c r="H55">
+        <v>107.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56">
+        <v>46.27</v>
+      </c>
+      <c r="C56" s="7">
+        <v>64.050403435517183</v>
+      </c>
+      <c r="D56">
+        <v>23080</v>
+      </c>
+      <c r="E56">
+        <v>11.8</v>
+      </c>
+      <c r="F56" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>58.070000000000007</v>
+      </c>
+      <c r="H56">
+        <v>107.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57">
+        <v>44.14</v>
+      </c>
+      <c r="C57" s="7">
+        <v>65.361427091637267</v>
+      </c>
+      <c r="D57">
+        <v>33350</v>
+      </c>
+      <c r="E57">
+        <v>13.9</v>
+      </c>
+      <c r="F57" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="0"/>
+        <v>58.04</v>
+      </c>
+      <c r="H57">
+        <v>109.54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58">
+        <v>39.6</v>
+      </c>
+      <c r="C58" s="7">
+        <v>65.633323412017006</v>
+      </c>
+      <c r="D58">
+        <v>30490</v>
+      </c>
+      <c r="E58">
+        <v>17.3</v>
+      </c>
+      <c r="F58" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="0"/>
+        <v>56.900000000000006</v>
+      </c>
+      <c r="H58">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59">
+        <v>41.51</v>
+      </c>
+      <c r="C59" s="7">
+        <v>63.139518999513307</v>
+      </c>
+      <c r="D59">
+        <v>37135</v>
+      </c>
+      <c r="E59">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F59" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="0"/>
+        <v>61.91</v>
+      </c>
+      <c r="H59">
+        <v>106.77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60">
+        <v>51.1</v>
+      </c>
+      <c r="C60" s="7">
+        <v>61.244417120228562</v>
+      </c>
+      <c r="D60">
+        <v>38000</v>
+      </c>
+      <c r="E60">
+        <v>17.2</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="0"/>
+        <v>68.3</v>
+      </c>
+      <c r="H60">
+        <v>101.61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61">
+        <v>55.79</v>
+      </c>
+      <c r="C61" s="7">
+        <v>59.7763849724791</v>
+      </c>
+      <c r="D61">
+        <v>42010</v>
+      </c>
+      <c r="E61">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="0"/>
+        <v>72.94</v>
+      </c>
+      <c r="H61">
+        <v>97.09</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62">
+        <v>54.07</v>
+      </c>
+      <c r="C62" s="7">
+        <v>54.640266682998963</v>
+      </c>
+      <c r="D62">
+        <v>42805</v>
+      </c>
+      <c r="E62">
+        <v>13.725000000000001</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="0"/>
+        <v>67.795000000000002</v>
+      </c>
+      <c r="H62">
+        <v>87.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63">
+        <v>58.27</v>
+      </c>
+      <c r="C63" s="7">
+        <v>50.88051341666106</v>
+      </c>
+      <c r="D63">
+        <v>41715</v>
+      </c>
+      <c r="E63">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="0"/>
+        <v>67.97</v>
+      </c>
+      <c r="H63">
+        <v>79.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64">
+        <v>49.81</v>
+      </c>
+      <c r="C64" s="7">
+        <v>40.040978736660236</v>
+      </c>
+      <c r="D64">
+        <v>51385</v>
+      </c>
+      <c r="E64">
+        <v>6.1</v>
+      </c>
+      <c r="F64" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="G64" s="6">
+        <f t="shared" si="0"/>
+        <v>55.910000000000004</v>
+      </c>
+      <c r="H64">
+        <v>62.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65">
+        <v>45.86</v>
+      </c>
+      <c r="C65" s="7">
+        <v>31.692103516921037</v>
+      </c>
+      <c r="D65">
+        <v>49890</v>
+      </c>
+      <c r="E65">
+        <v>5.2</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="G65" s="6">
+        <f t="shared" si="0"/>
+        <v>51.06</v>
+      </c>
+      <c r="H65">
+        <v>47.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66">
+        <v>50.03</v>
+      </c>
+      <c r="C66" s="7">
+        <v>37.634286713671742</v>
+      </c>
+      <c r="D66">
+        <v>40304</v>
+      </c>
+      <c r="E66">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F66" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="G66" s="6">
+        <f t="shared" si="0"/>
+        <v>54.93</v>
+      </c>
+      <c r="H66">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67">
+        <v>45.89</v>
+      </c>
+      <c r="C67" s="7">
+        <v>37.740282839414384</v>
+      </c>
+      <c r="D67">
+        <v>31400</v>
+      </c>
+      <c r="E67">
+        <v>7.85</v>
+      </c>
+      <c r="F67" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G130" si="1">B67+E67</f>
+        <v>53.74</v>
+      </c>
+      <c r="H67">
+        <v>55.89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68">
+        <v>41.94</v>
+      </c>
+      <c r="C68" s="7">
+        <v>38.582057528233229</v>
+      </c>
+      <c r="D68">
+        <v>44740</v>
+      </c>
+      <c r="E68">
+        <v>11.15</v>
+      </c>
+      <c r="F68" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="G68" s="6">
+        <f t="shared" si="1"/>
+        <v>53.089999999999996</v>
+      </c>
+      <c r="H68">
+        <v>59.52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69">
+        <v>41.89</v>
+      </c>
+      <c r="C69" s="7">
+        <v>41.830133624037963</v>
+      </c>
+      <c r="D69">
+        <v>43995</v>
+      </c>
+      <c r="E69">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="F69" s="16">
+        <v>1.31</v>
+      </c>
+      <c r="G69" s="6">
+        <f t="shared" si="1"/>
+        <v>55.09</v>
+      </c>
+      <c r="H69">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70">
+        <v>42.13</v>
+      </c>
+      <c r="C70" s="7">
+        <v>39.079756902045709</v>
+      </c>
+      <c r="D70">
+        <v>41010</v>
+      </c>
+      <c r="E70">
+        <v>16.8</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="1"/>
+        <v>58.930000000000007</v>
+      </c>
+      <c r="H70">
+        <v>61.48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71">
+        <v>42.35</v>
+      </c>
+      <c r="C71" s="7">
+        <v>36.246465713253031</v>
+      </c>
+      <c r="D71">
+        <v>45435</v>
+      </c>
+      <c r="E71">
+        <v>18.75</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="G71" s="6">
+        <f t="shared" si="1"/>
+        <v>61.1</v>
+      </c>
+      <c r="H71">
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="C72" s="7">
+        <v>30.172408201810086</v>
+      </c>
+      <c r="D72">
+        <v>55730</v>
+      </c>
+      <c r="E72">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="G72" s="6">
+        <f t="shared" si="1"/>
+        <v>59.03</v>
+      </c>
+      <c r="H72">
+        <v>46.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73">
+        <v>41.7</v>
+      </c>
+      <c r="C73" s="7">
+        <v>31.415857685241075</v>
+      </c>
+      <c r="D73">
+        <v>56285</v>
+      </c>
+      <c r="E73">
+        <v>14.4</v>
+      </c>
+      <c r="F73" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G73" s="6">
+        <f t="shared" si="1"/>
+        <v>56.1</v>
+      </c>
+      <c r="H73">
+        <v>47.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="C74" s="7">
+        <v>31.388942899734268</v>
+      </c>
+      <c r="D74">
+        <v>58519</v>
+      </c>
+      <c r="E74">
+        <v>12.55</v>
+      </c>
+      <c r="F74" s="16">
+        <v>1.39</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H74">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75">
+        <v>38.65</v>
+      </c>
+      <c r="C75" s="7">
+        <v>29.436895527945769</v>
+      </c>
+      <c r="D75">
+        <v>56948</v>
+      </c>
+      <c r="E75">
+        <v>10.7</v>
+      </c>
+      <c r="F75" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="1"/>
+        <v>49.349999999999994</v>
+      </c>
+      <c r="H75">
+        <v>44.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="C76" s="7">
+        <v>25.649140541229929</v>
+      </c>
+      <c r="D76">
+        <v>53685</v>
+      </c>
+      <c r="E76">
+        <v>11.3</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="G76" s="6">
+        <f t="shared" si="1"/>
+        <v>44.430000000000007</v>
+      </c>
+      <c r="H76">
+        <v>38.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77">
+        <v>30.59</v>
+      </c>
+      <c r="C77" s="7">
+        <v>21.549863365442864</v>
+      </c>
+      <c r="D77">
+        <v>50795</v>
+      </c>
+      <c r="E77">
+        <v>6.25</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="G77" s="6">
+        <f t="shared" si="1"/>
+        <v>36.840000000000003</v>
+      </c>
+      <c r="H77">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78">
+        <v>29.34</v>
+      </c>
+      <c r="C78" s="7">
+        <v>23.214643837731227</v>
+      </c>
+      <c r="D78">
+        <v>61840</v>
+      </c>
+      <c r="E78">
+        <v>6.15</v>
+      </c>
+      <c r="F78" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="G78" s="6">
+        <f t="shared" si="1"/>
+        <v>35.49</v>
+      </c>
+      <c r="H78">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79">
+        <v>28.02</v>
+      </c>
+      <c r="C79" s="7">
+        <v>26.58270030422965</v>
+      </c>
+      <c r="D79">
+        <v>46380</v>
+      </c>
+      <c r="E79">
+        <v>6.9499999999999993</v>
+      </c>
+      <c r="F79" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="G79" s="6">
+        <f t="shared" si="1"/>
+        <v>34.97</v>
+      </c>
+      <c r="H79">
+        <v>38.21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80">
+        <v>28.61</v>
+      </c>
+      <c r="C80" s="7">
+        <v>28.446135006259791</v>
+      </c>
+      <c r="D80">
+        <v>49910</v>
+      </c>
+      <c r="E80">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F80" s="16">
+        <v>1.0412086</v>
+      </c>
+      <c r="G80" s="6">
+        <f t="shared" si="1"/>
+        <v>37.81</v>
+      </c>
+      <c r="H80">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C81" s="8">
+        <v>31.936984244011136</v>
+      </c>
+      <c r="D81">
+        <v>54228</v>
+      </c>
+      <c r="E81">
+        <v>14.35</v>
+      </c>
+      <c r="F81" s="16">
+        <v>1.2506043</v>
+      </c>
+      <c r="G81" s="6">
+        <f t="shared" si="1"/>
+        <v>46.65</v>
+      </c>
+      <c r="H81">
+        <v>46.74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82">
+        <v>34.71</v>
+      </c>
+      <c r="C82" s="8">
+        <v>35.831407472537919</v>
+      </c>
+      <c r="D82">
+        <v>47928</v>
+      </c>
+      <c r="E82">
+        <v>16.7</v>
+      </c>
+      <c r="F82" s="16">
+        <v>0.39928550000000002</v>
+      </c>
+      <c r="G82" s="6">
+        <f t="shared" si="1"/>
+        <v>51.41</v>
+      </c>
+      <c r="H82">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="C83" s="8">
+        <v>34.010954629613515</v>
+      </c>
+      <c r="D83">
+        <v>36640</v>
+      </c>
+      <c r="E83">
+        <v>19.25</v>
+      </c>
+      <c r="F83" s="16">
+        <v>0.93247639999999998</v>
+      </c>
+      <c r="G83" s="6">
+        <f t="shared" si="1"/>
+        <v>55.87</v>
+      </c>
+      <c r="H83">
+        <v>44.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="C84" s="8">
+        <v>35.017172470269017</v>
+      </c>
+      <c r="D84">
+        <v>53095</v>
+      </c>
+      <c r="E84">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F84" s="16">
+        <v>0.61499709999999996</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="1"/>
+        <v>51.699999999999996</v>
+      </c>
+      <c r="H84">
+        <v>45.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85">
+        <v>41</v>
+      </c>
+      <c r="C85" s="8">
+        <v>35.92410656430701</v>
+      </c>
+      <c r="D85">
+        <v>49850</v>
+      </c>
+      <c r="E85">
+        <v>18.049999999999997</v>
+      </c>
+      <c r="F85" s="16">
+        <v>1.1233272000000001</v>
+      </c>
+      <c r="G85" s="6">
+        <f t="shared" si="1"/>
+        <v>59.05</v>
+      </c>
+      <c r="H85">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86">
+        <v>50.92</v>
+      </c>
+      <c r="C86" s="8">
+        <v>40.537067022048177</v>
+      </c>
+      <c r="D86">
+        <v>43360</v>
+      </c>
+      <c r="E86">
+        <v>12.3</v>
+      </c>
+      <c r="F86" s="16">
+        <v>0.18099879999999999</v>
+      </c>
+      <c r="G86" s="6">
+        <f t="shared" si="1"/>
+        <v>63.22</v>
+      </c>
+      <c r="H86">
+        <v>49.52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87">
+        <v>49.5</v>
+      </c>
+      <c r="C87" s="8">
+        <v>35.806371821113828</v>
+      </c>
+      <c r="D87">
+        <v>48728</v>
+      </c>
+      <c r="E87">
+        <v>7.15</v>
+      </c>
+      <c r="F87" s="16">
+        <v>0.28940199999999999</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="1"/>
+        <v>56.65</v>
+      </c>
+      <c r="H87">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88">
+        <v>53.63</v>
+      </c>
+      <c r="C88" s="8">
+        <v>43.200832412212598</v>
+      </c>
+      <c r="D88">
+        <v>48935</v>
+      </c>
+      <c r="E88">
+        <v>6.8</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0.25916400000000001</v>
+      </c>
+      <c r="G88" s="6">
+        <f t="shared" si="1"/>
+        <v>60.43</v>
+      </c>
+      <c r="H88">
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89">
+        <v>55.19</v>
+      </c>
+      <c r="C89" s="8">
+        <v>43.664000000000001</v>
+      </c>
+      <c r="D89">
+        <v>48468</v>
+      </c>
+      <c r="E89">
+        <v>4.1499999999999995</v>
+      </c>
+      <c r="F89" s="16">
+        <v>0.24768180000000001</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="1"/>
+        <v>59.339999999999996</v>
+      </c>
+      <c r="H89">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90">
+        <v>43.5</v>
+      </c>
+      <c r="C90" s="8">
+        <v>44.109986365858049</v>
+      </c>
+      <c r="D90">
+        <v>39400</v>
+      </c>
+      <c r="E90">
+        <v>7.2</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0.1897576</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="1"/>
+        <v>50.7</v>
+      </c>
+      <c r="H90">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91">
+        <v>39.65</v>
+      </c>
+      <c r="C91" s="8">
+        <v>41.343209544118793</v>
+      </c>
+      <c r="D91">
+        <v>51787</v>
+      </c>
+      <c r="E91">
+        <v>10.35</v>
+      </c>
+      <c r="F91" s="16">
+        <v>0.76427160000000005</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>51.59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="C92" s="8">
+        <v>40.451328877578092</v>
+      </c>
+      <c r="D92">
+        <v>52575</v>
+      </c>
+      <c r="E92">
+        <v>10.850000000000001</v>
+      </c>
+      <c r="F92" s="16">
+        <v>0.94761189999999995</v>
+      </c>
+      <c r="G92" s="6">
+        <f t="shared" si="1"/>
+        <v>49.01</v>
+      </c>
+      <c r="H92">
+        <v>52.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93">
+        <v>37.1</v>
+      </c>
+      <c r="C93" s="8">
+        <v>39.292623479391864</v>
+      </c>
+      <c r="D93">
+        <v>57410</v>
+      </c>
+      <c r="E93">
+        <v>15.100000000000001</v>
+      </c>
+      <c r="F93" s="16">
+        <v>0.70784060000000004</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="1"/>
+        <v>52.2</v>
+      </c>
+      <c r="H93">
+        <v>50.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C94" s="8">
+        <v>35.638581589064174</v>
+      </c>
+      <c r="D94">
+        <v>68726</v>
+      </c>
+      <c r="E94">
+        <v>18.95</v>
+      </c>
+      <c r="F94" s="16">
+        <v>0.28048869999999998</v>
+      </c>
+      <c r="G94" s="6">
+        <f t="shared" si="1"/>
+        <v>55.150000000000006</v>
+      </c>
+      <c r="H94">
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95">
+        <v>39.5</v>
+      </c>
+      <c r="C95" s="8">
+        <v>36.881167781926401</v>
+      </c>
+      <c r="D95">
+        <v>73890</v>
+      </c>
+      <c r="E95">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="F95" s="16">
+        <v>0.52637610000000001</v>
+      </c>
+      <c r="G95" s="6">
+        <f t="shared" si="1"/>
+        <v>58.85</v>
+      </c>
+      <c r="H95">
+        <v>48.48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96">
+        <v>44.91</v>
+      </c>
+      <c r="C96" s="8">
+        <v>40.013745534249288</v>
+      </c>
+      <c r="D96">
+        <v>64090</v>
+      </c>
+      <c r="E96">
+        <v>17.75</v>
+      </c>
+      <c r="F96" s="16">
+        <v>0.46320339999999999</v>
+      </c>
+      <c r="G96" s="6">
+        <f t="shared" si="1"/>
+        <v>62.66</v>
+      </c>
+      <c r="H96">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B97">
+        <v>47.32</v>
+      </c>
+      <c r="C97" s="8">
+        <v>41.913181863647424</v>
+      </c>
+      <c r="D97">
+        <v>48680</v>
+      </c>
+      <c r="E97">
+        <v>15.1</v>
+      </c>
+      <c r="F97" s="16">
+        <v>0.32515630000000001</v>
+      </c>
+      <c r="G97" s="6">
+        <f t="shared" si="1"/>
+        <v>62.42</v>
+      </c>
+      <c r="H97">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98">
+        <v>50.38</v>
+      </c>
+      <c r="C98">
+        <v>43.527028990772358</v>
+      </c>
+      <c r="D98">
+        <v>49696</v>
+      </c>
+      <c r="E98">
+        <v>12.425000000000001</v>
+      </c>
+      <c r="F98" s="16">
+        <v>0.26052570000000003</v>
+      </c>
+      <c r="G98" s="6">
+        <f t="shared" si="1"/>
+        <v>62.805000000000007</v>
+      </c>
+      <c r="H98">
+        <v>57.51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99">
+        <v>56.7</v>
+      </c>
+      <c r="C99">
+        <v>46.738375403585245</v>
+      </c>
+      <c r="D99">
+        <v>51123</v>
+      </c>
+      <c r="E99">
+        <v>7.8</v>
+      </c>
+      <c r="F99" s="16">
+        <v>0.31939099999999998</v>
+      </c>
+      <c r="G99" s="6">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="H99">
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B100">
+        <v>56.43</v>
+      </c>
+      <c r="C100">
+        <v>47.624790342163074</v>
+      </c>
+      <c r="D100">
+        <v>50264</v>
+      </c>
+      <c r="E100">
+        <v>5.8</v>
+      </c>
+      <c r="F100" s="16">
+        <v>0.24637429999999999</v>
+      </c>
+      <c r="G100" s="6">
+        <f t="shared" si="1"/>
+        <v>62.23</v>
+      </c>
+      <c r="H100">
+        <v>64.37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101">
+        <v>48.95</v>
+      </c>
+      <c r="C101">
+        <v>48.799509461792553</v>
+      </c>
+      <c r="D101">
+        <v>43612</v>
+      </c>
+      <c r="E101">
+        <v>6.75</v>
+      </c>
+      <c r="F101" s="16">
+        <v>0.18842809999999999</v>
+      </c>
+      <c r="G101" s="6">
+        <f t="shared" si="1"/>
+        <v>55.7</v>
+      </c>
+      <c r="H101">
+        <v>69.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B102">
+        <v>46.67</v>
+      </c>
+      <c r="C102">
+        <v>46.972259615937773</v>
+      </c>
+      <c r="D102">
+        <v>32270</v>
+      </c>
+      <c r="E102">
+        <v>3.65</v>
+      </c>
+      <c r="F102" s="16">
+        <v>0.33369330000000003</v>
+      </c>
+      <c r="G102" s="6">
+        <f t="shared" si="1"/>
+        <v>50.32</v>
+      </c>
+      <c r="H102">
+        <v>65.319999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103">
+        <v>47.36</v>
+      </c>
+      <c r="C103">
+        <v>47.099983662683641</v>
+      </c>
+      <c r="D103">
+        <v>35365</v>
+      </c>
+      <c r="E103">
+        <v>6.4</v>
+      </c>
+      <c r="F103" s="16">
+        <v>0.46522960000000002</v>
+      </c>
+      <c r="G103" s="6">
+        <f t="shared" si="1"/>
+        <v>53.76</v>
+      </c>
+      <c r="H103">
+        <v>66.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104">
+        <v>53.09</v>
+      </c>
+      <c r="C104">
+        <v>52.363396598811853</v>
+      </c>
+      <c r="D104">
+        <v>52493</v>
+      </c>
+      <c r="E104">
+        <v>11.7</v>
+      </c>
+      <c r="F104" s="16">
+        <v>0.48255169999999997</v>
+      </c>
+      <c r="G104" s="6">
+        <f t="shared" si="1"/>
+        <v>64.790000000000006</v>
+      </c>
+      <c r="H104">
+        <v>72.11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B105">
+        <v>57.56</v>
+      </c>
+      <c r="C105">
+        <v>57.951332323563861</v>
+      </c>
+      <c r="D105">
+        <v>69810</v>
+      </c>
+      <c r="E105">
+        <v>15.3</v>
+      </c>
+      <c r="F105" s="16">
+        <v>0.21718019999999999</v>
+      </c>
+      <c r="G105" s="6">
+        <f t="shared" si="1"/>
+        <v>72.86</v>
+      </c>
+      <c r="H105">
+        <v>76.98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106">
+        <v>55.24</v>
+      </c>
+      <c r="C106">
+        <v>56.328368422805681</v>
+      </c>
+      <c r="D106">
+        <v>50394</v>
+      </c>
+      <c r="E106">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F106" s="16">
+        <v>0.1642855</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="1"/>
+        <v>73.89</v>
+      </c>
+      <c r="H106">
+        <v>74.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107">
+        <v>58.55</v>
+      </c>
+      <c r="C107">
+        <v>56.526508839071127</v>
+      </c>
+      <c r="D107">
+        <v>54413</v>
+      </c>
+      <c r="E107">
+        <v>22.35</v>
+      </c>
+      <c r="F107" s="16">
+        <v>0.16827030000000001</v>
+      </c>
+      <c r="G107" s="6">
+        <f t="shared" si="1"/>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="H107">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="C108">
+        <v>55.745095884178092</v>
+      </c>
+      <c r="D108">
+        <v>74405</v>
+      </c>
+      <c r="E108">
+        <v>19.5</v>
+      </c>
+      <c r="F108" s="16">
+        <v>0.16775229999999999</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="1"/>
+        <v>87.29</v>
+      </c>
+      <c r="H108">
+        <v>72.53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109">
+        <v>75.06</v>
+      </c>
+      <c r="C109">
+        <v>60.540203714063601</v>
+      </c>
+      <c r="D109">
+        <v>58325</v>
+      </c>
+      <c r="E109">
+        <v>15.95</v>
+      </c>
+      <c r="F109" s="16">
+        <v>0.15454219999999999</v>
+      </c>
+      <c r="G109" s="6">
+        <f t="shared" si="1"/>
+        <v>91.01</v>
+      </c>
+      <c r="H109">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="C110">
+        <v>63.758468474848328</v>
+      </c>
+      <c r="D110">
+        <v>44535</v>
+      </c>
+      <c r="E110">
+        <v>12.5</v>
+      </c>
+      <c r="F110" s="16">
+        <v>0.6424145</v>
+      </c>
+      <c r="G110" s="6">
+        <f t="shared" si="1"/>
+        <v>80.680000000000007</v>
+      </c>
+      <c r="H110">
+        <v>81.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111">
+        <v>67.540000000000006</v>
+      </c>
+      <c r="C111">
+        <v>50.647466257836669</v>
+      </c>
+      <c r="D111">
+        <v>51114</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111" s="16">
+        <v>1.3266800999999999</v>
+      </c>
+      <c r="G111" s="6">
+        <f t="shared" si="1"/>
+        <v>76.540000000000006</v>
+      </c>
+      <c r="H111">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112">
+        <v>61.07</v>
+      </c>
+      <c r="C112">
+        <v>45.188197498262902</v>
+      </c>
+      <c r="D112">
+        <v>55243</v>
+      </c>
+      <c r="E112">
+        <v>7.9499999999999993</v>
+      </c>
+      <c r="F112" s="16">
+        <v>1.3906544999999999</v>
+      </c>
+      <c r="G112" s="6">
+        <f t="shared" si="1"/>
+        <v>69.02</v>
+      </c>
+      <c r="H112">
+        <v>57.36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113">
+        <v>51.52</v>
+      </c>
+      <c r="C113">
+        <v>45.291816216315112</v>
+      </c>
+      <c r="D113">
+        <v>53999</v>
+      </c>
+      <c r="E113">
+        <v>4.8</v>
+      </c>
+      <c r="F113" s="16">
+        <v>1.5551102999999999</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="1"/>
+        <v>56.32</v>
+      </c>
+      <c r="H113">
+        <v>59.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114">
+        <v>44.11</v>
+      </c>
+      <c r="C114">
+        <v>48.024363579572082</v>
+      </c>
+      <c r="D114">
+        <v>56256</v>
+      </c>
+      <c r="E114">
+        <v>7.85</v>
+      </c>
+      <c r="F114" s="16">
+        <v>1.3190592000000001</v>
+      </c>
+      <c r="G114" s="6">
+        <f t="shared" si="1"/>
+        <v>51.96</v>
+      </c>
+      <c r="H114">
+        <v>63.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115">
+        <v>34.61</v>
+      </c>
+      <c r="C115">
+        <v>50.701612501389427</v>
+      </c>
+      <c r="D115">
+        <v>70131</v>
+      </c>
+      <c r="E115">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F115" s="16">
+        <v>1.5816593999999999</v>
+      </c>
+      <c r="G115" s="6">
+        <f t="shared" si="1"/>
+        <v>44.06</v>
+      </c>
+      <c r="H115">
+        <v>66.14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="C116">
+        <v>55.078589251981263</v>
+      </c>
+      <c r="D116">
+        <v>75005</v>
+      </c>
+      <c r="E116">
+        <v>10.75</v>
+      </c>
+      <c r="F116" s="16">
+        <v>2.2213611000000002</v>
+      </c>
+      <c r="G116" s="6">
+        <f t="shared" si="1"/>
+        <v>44.41</v>
+      </c>
+      <c r="H116">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="B117">
+        <v>27.57</v>
+      </c>
+      <c r="C117">
+        <v>56.559632663742988</v>
+      </c>
+      <c r="D117">
+        <v>68560</v>
+      </c>
+      <c r="E117">
+        <v>13.5</v>
+      </c>
+      <c r="F117" s="16">
+        <v>2.0557618</v>
+      </c>
+      <c r="G117" s="6">
+        <f t="shared" si="1"/>
+        <v>41.07</v>
+      </c>
+      <c r="H117">
+        <v>71.319999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118">
+        <v>25.65</v>
+      </c>
+      <c r="C118">
+        <v>50.582900585145389</v>
+      </c>
+      <c r="D118">
+        <v>54235</v>
+      </c>
+      <c r="E118">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="F118" s="16">
+        <v>0.40196130000000002</v>
+      </c>
+      <c r="G118" s="6">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="H118">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119">
+        <v>29.76</v>
+      </c>
+      <c r="C119">
+        <v>52.558873832390482</v>
+      </c>
+      <c r="D119">
+        <v>53705</v>
+      </c>
+      <c r="E119">
+        <v>20.2</v>
+      </c>
+      <c r="F119" s="16">
+        <v>0.3945497</v>
+      </c>
+      <c r="G119" s="6">
+        <f t="shared" si="1"/>
+        <v>49.96</v>
+      </c>
+      <c r="H119">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B120">
+        <v>33.03</v>
+      </c>
+      <c r="C120">
+        <v>48.55686433192367</v>
+      </c>
+      <c r="D120">
+        <v>70397</v>
+      </c>
+      <c r="E120">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="F120" s="16">
+        <v>0.2630345</v>
+      </c>
+      <c r="G120" s="6">
+        <f t="shared" si="1"/>
+        <v>52.68</v>
+      </c>
+      <c r="H120">
+        <v>59.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121">
+        <v>43.18</v>
+      </c>
+      <c r="C121">
+        <v>51.109681229495727</v>
+      </c>
+      <c r="D121">
+        <v>101360</v>
+      </c>
+      <c r="E121">
+        <v>16.5</v>
+      </c>
+      <c r="F121" s="16">
+        <v>0.92868899999999999</v>
+      </c>
+      <c r="G121" s="6">
+        <f t="shared" si="1"/>
+        <v>59.68</v>
+      </c>
+      <c r="H121">
+        <v>62.83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B122">
+        <v>42.64</v>
+      </c>
+      <c r="C122">
+        <v>46.280615080303185</v>
+      </c>
+      <c r="D122">
+        <v>92295</v>
+      </c>
+      <c r="E122">
+        <v>12.05</v>
+      </c>
+      <c r="F122" s="16">
+        <v>1.8804574999999999</v>
+      </c>
+      <c r="G122" s="6">
+        <f t="shared" si="1"/>
+        <v>54.69</v>
+      </c>
+      <c r="H122">
+        <v>59.71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B123">
+        <v>42.76</v>
+      </c>
+      <c r="C123">
+        <v>48.886310904872396</v>
+      </c>
+      <c r="D123">
+        <v>76535</v>
+      </c>
+      <c r="E123">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="F123" s="16">
+        <v>2.2284961000000001</v>
+      </c>
+      <c r="G123" s="6">
+        <f t="shared" si="1"/>
+        <v>50.06</v>
+      </c>
+      <c r="H123">
+        <v>63.21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B124">
+        <v>31.07</v>
+      </c>
+      <c r="C124">
+        <v>51.330623052032976</v>
+      </c>
+      <c r="D124">
+        <v>71225</v>
+      </c>
+      <c r="E124">
+        <v>7.1</v>
+      </c>
+      <c r="F124" s="16">
+        <v>2.4983900999999999</v>
+      </c>
+      <c r="G124" s="6">
+        <f t="shared" si="1"/>
+        <v>38.17</v>
+      </c>
+      <c r="H124">
+        <v>67.31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B125">
+        <v>24.18</v>
+      </c>
+      <c r="C125">
+        <v>48.628619451447783</v>
+      </c>
+      <c r="D125">
+        <v>79720</v>
+      </c>
+      <c r="E125">
+        <v>7.4</v>
+      </c>
+      <c r="F125" s="16">
+        <v>1.42416E-2</v>
+      </c>
+      <c r="G125" s="6">
+        <f t="shared" si="1"/>
+        <v>31.58</v>
+      </c>
+      <c r="H125">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126">
+        <v>21.7</v>
+      </c>
+      <c r="C126">
+        <v>43.421989813073246</v>
+      </c>
+      <c r="D126">
+        <v>69920</v>
+      </c>
+      <c r="E126">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="F126" s="16">
+        <v>6.8696599999999997E-2</v>
+      </c>
+      <c r="G126" s="6">
+        <f t="shared" si="1"/>
+        <v>29.4</v>
+      </c>
+      <c r="H126">
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="C127">
+        <v>25.873691766006772</v>
+      </c>
+      <c r="D127">
+        <v>55435</v>
+      </c>
+      <c r="E127">
+        <v>7.95</v>
+      </c>
+      <c r="F127" s="16">
+        <v>1.6152199999999999E-2</v>
+      </c>
+      <c r="G127" s="6">
+        <f t="shared" si="1"/>
+        <v>24.279999999999998</v>
+      </c>
+      <c r="H127">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128">
+        <v>13.87</v>
+      </c>
+      <c r="C128">
+        <v>14.737637183106722</v>
+      </c>
+      <c r="D128">
+        <v>48995</v>
+      </c>
+      <c r="E128">
+        <v>12.35</v>
+      </c>
+      <c r="F128" s="16">
+        <v>2.1195887</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="1"/>
+        <v>26.22</v>
+      </c>
+      <c r="H128">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B129">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C129">
+        <v>23.799128229346479</v>
+      </c>
+      <c r="D129">
+        <v>62166</v>
+      </c>
+      <c r="E129">
+        <v>15.100000000000001</v>
+      </c>
+      <c r="F129" s="16">
+        <v>1.5933310000000001</v>
+      </c>
+      <c r="G129" s="6">
+        <f t="shared" si="1"/>
+        <v>24.730000000000004</v>
+      </c>
+      <c r="H129">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130">
+        <v>16.22</v>
+      </c>
+      <c r="C130">
+        <v>32.71172658942681</v>
+      </c>
+      <c r="D130">
+        <v>47542</v>
+      </c>
+      <c r="E130">
+        <v>17.55</v>
+      </c>
+      <c r="F130" s="16">
+        <v>1.1610016999999999</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="1"/>
+        <v>33.769999999999996</v>
+      </c>
+      <c r="H130">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B131">
+        <v>15.64</v>
+      </c>
+      <c r="C131">
+        <v>32.962718738207862</v>
+      </c>
+      <c r="D131">
+        <v>65757</v>
+      </c>
+      <c r="E131">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F131" s="16">
+        <v>0.65259619999999996</v>
+      </c>
+      <c r="G131" s="6">
+        <f t="shared" ref="G131:G151" si="2">B131+E131</f>
+        <v>34.24</v>
+      </c>
+      <c r="H131">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132">
+        <v>28.95</v>
+      </c>
+      <c r="C132">
+        <v>33.496849469321262</v>
+      </c>
+      <c r="D132">
+        <v>40720</v>
+      </c>
+      <c r="E132">
+        <v>20.6</v>
+      </c>
+      <c r="F132" s="16">
+        <v>0.82420959999999999</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="2"/>
+        <v>49.55</v>
+      </c>
+      <c r="H132">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B133">
+        <v>37</v>
+      </c>
+      <c r="C133">
+        <v>31.795649801733799</v>
+      </c>
+      <c r="D133">
+        <v>63025</v>
+      </c>
+      <c r="E133">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F133" s="16">
+        <v>0.79678439999999995</v>
+      </c>
+      <c r="G133" s="6">
+        <f t="shared" si="2"/>
+        <v>53.4</v>
+      </c>
+      <c r="H133">
+        <v>40.909999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134">
+        <v>41.5</v>
+      </c>
+      <c r="C134">
+        <v>31.037121756798392</v>
+      </c>
+      <c r="D134">
+        <v>60271</v>
+      </c>
+      <c r="E134">
+        <v>11.95</v>
+      </c>
+      <c r="F134" s="16">
+        <v>0.69203570000000003</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="2"/>
+        <v>53.45</v>
+      </c>
+      <c r="H134">
+        <v>40.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B135">
+        <v>43.67</v>
+      </c>
+      <c r="C135">
+        <v>32.020918233021376</v>
+      </c>
+      <c r="D135">
+        <v>73710</v>
+      </c>
+      <c r="E135">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F135" s="16">
+        <v>1.3169576000000001</v>
+      </c>
+      <c r="G135" s="6">
+        <f t="shared" si="2"/>
+        <v>53.120000000000005</v>
+      </c>
+      <c r="H135">
+        <v>42.69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B136">
+        <v>56.4</v>
+      </c>
+      <c r="C136">
+        <v>36.674673126613087</v>
+      </c>
+      <c r="D136">
+        <v>75583</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136" s="16">
+        <v>1.7604776</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="2"/>
+        <v>62.4</v>
+      </c>
+      <c r="H136">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137">
+        <v>53.15</v>
+      </c>
+      <c r="C137">
+        <v>39.960572041024342</v>
+      </c>
+      <c r="D137">
+        <v>64760</v>
+      </c>
+      <c r="E137">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F137" s="16">
+        <v>0.90060229999999997</v>
+      </c>
+      <c r="G137" s="6">
+        <f t="shared" si="2"/>
+        <v>57.3</v>
+      </c>
+      <c r="H137">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B138">
+        <v>39.79</v>
+      </c>
+      <c r="C138">
+        <v>44.709260588657571</v>
+      </c>
+      <c r="D138">
+        <v>41235</v>
+      </c>
+      <c r="E138">
+        <v>6.1</v>
+      </c>
+      <c r="F138" s="16">
+        <v>1.8972361</v>
+      </c>
+      <c r="G138" s="6">
+        <f t="shared" si="2"/>
+        <v>45.89</v>
+      </c>
+      <c r="H138">
+        <v>62.28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B139">
+        <v>46.8</v>
+      </c>
+      <c r="C139">
+        <v>47.582501918649271</v>
+      </c>
+      <c r="D139">
+        <v>44325</v>
+      </c>
+      <c r="E139">
+        <v>8.1</v>
+      </c>
+      <c r="F139" s="16">
+        <v>2.3212229</v>
+      </c>
+      <c r="G139" s="6">
+        <f t="shared" si="2"/>
+        <v>54.9</v>
+      </c>
+      <c r="H139">
+        <v>65.41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140">
+        <v>60.24</v>
+      </c>
+      <c r="C140">
+        <v>46.449325011968895</v>
+      </c>
+      <c r="D140">
+        <v>37515</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="F140" s="16">
+        <v>2.1119043</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="2"/>
+        <v>68.240000000000009</v>
+      </c>
+      <c r="H140">
+        <v>64.81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141">
+        <v>60.68</v>
+      </c>
+      <c r="C141">
+        <v>48.327370865499276</v>
+      </c>
+      <c r="D141">
+        <v>35298</v>
+      </c>
+      <c r="E141">
+        <v>11.85</v>
+      </c>
+      <c r="F141" s="16">
+        <v>1.4289556999999999</v>
+      </c>
+      <c r="G141" s="6">
+        <f t="shared" si="2"/>
+        <v>72.53</v>
+      </c>
+      <c r="H141">
+        <v>68.53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B142">
+        <v>85.87</v>
+      </c>
+      <c r="C142">
+        <v>52.850770258799734</v>
+      </c>
+      <c r="D142">
+        <v>35409</v>
+      </c>
+      <c r="E142">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F142" s="16">
+        <v>1.0167358</v>
+      </c>
+      <c r="G142" s="6">
+        <f t="shared" si="2"/>
+        <v>103.77000000000001</v>
+      </c>
+      <c r="H142">
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B143">
+        <v>103.75</v>
+      </c>
+      <c r="C143">
+        <v>54.063539942793483</v>
+      </c>
+      <c r="D143">
+        <v>31580</v>
+      </c>
+      <c r="E143">
+        <v>19.55</v>
+      </c>
+      <c r="F143" s="16">
+        <v>0.1697668</v>
+      </c>
+      <c r="G143" s="6">
+        <f t="shared" si="2"/>
+        <v>123.3</v>
+      </c>
+      <c r="H143">
+        <v>75.17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B144">
+        <v>127.71</v>
+      </c>
+      <c r="C144">
+        <v>51.415432332930727</v>
+      </c>
+      <c r="D144">
+        <v>42865</v>
+      </c>
+      <c r="E144">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="F144" s="16">
+        <v>0.17290849999999999</v>
+      </c>
+      <c r="G144" s="6">
+        <f t="shared" si="2"/>
+        <v>145.35999999999999</v>
+      </c>
+      <c r="H144">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B145">
+        <v>251.18</v>
+      </c>
+      <c r="C145">
+        <v>55.480165226471392</v>
+      </c>
+      <c r="D145">
+        <v>51091</v>
+      </c>
+      <c r="E145">
+        <v>17.8</v>
+      </c>
+      <c r="F145" s="16">
+        <v>0.211866</v>
+      </c>
+      <c r="G145" s="6">
+        <f t="shared" si="2"/>
+        <v>268.98</v>
+      </c>
+      <c r="H145">
+        <v>74.489999999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B146">
+        <v>165.98</v>
+      </c>
+      <c r="C146">
+        <v>61.022644265887514</v>
+      </c>
+      <c r="D146">
+        <v>40990</v>
+      </c>
+      <c r="E146">
+        <v>13.299999999999999</v>
+      </c>
+      <c r="F146" s="16">
+        <v>0.64303299999999997</v>
+      </c>
+      <c r="G146" s="6">
+        <f t="shared" si="2"/>
+        <v>179.28</v>
+      </c>
+      <c r="H146">
+        <v>83.54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B147">
+        <v>238.31</v>
+      </c>
+      <c r="C147">
+        <v>60.870969316675492</v>
+      </c>
+      <c r="D147">
+        <v>45540</v>
+      </c>
+      <c r="E147">
+        <v>7.95</v>
+      </c>
+      <c r="F147" s="16">
+        <v>1.3877706999999999</v>
+      </c>
+      <c r="G147" s="6">
+        <f t="shared" si="2"/>
+        <v>246.26</v>
+      </c>
+      <c r="H147">
+        <v>81.05</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B148">
+        <v>170.64</v>
+      </c>
+      <c r="C148">
+        <v>54.9473751275154</v>
+      </c>
+      <c r="D148">
+        <v>45135</v>
+      </c>
+      <c r="E148">
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="F148" s="16">
+        <v>2.0119585999999998</v>
+      </c>
+      <c r="G148" s="6">
+        <f t="shared" si="2"/>
+        <v>178.33999999999997</v>
+      </c>
+      <c r="H148">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B149">
+        <v>203.08</v>
+      </c>
+      <c r="C149">
+        <v>64.543372982506668</v>
+      </c>
+      <c r="D149">
+        <v>37335</v>
+      </c>
+      <c r="E149">
+        <v>5.4</v>
+      </c>
+      <c r="F149" s="16">
+        <v>3.1466875999999999</v>
+      </c>
+      <c r="G149" s="6">
+        <f t="shared" si="2"/>
+        <v>208.48000000000002</v>
+      </c>
+      <c r="H149">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150">
+        <v>237.78</v>
+      </c>
+      <c r="C150">
+        <v>72.62995512690614</v>
+      </c>
+      <c r="D150">
+        <v>33040</v>
+      </c>
+      <c r="E150">
+        <v>7.65</v>
+      </c>
+      <c r="F150" s="16">
+        <v>2.0512907999999999</v>
+      </c>
+      <c r="G150" s="6">
+        <f t="shared" si="2"/>
+        <v>245.43</v>
+      </c>
+      <c r="H150">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B151">
+        <v>299.32</v>
+      </c>
+      <c r="C151">
+        <v>89.238961007330914</v>
+      </c>
+      <c r="D151">
+        <v>25101</v>
+      </c>
+      <c r="E151">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F151" s="16">
+        <v>2.1545969</v>
+      </c>
+      <c r="G151" s="6">
+        <f t="shared" si="2"/>
+        <v>308.37</v>
+      </c>
+      <c r="H151">
+        <v>117.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="35" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="33" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A351F-8CFD-A642-B75B-2C9DB6A5B224}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10925,7 +15567,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -10947,8 +15589,11 @@
       <c r="G1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -10969,8 +15614,11 @@
       <c r="F2">
         <v>1975</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>7.5999999999999988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -10991,8 +15639,11 @@
       <c r="F3">
         <v>875</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -11013,8 +15664,11 @@
       <c r="F4">
         <v>3360</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>17.283333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -11035,8 +15689,11 @@
       <c r="F5">
         <v>6490</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>8.2999999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -11057,8 +15714,11 @@
       <c r="F6">
         <v>2425</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -11079,8 +15739,11 @@
       <c r="F7">
         <v>2455</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>13.633333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -11101,8 +15764,11 @@
       <c r="F8">
         <v>5060</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>18.416666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -11123,8 +15789,11 @@
       <c r="F9">
         <v>385</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>8.6333333333333346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -11145,8 +15814,11 @@
       <c r="F10">
         <v>2470</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>7.0333333333333341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -11167,8 +15839,11 @@
       <c r="F11">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>13.283333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -11189,8 +15864,11 @@
       <c r="F12">
         <v>4200</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>17.266666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -11211,8 +15889,11 @@
       <c r="F13">
         <v>7495</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>8.7166666666666668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -11233,8 +15914,11 @@
       <c r="F14">
         <v>5435</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
@@ -11255,8 +15939,11 @@
       <c r="F15">
         <v>3495</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>13.033333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>33</v>
       </c>
@@ -11277,8 +15964,11 @@
       <c r="F16">
         <v>4965</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>17.616666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
@@ -11299,8 +15989,11 @@
       <c r="F17">
         <v>4485</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>8.2666666666666675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -11321,8 +16014,11 @@
       <c r="F18">
         <v>3580</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>7.7666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -11343,8 +16039,11 @@
       <c r="F19">
         <v>5170</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>13.366666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -11365,8 +16064,11 @@
       <c r="F20">
         <v>2715</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>17.599999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
@@ -11387,8 +16089,11 @@
       <c r="F21">
         <v>5490</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>9.5499999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
@@ -11409,8 +16114,11 @@
       <c r="F22">
         <v>5510</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
@@ -11431,8 +16139,11 @@
       <c r="F23">
         <v>5910</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>14.300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
@@ -11453,8 +16164,11 @@
       <c r="F24">
         <v>4960</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -11475,8 +16189,11 @@
       <c r="F25">
         <v>3450</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>8.7000000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
@@ -11497,8 +16214,11 @@
       <c r="F26">
         <v>3840</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>6.5166666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
@@ -11519,8 +16239,11 @@
       <c r="F27">
         <v>4274</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>13.933333333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
@@ -11541,8 +16264,11 @@
       <c r="F28">
         <v>3985</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>18.033333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
@@ -11563,8 +16289,11 @@
       <c r="F29">
         <v>5720</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>8.9166666666666661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>47</v>
       </c>
@@ -11585,8 +16314,11 @@
       <c r="F30">
         <v>2345</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>6.5166666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>48</v>
       </c>
@@ -11607,8 +16339,11 @@
       <c r="F31">
         <v>2862</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>13.783333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
@@ -11629,8 +16364,11 @@
       <c r="F32">
         <v>2845</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
@@ -11651,8 +16389,11 @@
       <c r="F33">
         <v>3750</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>8.3666666666666654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
@@ -11673,8 +16414,11 @@
       <c r="F34">
         <v>1775</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>5.2666666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
@@ -11695,8 +16439,11 @@
       <c r="F35">
         <v>2100</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>14.083333333333334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
@@ -11717,8 +16464,11 @@
       <c r="F36">
         <v>5005</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>19.633333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
@@ -11739,8 +16489,11 @@
       <c r="F37">
         <v>5465</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>10.008333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>55</v>
       </c>
@@ -11761,8 +16514,11 @@
       <c r="F38">
         <v>4500</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>7.7166666666666659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>56</v>
       </c>
@@ -11783,8 +16539,11 @@
       <c r="F39">
         <v>3055</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
@@ -11808,8 +16567,11 @@
       <c r="G40" s="4">
         <v>15.115296000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>58</v>
       </c>
@@ -11833,8 +16595,11 @@
       <c r="G41" s="4">
         <v>16.473590999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>59</v>
       </c>
@@ -11858,8 +16623,11 @@
       <c r="G42" s="4">
         <v>17.715785</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>7.0666666666666673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -11883,8 +16651,11 @@
       <c r="G43" s="4">
         <v>22.742685000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>61</v>
       </c>
@@ -11908,8 +16679,11 @@
       <c r="G44" s="4">
         <v>17.698965000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>16.983333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>62</v>
       </c>
@@ -11933,8 +16707,11 @@
       <c r="G45" s="4">
         <v>14.765565</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>7.7833333333333341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>63</v>
       </c>
@@ -11958,8 +16735,11 @@
       <c r="G46" s="4">
         <v>10.592395</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>64</v>
       </c>
@@ -11983,8 +16763,11 @@
       <c r="G47" s="4">
         <v>10.651249999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>65</v>
       </c>
@@ -12008,8 +16791,11 @@
       <c r="G48" s="4">
         <v>12.215047999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>17.866666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>66</v>
       </c>
@@ -12033,8 +16819,11 @@
       <c r="G49" s="4">
         <v>10.909122</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>8.9833333333333343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>67</v>
       </c>
@@ -12058,8 +16847,11 @@
       <c r="G50" s="4">
         <v>11.409800000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>4.6000000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>68</v>
       </c>
@@ -12083,8 +16875,11 @@
       <c r="G51" s="4">
         <v>12.433014999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>69</v>
       </c>
@@ -12108,8 +16903,11 @@
       <c r="G52" s="4">
         <v>13.371257</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>70</v>
       </c>
@@ -12133,8 +16931,11 @@
       <c r="G53" s="4">
         <v>12.02215</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>71</v>
       </c>
@@ -12158,8 +16959,11 @@
       <c r="G54" s="4">
         <v>14.910104</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>6.8833333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>72</v>
       </c>
@@ -12183,8 +16987,11 @@
       <c r="G55" s="4">
         <v>12.073432</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>14.799999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>73</v>
       </c>
@@ -12208,8 +17015,11 @@
       <c r="G56" s="4">
         <v>9.1537419999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>74</v>
       </c>
@@ -12233,8 +17043,11 @@
       <c r="G57" s="4">
         <v>5.8046160000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>10.424999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>75</v>
       </c>
@@ -12258,8 +17071,11 @@
       <c r="G58" s="4">
         <v>5.8150380000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>6.9833333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>76</v>
       </c>
@@ -12283,8 +17099,11 @@
       <c r="G59" s="4">
         <v>6.6059200000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>77</v>
       </c>
@@ -12308,8 +17127,11 @@
       <c r="G60" s="4">
         <v>6.3043500000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>17.099999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
@@ -12333,8 +17155,11 @@
       <c r="G61" s="4">
         <v>5.2419149999999997</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>8.2333333333333325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>79</v>
       </c>
@@ -12358,8 +17183,11 @@
       <c r="G62" s="4">
         <v>13.544397999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>80</v>
       </c>
@@ -12383,8 +17211,11 @@
       <c r="G63" s="4">
         <v>13.123900000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>81</v>
       </c>
@@ -12408,8 +17239,11 @@
       <c r="G64" s="4">
         <v>13.744210000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>82</v>
       </c>
@@ -12433,8 +17267,11 @@
       <c r="G65" s="4">
         <v>13.5589</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>8.3166666666666682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>83</v>
       </c>
@@ -12458,8 +17295,11 @@
       <c r="G66" s="4">
         <v>13.384031999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>7.8833333333333329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>84</v>
       </c>
@@ -12483,8 +17323,11 @@
       <c r="G67" s="4">
         <v>14.199743</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>85</v>
       </c>
@@ -12508,8 +17351,11 @@
       <c r="G68" s="4">
         <v>14.083780000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>18.249999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>86</v>
       </c>
@@ -12533,8 +17379,11 @@
       <c r="G69" s="4">
         <v>15.180350000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>9.8416666666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>87</v>
       </c>
@@ -12558,8 +17407,11 @@
       <c r="G70" s="4">
         <v>23.010079999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>5.9833333333333343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>88</v>
       </c>
@@ -12583,8 +17435,11 @@
       <c r="G71" s="4">
         <v>23.257812000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>13.716666666666669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>89</v>
       </c>
@@ -12608,8 +17463,11 @@
       <c r="G72" s="4">
         <v>24.004818</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>17.099999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>90</v>
       </c>
@@ -12633,8 +17491,11 @@
       <c r="G73" s="4">
         <v>24.056495999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>11.516666666666666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>91</v>
       </c>
@@ -12658,8 +17519,11 @@
       <c r="G74" s="4">
         <v>22.118919999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>92</v>
       </c>
@@ -12683,8 +17547,11 @@
       <c r="G75" s="4">
         <v>21.720085999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>13.416666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>93</v>
       </c>
@@ -12708,8 +17575,11 @@
       <c r="G76" s="4">
         <v>22.294864</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>18.983333333333331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>94</v>
       </c>
@@ -12733,8 +17603,11 @@
       <c r="G77" s="4">
         <v>23.571425999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>8.7500000000000018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>95</v>
       </c>
@@ -12758,8 +17631,11 @@
       <c r="G78" s="4">
         <v>22.275431999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>7.2333333333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>96</v>
       </c>
@@ -12783,8 +17659,11 @@
       <c r="G79" s="4">
         <v>22.751714</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>14.966666666666669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>97</v>
       </c>
@@ -12808,8 +17687,11 @@
       <c r="G80" s="4">
         <v>24.691344000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>17.400000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>98</v>
       </c>
@@ -12833,8 +17715,11 @@
       <c r="G81" s="4">
         <v>25.6325</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>8.6750000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>99</v>
       </c>
@@ -12858,8 +17743,11 @@
       <c r="G82" s="4">
         <v>30.338352</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>100</v>
       </c>
@@ -12883,8 +17771,11 @@
       <c r="G83" s="4">
         <v>32.601444000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>15.216666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>101</v>
       </c>
@@ -12908,8 +17799,11 @@
       <c r="G84" s="4">
         <v>39.937941000000002</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>19.266666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>102</v>
       </c>
@@ -12933,8 +17827,11 @@
       <c r="G85" s="4">
         <v>42.318821999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>9.8166666666666664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>103</v>
       </c>
@@ -12958,8 +17855,11 @@
       <c r="G86" s="4">
         <v>37.636609999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>7.3666666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>104</v>
       </c>
@@ -12983,8 +17883,11 @@
       <c r="G87" s="4">
         <v>42.620750000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>105</v>
       </c>
@@ -13008,8 +17911,11 @@
       <c r="G88" s="4">
         <v>40.833663999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>18.783333333333331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>106</v>
       </c>
@@ -13033,8 +17939,11 @@
       <c r="G89" s="4">
         <v>39.269545999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>8.8166666666666682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>107</v>
       </c>
@@ -13058,8 +17967,11 @@
       <c r="G90" s="4">
         <v>34.355117999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>7.6833333333333336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>108</v>
       </c>
@@ -13083,8 +17995,11 @@
       <c r="G91" s="4">
         <v>43.064239999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>109</v>
       </c>
@@ -13108,8 +18023,11 @@
       <c r="G92" s="4">
         <v>42.936999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>18.533333333333335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>110</v>
       </c>
@@ -13133,8 +18051,11 @@
       <c r="G93" s="4">
         <v>47.412126000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>9.1333333333333329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>111</v>
       </c>
@@ -13158,8 +18079,11 @@
       <c r="G94" s="4">
         <v>54.486522999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>6.1166666666666671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>112</v>
       </c>
@@ -13183,8 +18107,11 @@
       <c r="G95" s="4">
         <v>66.666138000000004</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>12.583333333333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>113</v>
       </c>
@@ -13208,8 +18135,11 @@
       <c r="G96" s="4">
         <v>71.420304000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>114</v>
       </c>
@@ -13233,8 +18163,11 @@
       <c r="G97" s="4">
         <v>85.745999999999995</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G98" s="4"/>
     </row>
   </sheetData>
@@ -13262,7 +18195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F854675A-90C1-E343-881B-9412D22E232A}">
   <dimension ref="A1:F97"/>
   <sheetViews>
@@ -15176,7 +20109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2966E4-AD2B-6740-8605-AE368885112B}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -15687,7 +20620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DA1C4-05B7-F848-A539-43AFD378DC27}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -16206,12 +21139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21997811-580C-0644-9A48-9C520B2F18CE}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16885,12 +21818,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07CF596-6C4C-2448-9844-859344B1579D}">
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19724,7 +24657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C56804-FDC1-514A-9BF8-53F3ADCB6B58}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -20714,12 +25647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830A44B3-970D-BC4D-B250-5042F24441EF}">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Gas Data processed.xlsx
+++ b/Gas Data processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45009E02-7073-EF49-8A97-33A0F9CDE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69778A-8259-B849-9783-E86408A6930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
   </bookViews>
@@ -42,8 +42,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="382">
   <si>
     <t>Year</t>
   </si>
@@ -1186,16 +1208,20 @@
   </si>
   <si>
     <t>price_brent_usd</t>
+  </si>
+  <si>
+    <t>quarter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;\-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0;;;@"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1292,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1321,6 +1347,16 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11435,8 +11471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1A12A-60AE-8541-8DC2-9465FA0A2F2C}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="111" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11495,8 +11531,7 @@
         <v>1.34</v>
       </c>
       <c r="G2" s="6">
-        <f>B2+E2</f>
-        <v>49.61</v>
+        <v>-0.2</v>
       </c>
       <c r="H2">
         <v>72.77</v>
@@ -11522,8 +11557,7 @@
         <v>1.27</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G66" si="0">B3+E3</f>
-        <v>39.57</v>
+        <v>-0.06</v>
       </c>
       <c r="H3">
         <v>76.66</v>
@@ -11549,8 +11583,7 @@
         <v>1.67</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>37.869999999999997</v>
+        <v>0.66</v>
       </c>
       <c r="H4">
         <v>74.459999999999994</v>
@@ -11576,8 +11609,7 @@
         <v>1.54</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>40.870000000000005</v>
+        <v>1.47</v>
       </c>
       <c r="H5">
         <v>76.17</v>
@@ -11603,8 +11635,7 @@
         <v>1.33</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>35.64</v>
+        <v>1.06</v>
       </c>
       <c r="H6">
         <v>73.75</v>
@@ -11630,8 +11661,7 @@
         <v>1.32</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>37.11</v>
+        <v>0.19</v>
       </c>
       <c r="H7">
         <v>78.83</v>
@@ -11657,8 +11687,7 @@
         <v>1.72</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>43.83</v>
+        <v>-0.74</v>
       </c>
       <c r="H8">
         <v>84.82</v>
@@ -11684,8 +11713,7 @@
         <v>1.59</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>49.13</v>
+        <v>-0.71</v>
       </c>
       <c r="H9">
         <v>75.95</v>
@@ -11711,8 +11739,7 @@
         <v>0.92</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
-        <v>63.290000000000006</v>
+        <v>-0.84000000000000008</v>
       </c>
       <c r="H10">
         <v>74.760000000000005</v>
@@ -11738,8 +11765,7 @@
         <v>0.95</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>60.709999999999994</v>
+        <v>-0.61</v>
       </c>
       <c r="H11">
         <v>75.58</v>
@@ -11765,8 +11791,7 @@
         <v>1.39</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
-        <v>59.23</v>
+        <v>-0.53</v>
       </c>
       <c r="H12">
         <v>77.040000000000006</v>
@@ -11792,8 +11817,7 @@
         <v>1.47</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
-        <v>62.62</v>
+        <v>-0.31</v>
       </c>
       <c r="H13">
         <v>77.84</v>
@@ -11819,8 +11843,7 @@
         <v>1.65</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
-        <v>59.36</v>
+        <v>-0.14999999999999997</v>
       </c>
       <c r="H14">
         <v>82.67</v>
@@ -11846,8 +11869,7 @@
         <v>1.79</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>60.75</v>
+        <v>0.36999999999999994</v>
       </c>
       <c r="H15">
         <v>85.28</v>
@@ -11873,8 +11895,7 @@
         <v>2.08</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
-        <v>62.27</v>
+        <v>1.24</v>
       </c>
       <c r="H16">
         <v>91.45</v>
@@ -11900,8 +11921,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>57.76</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="H17">
         <v>96.52</v>
@@ -11927,8 +11947,7 @@
         <v>1.99</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
-        <v>62.23</v>
+        <v>0.2</v>
       </c>
       <c r="H18">
         <v>103.72</v>
@@ -11954,8 +11973,7 @@
         <v>2.46</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>72.11</v>
+        <v>-0.31999999999999995</v>
       </c>
       <c r="H19">
         <v>114.64</v>
@@ -11981,8 +11999,7 @@
         <v>2.68</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
-        <v>72.039999999999992</v>
+        <v>-0.93</v>
       </c>
       <c r="H20">
         <v>123.26</v>
@@ -12008,8 +12025,7 @@
         <v>2.48</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
-        <v>72.740000000000009</v>
+        <v>-0.59000000000000008</v>
       </c>
       <c r="H21">
         <v>114.99</v>
@@ -12035,8 +12051,7 @@
         <v>2.02</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
-        <v>73.14</v>
+        <v>-0.52</v>
       </c>
       <c r="H22">
         <v>113.83</v>
@@ -12062,8 +12077,7 @@
         <v>1.86</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="0"/>
-        <v>69.38</v>
+        <v>-0.6399999999999999</v>
       </c>
       <c r="H23">
         <v>116.97</v>
@@ -12089,8 +12103,7 @@
         <v>1.81</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="0"/>
-        <v>85.66</v>
+        <v>-0.13999999999999999</v>
       </c>
       <c r="H24">
         <v>110.22</v>
@@ -12116,8 +12129,7 @@
         <v>1.58</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="0"/>
-        <v>83.35</v>
+        <v>-0.37</v>
       </c>
       <c r="H25">
         <v>112.83</v>
@@ -12143,8 +12155,7 @@
         <v>1.73</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="0"/>
-        <v>80.765000000000015</v>
+        <v>-0.10999999999999999</v>
       </c>
       <c r="H26">
         <v>109.55</v>
@@ -12170,8 +12181,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>70.53</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="H27">
         <v>110.77</v>
@@ -12197,8 +12207,7 @@
         <v>1.52</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="0"/>
-        <v>61.160000000000004</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="H28">
         <v>107.87</v>
@@ -12224,8 +12233,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="0"/>
-        <v>62.85</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H29">
         <v>110.69</v>
@@ -12251,8 +12259,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="0"/>
-        <v>64.03</v>
+        <v>1.03</v>
       </c>
       <c r="H30">
         <v>119.33</v>
@@ -12278,8 +12285,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="0"/>
-        <v>71.2</v>
+        <v>-0.82</v>
       </c>
       <c r="H31">
         <v>125.45</v>
@@ -12305,8 +12311,7 @@
         <v>1.68</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="0"/>
-        <v>66.97</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H32">
         <v>119.75</v>
@@ -12332,8 +12337,7 @@
         <v>1.34</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="0"/>
-        <v>67.929999999999993</v>
+        <v>-0.48</v>
       </c>
       <c r="H33">
         <v>110.34</v>
@@ -12359,8 +12363,7 @@
         <v>1.02</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="0"/>
-        <v>71.069999999999993</v>
+        <v>-0.75</v>
       </c>
       <c r="H34">
         <v>95.16</v>
@@ -12386,8 +12389,7 @@
         <v>0.65</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="0"/>
-        <v>71.94</v>
+        <v>-0.6</v>
       </c>
       <c r="H35">
         <v>102.62</v>
@@ -12413,8 +12415,7 @@
         <v>1.63</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="0"/>
-        <v>77.81</v>
+        <v>-0.51</v>
       </c>
       <c r="H36">
         <v>113.36</v>
@@ -12440,8 +12441,7 @@
         <v>0.61</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="0"/>
-        <v>77.22</v>
+        <v>0.17</v>
       </c>
       <c r="H37">
         <v>112.86</v>
@@ -12467,8 +12467,7 @@
         <v>0.37</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="0"/>
-        <v>77.44</v>
+        <v>-0.32</v>
       </c>
       <c r="H38">
         <v>111.71</v>
@@ -12494,8 +12493,7 @@
         <v>0.75</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="0"/>
-        <v>75.459999999999994</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="H39">
         <v>109.06</v>
@@ -12521,8 +12519,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="0"/>
-        <v>70.31</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="H40">
         <v>109.49</v>
@@ -12548,8 +12545,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="0"/>
-        <v>69.19</v>
+        <v>1.21</v>
       </c>
       <c r="H41">
         <v>112.96</v>
@@ -12575,8 +12571,7 @@
         <v>0.35</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="0"/>
-        <v>71.28</v>
+        <v>1.55</v>
       </c>
       <c r="H42">
         <v>116.05</v>
@@ -12602,8 +12597,7 @@
         <v>0.3</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="0"/>
-        <v>71.8</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="H43">
         <v>108.47</v>
@@ -12629,8 +12623,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="0"/>
-        <v>73.03</v>
+        <v>-0.59000000000000008</v>
       </c>
       <c r="H44">
         <v>102.25</v>
@@ -12656,8 +12649,7 @@
         <v>1.34</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="0"/>
-        <v>77.179999999999993</v>
+        <v>-0.65999999999999992</v>
       </c>
       <c r="H45">
         <v>102.56</v>
@@ -12683,8 +12675,7 @@
         <v>1.44</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="0"/>
-        <v>80.77</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="H46">
         <v>102.92</v>
@@ -12710,8 +12701,7 @@
         <v>0.7</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="0"/>
-        <v>87.37</v>
+        <v>-0.64</v>
       </c>
       <c r="H47">
         <v>107.93</v>
@@ -12737,8 +12727,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="0"/>
-        <v>84.49</v>
+        <v>-0.62</v>
       </c>
       <c r="H48">
         <v>111.28</v>
@@ -12764,8 +12753,7 @@
         <v>0.36</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="0"/>
-        <v>83.22999999999999</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="H49">
         <v>111.6</v>
@@ -12791,8 +12779,7 @@
         <v>0.6</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="0"/>
-        <v>80.849999999999994</v>
+        <v>-0.41</v>
       </c>
       <c r="H50">
         <v>109.08</v>
@@ -12818,8 +12805,7 @@
         <v>0.97</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="0"/>
-        <v>78.84</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="H51">
         <v>107.79</v>
@@ -12845,8 +12831,7 @@
         <v>0.27</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="0"/>
-        <v>75.759999999999991</v>
+        <v>0.32</v>
       </c>
       <c r="H52">
         <v>110.76</v>
@@ -12872,8 +12857,7 @@
         <v>0.24</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="0"/>
-        <v>68.02</v>
+        <v>0.75</v>
       </c>
       <c r="H53">
         <v>108.12</v>
@@ -12899,8 +12883,7 @@
         <v>0.27</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="0"/>
-        <v>63.65</v>
+        <v>0.72</v>
       </c>
       <c r="H54">
         <v>108.9</v>
@@ -12926,8 +12909,7 @@
         <v>0.42</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="0"/>
-        <v>60.52</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="H55">
         <v>107.48</v>
@@ -12953,8 +12935,7 @@
         <v>1.06</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="0"/>
-        <v>58.070000000000007</v>
+        <v>-0.47</v>
       </c>
       <c r="H56">
         <v>107.76</v>
@@ -12980,8 +12961,7 @@
         <v>1.43</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="0"/>
-        <v>58.04</v>
+        <v>-0.43</v>
       </c>
       <c r="H57">
         <v>109.54</v>
@@ -13007,8 +12987,7 @@
         <v>1.24</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="0"/>
-        <v>56.900000000000006</v>
+        <v>-0.79</v>
       </c>
       <c r="H58">
         <v>111.8</v>
@@ -13034,8 +13013,7 @@
         <v>1.35</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="0"/>
-        <v>61.91</v>
+        <v>-0.41</v>
       </c>
       <c r="H59">
         <v>106.77</v>
@@ -13061,8 +13039,7 @@
         <v>1.28</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="0"/>
-        <v>68.3</v>
+        <v>-0.18</v>
       </c>
       <c r="H60">
         <v>101.61</v>
@@ -13088,8 +13065,7 @@
         <v>0.76</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="0"/>
-        <v>72.94</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="H61">
         <v>97.09</v>
@@ -13115,8 +13091,7 @@
         <v>0.33</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="0"/>
-        <v>67.795000000000002</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="H62">
         <v>87.43</v>
@@ -13142,8 +13117,7 @@
         <v>0.88</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="0"/>
-        <v>67.97</v>
+        <v>0.18999999999999997</v>
       </c>
       <c r="H63">
         <v>79.44</v>
@@ -13169,8 +13143,7 @@
         <v>0.91</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="0"/>
-        <v>55.910000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="H64">
         <v>62.34</v>
@@ -13196,8 +13169,7 @@
         <v>0.94</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="0"/>
-        <v>51.06</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="H65">
         <v>47.76</v>
@@ -13223,8 +13195,7 @@
         <v>0.76</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="0"/>
-        <v>54.93</v>
+        <v>1.31</v>
       </c>
       <c r="H66">
         <v>58.1</v>
@@ -13250,8 +13221,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" ref="G67:G130" si="1">B67+E67</f>
-        <v>53.74</v>
+        <v>0.47</v>
       </c>
       <c r="H67">
         <v>55.89</v>
@@ -13277,8 +13247,7 @@
         <v>0.81</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="1"/>
-        <v>53.089999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="H68">
         <v>59.52</v>
@@ -13304,8 +13273,7 @@
         <v>1.31</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="1"/>
-        <v>55.09</v>
+        <v>-0.5</v>
       </c>
       <c r="H69">
         <v>64.08</v>
@@ -13331,8 +13299,7 @@
         <v>0.81</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="1"/>
-        <v>58.930000000000007</v>
+        <v>-0.88</v>
       </c>
       <c r="H70">
         <v>61.48</v>
@@ -13358,8 +13325,7 @@
         <v>0.88</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="1"/>
-        <v>61.1</v>
+        <v>-0.65999999999999992</v>
       </c>
       <c r="H71">
         <v>56.56</v>
@@ -13385,8 +13351,7 @@
         <v>1.25</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="1"/>
-        <v>59.03</v>
+        <v>-0.98000000000000009</v>
       </c>
       <c r="H72">
         <v>46.52</v>
@@ -13412,8 +13377,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="1"/>
-        <v>56.1</v>
+        <v>0.03</v>
       </c>
       <c r="H73">
         <v>47.62</v>
@@ -13439,8 +13403,7 @@
         <v>1.39</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <v>-0.38000000000000006</v>
       </c>
       <c r="H74">
         <v>48.43</v>
@@ -13466,8 +13429,7 @@
         <v>1.28</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="1"/>
-        <v>49.349999999999994</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="H75">
         <v>44.27</v>
@@ -13493,8 +13455,7 @@
         <v>0.76</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="1"/>
-        <v>44.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>38.01</v>
@@ -13520,8 +13481,7 @@
         <v>0.78</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="1"/>
-        <v>36.840000000000003</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="H77">
         <v>30.7</v>
@@ -13547,8 +13507,7 @@
         <v>1.2</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="1"/>
-        <v>35.49</v>
+        <v>1.04</v>
       </c>
       <c r="H78">
         <v>32.18</v>
@@ -13574,8 +13533,7 @@
         <v>1.02</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="1"/>
-        <v>34.97</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="H79">
         <v>38.21</v>
@@ -13601,8 +13559,7 @@
         <v>1.0412086</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="1"/>
-        <v>37.81</v>
+        <v>0.34527429999999998</v>
       </c>
       <c r="H80">
         <v>41.58</v>
@@ -13628,8 +13585,7 @@
         <v>1.2506043</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="1"/>
-        <v>46.65</v>
+        <v>-0.45826610000000001</v>
       </c>
       <c r="H81">
         <v>46.74</v>
@@ -13655,8 +13611,7 @@
         <v>0.39928550000000002</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="1"/>
-        <v>51.41</v>
+        <v>-0.69387189999999999</v>
       </c>
       <c r="H82">
         <v>48.25</v>
@@ -13682,8 +13637,7 @@
         <v>0.93247639999999998</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="1"/>
-        <v>55.87</v>
+        <v>-0.45475894999999994</v>
       </c>
       <c r="H83">
         <v>44.95</v>
@@ -13709,8 +13663,7 @@
         <v>0.61499709999999996</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="1"/>
-        <v>51.699999999999996</v>
+        <v>1.3490200000000008E-2</v>
       </c>
       <c r="H84">
         <v>45.84</v>
@@ -13736,8 +13689,7 @@
         <v>1.1233272000000001</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="1"/>
-        <v>59.05</v>
+        <v>-7.3109669999999988E-2</v>
       </c>
       <c r="H85">
         <v>46.57</v>
@@ -13763,8 +13715,7 @@
         <v>0.18099879999999999</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="1"/>
-        <v>63.22</v>
+        <v>-5.8840700000000024E-2</v>
       </c>
       <c r="H86">
         <v>49.52</v>
@@ -13790,8 +13741,7 @@
         <v>0.28940199999999999</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="1"/>
-        <v>56.65</v>
+        <v>0.17000950000000001</v>
       </c>
       <c r="H87">
         <v>44.73</v>
@@ -13817,8 +13767,7 @@
         <v>0.25916400000000001</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="1"/>
-        <v>60.43</v>
+        <v>0.10403320000000005</v>
       </c>
       <c r="H88">
         <v>53.31</v>
@@ -13844,8 +13793,7 @@
         <v>0.24768180000000001</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="1"/>
-        <v>59.339999999999996</v>
+        <v>0.88513960000000003</v>
       </c>
       <c r="H89">
         <v>54.58</v>
@@ -13871,8 +13819,7 @@
         <v>0.1897576</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="1"/>
-        <v>50.7</v>
+        <v>0.23193290000000005</v>
       </c>
       <c r="H90">
         <v>54.87</v>
@@ -13898,8 +13845,7 @@
         <v>0.76427160000000005</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0.1395885</v>
       </c>
       <c r="H91">
         <v>51.59</v>
@@ -13925,8 +13871,7 @@
         <v>0.94761189999999995</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="1"/>
-        <v>49.01</v>
+        <v>0.38342329999999997</v>
       </c>
       <c r="H92">
         <v>52.31</v>
@@ -13952,8 +13897,7 @@
         <v>0.70784060000000004</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="1"/>
-        <v>52.2</v>
+        <v>7.9205599999999987E-2</v>
       </c>
       <c r="H93">
         <v>50.33</v>
@@ -13979,8 +13923,7 @@
         <v>0.28048869999999998</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="1"/>
-        <v>55.150000000000006</v>
+        <v>-0.28804000000000002</v>
       </c>
       <c r="H94">
         <v>46.37</v>
@@ -14006,8 +13949,7 @@
         <v>0.52637610000000001</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="1"/>
-        <v>58.85</v>
+        <v>-0.2168284</v>
       </c>
       <c r="H95">
         <v>48.48</v>
@@ -14033,8 +13975,7 @@
         <v>0.46320339999999999</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="1"/>
-        <v>62.66</v>
+        <v>-0.12100029999999998</v>
       </c>
       <c r="H96">
         <v>51.7</v>
@@ -14060,8 +14001,7 @@
         <v>0.32515630000000001</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="1"/>
-        <v>62.42</v>
+        <v>0.258631</v>
       </c>
       <c r="H97">
         <v>56.15</v>
@@ -14087,8 +14027,7 @@
         <v>0.26052570000000003</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" si="1"/>
-        <v>62.805000000000007</v>
+        <v>-0.1020759</v>
       </c>
       <c r="H98">
         <v>57.51</v>
@@ -14114,8 +14053,7 @@
         <v>0.31939099999999998</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="1"/>
-        <v>64.5</v>
+        <v>0.28778569999999998</v>
       </c>
       <c r="H99">
         <v>62.71</v>
@@ -14141,8 +14079,7 @@
         <v>0.24637429999999999</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="1"/>
-        <v>62.23</v>
+        <v>0.35457650000000007</v>
       </c>
       <c r="H100">
         <v>64.37</v>
@@ -14168,8 +14105,7 @@
         <v>0.18842809999999999</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="1"/>
-        <v>55.7</v>
+        <v>0.12981280000000001</v>
       </c>
       <c r="H101">
         <v>69.08</v>
@@ -14195,8 +14131,7 @@
         <v>0.33369330000000003</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="1"/>
-        <v>50.32</v>
+        <v>0.62420720000000007</v>
       </c>
       <c r="H102">
         <v>65.319999999999993</v>
@@ -14222,8 +14157,7 @@
         <v>0.46522960000000002</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="1"/>
-        <v>53.76</v>
+        <v>0.58660350000000006</v>
       </c>
       <c r="H103">
         <v>66.02</v>
@@ -14249,8 +14183,7 @@
         <v>0.48255169999999997</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="1"/>
-        <v>64.790000000000006</v>
+        <v>0.11591560000000001</v>
       </c>
       <c r="H104">
         <v>72.11</v>
@@ -14276,8 +14209,7 @@
         <v>0.21718019999999999</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="1"/>
-        <v>72.86</v>
+        <v>0.15715470000000004</v>
       </c>
       <c r="H105">
         <v>76.98</v>
@@ -14303,8 +14235,7 @@
         <v>0.1642855</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="1"/>
-        <v>73.89</v>
+        <v>-0.16355380000000003</v>
       </c>
       <c r="H106">
         <v>74.41</v>
@@ -14330,8 +14261,7 @@
         <v>0.16827030000000001</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="1"/>
-        <v>80.900000000000006</v>
+        <v>-0.21214879999999997</v>
       </c>
       <c r="H107">
         <v>74.25</v>
@@ -14357,8 +14287,7 @@
         <v>0.16775229999999999</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="1"/>
-        <v>87.29</v>
+        <v>-0.11628189999999999</v>
       </c>
       <c r="H108">
         <v>72.53</v>
@@ -14384,8 +14313,7 @@
         <v>0.15454219999999999</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="1"/>
-        <v>91.01</v>
+        <v>0.18670690000000001</v>
       </c>
       <c r="H109">
         <v>78.89</v>
@@ -14411,8 +14339,7 @@
         <v>0.6424145</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="1"/>
-        <v>80.680000000000007</v>
+        <v>-0.229126</v>
       </c>
       <c r="H110">
         <v>81.03</v>
@@ -14438,8 +14365,7 @@
         <v>1.3266800999999999</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="1"/>
-        <v>76.540000000000006</v>
+        <v>9.5318900000000012E-2</v>
       </c>
       <c r="H111">
         <v>64.75</v>
@@ -14465,8 +14391,7 @@
         <v>1.3906544999999999</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="1"/>
-        <v>69.02</v>
+        <v>0.20050069999999998</v>
       </c>
       <c r="H112">
         <v>57.36</v>
@@ -14492,8 +14417,7 @@
         <v>1.5551102999999999</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="1"/>
-        <v>56.32</v>
+        <v>0.51245569999999996</v>
       </c>
       <c r="H113">
         <v>59.41</v>
@@ -14519,8 +14443,7 @@
         <v>1.3190592000000001</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="1"/>
-        <v>51.96</v>
+        <v>0.45335440000000005</v>
       </c>
       <c r="H114">
         <v>63.96</v>
@@ -14546,8 +14469,7 @@
         <v>1.5816593999999999</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="1"/>
-        <v>44.06</v>
+        <v>0.39669330000000003</v>
       </c>
       <c r="H115">
         <v>66.14</v>
@@ -14573,8 +14495,7 @@
         <v>2.2213611000000002</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="1"/>
-        <v>44.41</v>
+        <v>1.3810806</v>
       </c>
       <c r="H116">
         <v>71.23</v>
@@ -14600,8 +14521,7 @@
         <v>2.0557618</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" si="1"/>
-        <v>41.07</v>
+        <v>-2.2004999999999941E-3</v>
       </c>
       <c r="H117">
         <v>71.319999999999993</v>
@@ -14627,8 +14547,7 @@
         <v>0.40196130000000002</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>7.7546400000000015E-2</v>
       </c>
       <c r="H118">
         <v>64.22</v>
@@ -14654,8 +14573,7 @@
         <v>0.3945497</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="1"/>
-        <v>49.96</v>
+        <v>-0.40721000000000002</v>
       </c>
       <c r="H119">
         <v>63.92</v>
@@ -14681,8 +14599,7 @@
         <v>0.2630345</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" si="1"/>
-        <v>52.68</v>
+        <v>-0.45587469999999997</v>
       </c>
       <c r="H120">
         <v>59.04</v>
@@ -14708,8 +14625,7 @@
         <v>0.92868899999999999</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" si="1"/>
-        <v>59.68</v>
+        <v>5.7296999999999765E-3</v>
       </c>
       <c r="H121">
         <v>62.83</v>
@@ -14735,8 +14651,7 @@
         <v>1.8804574999999999</v>
       </c>
       <c r="G122" s="6">
-        <f t="shared" si="1"/>
-        <v>54.69</v>
+        <v>-9.1452099999999981E-2</v>
       </c>
       <c r="H122">
         <v>59.71</v>
@@ -14762,8 +14677,7 @@
         <v>2.2284961000000001</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" si="1"/>
-        <v>50.06</v>
+        <v>0.15338409999999997</v>
       </c>
       <c r="H123">
         <v>63.21</v>
@@ -14789,8 +14703,7 @@
         <v>2.4983900999999999</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="1"/>
-        <v>38.17</v>
+        <v>6.0870900000000006E-2</v>
       </c>
       <c r="H124">
         <v>67.31</v>
@@ -14816,8 +14729,7 @@
         <v>1.42416E-2</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="1"/>
-        <v>31.58</v>
+        <v>0.55893210000000004</v>
       </c>
       <c r="H125">
         <v>63.65</v>
@@ -14843,8 +14755,7 @@
         <v>6.8696599999999997E-2</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="1"/>
-        <v>29.4</v>
+        <v>0.58138469999999998</v>
       </c>
       <c r="H126">
         <v>55.66</v>
@@ -14870,8 +14781,7 @@
         <v>1.6152199999999999E-2</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="1"/>
-        <v>24.279999999999998</v>
+        <v>0.21678050000000001</v>
       </c>
       <c r="H127">
         <v>32.01</v>
@@ -14897,8 +14807,7 @@
         <v>2.1195887</v>
       </c>
       <c r="G128" s="6">
-        <f t="shared" si="1"/>
-        <v>26.22</v>
+        <v>-0.55802229999999997</v>
       </c>
       <c r="H128">
         <v>18.38</v>
@@ -14924,8 +14833,7 @@
         <v>1.5933310000000001</v>
       </c>
       <c r="G129" s="6">
-        <f t="shared" si="1"/>
-        <v>24.730000000000004</v>
+        <v>-9.1951599999999967E-2</v>
       </c>
       <c r="H129">
         <v>29.38</v>
@@ -14951,8 +14859,7 @@
         <v>1.1610016999999999</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" si="1"/>
-        <v>33.769999999999996</v>
+        <v>-0.17854</v>
       </c>
       <c r="H130">
         <v>40.270000000000003</v>
@@ -14978,8 +14885,7 @@
         <v>0.65259619999999996</v>
       </c>
       <c r="G131" s="6">
-        <f t="shared" ref="G131:G151" si="2">B131+E131</f>
-        <v>34.24</v>
+        <v>-0.14415099999999997</v>
       </c>
       <c r="H131">
         <v>43.24</v>
@@ -15005,8 +14911,7 @@
         <v>0.82420959999999999</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" si="2"/>
-        <v>49.55</v>
+        <v>-6.37660000000001E-3</v>
       </c>
       <c r="H132">
         <v>44.74</v>
@@ -15032,8 +14937,7 @@
         <v>0.79678439999999995</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" si="2"/>
-        <v>53.4</v>
+        <v>0.22263160000000001</v>
       </c>
       <c r="H133">
         <v>40.909999999999997</v>
@@ -15059,8 +14963,7 @@
         <v>0.69203570000000003</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="2"/>
-        <v>53.45</v>
+        <v>-0.22016949999999996</v>
       </c>
       <c r="H134">
         <v>40.19</v>
@@ -15086,8 +14989,7 @@
         <v>1.3169576000000001</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" si="2"/>
-        <v>53.120000000000005</v>
+        <v>0.11785889999999999</v>
       </c>
       <c r="H135">
         <v>42.69</v>
@@ -15113,8 +15015,7 @@
         <v>1.7604776</v>
       </c>
       <c r="G136" s="6">
-        <f t="shared" si="2"/>
-        <v>62.4</v>
+        <v>0.20852669999999998</v>
       </c>
       <c r="H136">
         <v>49.99</v>
@@ -15140,8 +15041,7 @@
         <v>0.90060229999999997</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="2"/>
-        <v>57.3</v>
+        <v>0.38417090000000004</v>
       </c>
       <c r="H137">
         <v>54.77</v>
@@ -15167,8 +15067,7 @@
         <v>1.8972361</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="2"/>
-        <v>45.89</v>
+        <v>0.65824589999999994</v>
       </c>
       <c r="H138">
         <v>62.28</v>
@@ -15194,8 +15093,7 @@
         <v>2.3212229</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" si="2"/>
-        <v>54.9</v>
+        <v>-0.11655750000000004</v>
       </c>
       <c r="H139">
         <v>65.41</v>
@@ -15221,8 +15119,7 @@
         <v>2.1119043</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" si="2"/>
-        <v>68.240000000000009</v>
+        <v>0.53845239999999994</v>
       </c>
       <c r="H140">
         <v>64.81</v>
@@ -15248,8 +15145,7 @@
         <v>1.4289556999999999</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" si="2"/>
-        <v>72.53</v>
+        <v>-3.4490599999999982E-2</v>
       </c>
       <c r="H141">
         <v>68.53</v>
@@ -15275,8 +15171,7 @@
         <v>1.0167358</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" si="2"/>
-        <v>103.77000000000001</v>
+        <v>-7.9826199999999986E-2</v>
       </c>
       <c r="H142">
         <v>73.16</v>
@@ -15302,8 +15197,7 @@
         <v>0.1697668</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" si="2"/>
-        <v>123.3</v>
+        <v>-0.2497673</v>
       </c>
       <c r="H143">
         <v>75.17</v>
@@ -15329,8 +15223,7 @@
         <v>0.17290849999999999</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" si="2"/>
-        <v>145.35999999999999</v>
+        <v>-0.7504478</v>
       </c>
       <c r="H144">
         <v>70.75</v>
@@ -15356,8 +15249,7 @@
         <v>0.211866</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" si="2"/>
-        <v>268.98</v>
+        <v>-0.17848710000000001</v>
       </c>
       <c r="H145">
         <v>74.489999999999995</v>
@@ -15383,8 +15275,7 @@
         <v>0.64303299999999997</v>
       </c>
       <c r="G146" s="6">
-        <f t="shared" si="2"/>
-        <v>179.28</v>
+        <v>-9.8548299999999978E-2</v>
       </c>
       <c r="H146">
         <v>83.54</v>
@@ -15410,8 +15301,7 @@
         <v>1.3877706999999999</v>
       </c>
       <c r="G147" s="6">
-        <f t="shared" si="2"/>
-        <v>246.26</v>
+        <v>0.20728410000000003</v>
       </c>
       <c r="H147">
         <v>81.05</v>
@@ -15437,8 +15327,7 @@
         <v>2.0119585999999998</v>
       </c>
       <c r="G148" s="6">
-        <f t="shared" si="2"/>
-        <v>178.33999999999997</v>
+        <v>0.10889570000000004</v>
       </c>
       <c r="H148">
         <v>74.17</v>
@@ -15464,8 +15353,7 @@
         <v>3.1466875999999999</v>
       </c>
       <c r="G149" s="6">
-        <f t="shared" si="2"/>
-        <v>208.48000000000002</v>
+        <v>0.43766649999999996</v>
       </c>
       <c r="H149">
         <v>86.51</v>
@@ -15491,8 +15379,7 @@
         <v>2.0512907999999999</v>
       </c>
       <c r="G150" s="6">
-        <f t="shared" si="2"/>
-        <v>245.43</v>
+        <v>6.2064500000000022E-2</v>
       </c>
       <c r="H150">
         <v>97.13</v>
@@ -15518,8 +15405,7 @@
         <v>2.1545969</v>
       </c>
       <c r="G151" s="6">
-        <f t="shared" si="2"/>
-        <v>308.37</v>
+        <v>0.33093050000000002</v>
       </c>
       <c r="H151">
         <v>117.25</v>
@@ -15552,2641 +15438,2744 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9A351F-8CFD-A642-B75B-2C9DB6A5B224}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>215</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>218</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="17" t="e" cm="1">
+        <f t="array" ref="B2">TEXT</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C2" s="7">
         <v>33.680799999999998</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>29.712900000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <f>'prices quaterly'!C2</f>
         <v>12.152974504249293</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>'prices quaterly'!I2</f>
         <v>20.19830028328612</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1975</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7.5999999999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="17"/>
+      <c r="C3" s="7">
         <v>27.160900000000002</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>26.378399999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <f>'prices quaterly'!C3</f>
         <v>13.011204481792715</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>'prices quaterly'!I3</f>
         <v>18.739495798319325</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>875</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13.35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="17"/>
+      <c r="C4" s="7">
         <v>25.99</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>27.554500000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <f>'prices quaterly'!C4</f>
         <v>19.397759103641455</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>'prices quaterly'!I4</f>
         <v>20.560224089635852</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3360</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>17.283333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
         <v>30.203199999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>32.643799999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <f>'prices quaterly'!C5</f>
         <v>16.545961002785518</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>'prices quaterly'!I5</f>
         <v>14.665738161559888</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6490</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.2999999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="17"/>
+      <c r="C6" s="7">
         <v>29.122900000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>35.981699999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <f>'prices quaterly'!C6</f>
         <v>12.819444444444445</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>'prices quaterly'!I6</f>
         <v>21.166666666666668</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2425</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="17"/>
+      <c r="C7" s="7">
         <v>21.5152</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="7">
         <v>32.002200000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <f>'prices quaterly'!C7</f>
         <v>13.645116918844566</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>'prices quaterly'!I7</f>
         <v>24.085281980742781</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2455</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13.633333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7">
         <v>21.723800000000001</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>32.837800000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <f>'prices quaterly'!C8</f>
         <v>16.225895316804408</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>'prices quaterly'!I8</f>
         <v>32.47933884297521</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5060</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>18.416666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="17"/>
+      <c r="C9" s="7">
         <v>28.895499999999998</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>38.850200000000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <f>'prices quaterly'!C9</f>
         <v>17.832647462277091</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>'prices quaterly'!I9</f>
         <v>34.403292181069958</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>385</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>8.6333333333333346</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7">
         <v>31.1479</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>39.9587</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <f>'prices quaterly'!C10</f>
         <v>16.263736263736263</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>'prices quaterly'!I10</f>
         <v>34.024725274725277</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2470</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7.0333333333333341</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7">
         <v>25.413399999999999</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>34.632899999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <f>'prices quaterly'!C11</f>
         <v>23.292517006802722</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>'prices quaterly'!I11</f>
         <v>41.591836734693878</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>13.283333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="17"/>
+      <c r="C12" s="7">
         <v>24.220600000000001</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <v>34.032800000000002</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <f>'prices quaterly'!C12</f>
         <v>31.591836734693878</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>'prices quaterly'!I12</f>
         <v>40.598639455782312</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4200</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>17.266666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="17"/>
+      <c r="C13" s="7">
         <v>33.954599999999999</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>36.2667</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <f>'prices quaterly'!C13</f>
         <v>36.414073071718533</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f>'prices quaterly'!I13</f>
         <v>32.300405953991877</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7495</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>8.7166666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="17"/>
+      <c r="C14" s="7">
         <v>39.125999999999998</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>36.6554</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <f>'prices quaterly'!C14</f>
         <v>28.710990502035276</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f>'prices quaterly'!I14</f>
         <v>33.568521031207595</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5435</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7">
         <v>27.790500000000002</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="7">
         <v>35.096800000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <f>'prices quaterly'!C15</f>
         <v>23.342245989304814</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f>'prices quaterly'!I15</f>
         <v>34.866310160427808</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3495</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>13.033333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="17"/>
+      <c r="C16" s="7">
         <v>24.804300000000001</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="7">
         <v>32.165100000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <f>'prices quaterly'!C16</f>
         <v>30.494652406417114</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f>'prices quaterly'!I16</f>
         <v>31.09625668449198</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4965</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>17.616666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="17"/>
+      <c r="C17" s="7">
         <v>33.681199999999997</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="7">
         <v>34.800199999999997</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <f>'prices quaterly'!C17</f>
         <v>36.395193591455268</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f>'prices quaterly'!I17</f>
         <v>26.568758344459273</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4485</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8.2666666666666675</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="17"/>
+      <c r="C18" s="7">
         <v>35.614100000000001</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="7">
         <v>37.467100000000002</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <f>'prices quaterly'!C18</f>
         <v>18.386666666666667</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f>'prices quaterly'!I18</f>
         <v>34.56</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3580</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>7.7666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="17"/>
+      <c r="C19" s="7">
         <v>23.140999999999998</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19" s="7">
         <v>37.807200000000002</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <f>'prices quaterly'!C19</f>
         <v>17.899603698811095</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f>'prices quaterly'!I19</f>
         <v>33.791281373844122</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5170</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>13.366666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="17"/>
+      <c r="C20" s="7">
         <v>23.715699999999998</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20" s="7">
         <v>36.997500000000002</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <f>'prices quaterly'!C20</f>
         <v>27.453825857519789</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>'prices quaterly'!I20</f>
         <v>37.928759894459105</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2715</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>17.599999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="17"/>
+      <c r="C21" s="7">
         <v>36.004600000000003</v>
       </c>
-      <c r="C21" s="7">
+      <c r="D21" s="7">
         <v>36.5989</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <f>'prices quaterly'!C21</f>
         <v>29.566929133858267</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>'prices quaterly'!I21</f>
         <v>37.611548556430442</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5490</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9.5499999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="17"/>
+      <c r="C22" s="7">
         <v>38.7517</v>
       </c>
-      <c r="C22" s="7">
+      <c r="D22" s="7">
         <v>35.963500000000003</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <f>'prices quaterly'!C22</f>
         <v>21.287779237844944</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>'prices quaterly'!I22</f>
         <v>35.716162943495405</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5510</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="17"/>
+      <c r="C23" s="7">
         <v>28.6904</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23" s="7">
         <v>34.387900000000002</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <f>'prices quaterly'!C23</f>
         <v>21.914062499999996</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>'prices quaterly'!I23</f>
         <v>36.888020833333336</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5910</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14.300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="17"/>
+      <c r="C24" s="7">
         <v>25.9116</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24" s="7">
         <v>36.6738</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <f>'prices quaterly'!C24</f>
         <v>31.458333333333336</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>'prices quaterly'!I24</f>
         <v>35.950520833333336</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4960</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18.95</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="17"/>
+      <c r="C25" s="7">
         <v>38.406799999999997</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25" s="7">
         <v>38.110700000000001</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <f>'prices quaterly'!C25</f>
         <v>41.750972762645915</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f>'prices quaterly'!I25</f>
         <v>39.130998702983142</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3450</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>8.7000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="17"/>
+      <c r="C26" s="7">
         <v>39.5685</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26" s="7">
         <v>38.450200000000002</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <f>'prices quaterly'!C26</f>
         <v>24.430051813471501</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f>'prices quaterly'!I26</f>
         <v>40.816062176165801</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3840</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6.5166666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="17"/>
+      <c r="C27" s="7">
         <v>24.553699999999999</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27" s="7">
         <v>36.959299999999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <f>'prices quaterly'!C27</f>
         <v>28.714652956298202</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f>'prices quaterly'!I27</f>
         <v>44.344473007712082</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4274</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>13.933333333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="17"/>
+      <c r="C28" s="7">
         <v>24.7883</v>
       </c>
-      <c r="C28" s="7">
+      <c r="D28" s="7">
         <v>38.502800000000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <f>'prices quaterly'!C28</f>
         <v>50.411311053984576</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f>'prices quaterly'!I28</f>
         <v>59.614395886889461</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3985</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>18.033333333333335</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="17"/>
+      <c r="C29" s="7">
         <v>36.779200000000003</v>
       </c>
-      <c r="C29" s="7">
+      <c r="D29" s="7">
         <v>39.821199999999997</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <f>'prices quaterly'!C29</f>
         <v>43.14176245210728</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f>'prices quaterly'!I29</f>
         <v>51.673052362707537</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5720</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>8.9166666666666661</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="17"/>
+      <c r="C30" s="7">
         <v>40.604300000000002</v>
       </c>
-      <c r="C30" s="7">
+      <c r="D30" s="7">
         <v>35.739400000000003</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <f>'prices quaterly'!C30</f>
         <v>38.191082802547768</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f>'prices quaterly'!I30</f>
         <v>69.159235668789805</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2345</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>6.5166666666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="17"/>
+      <c r="C31" s="7">
         <v>26.2544</v>
       </c>
-      <c r="C31" s="7">
+      <c r="D31" s="7">
         <v>38.857500000000002</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <f>'prices quaterly'!C31</f>
         <v>40.390920554854979</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f>'prices quaterly'!I31</f>
         <v>70.088272383354351</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2862</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13.783333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="17"/>
+      <c r="C32" s="7">
         <v>21.157499999999999</v>
       </c>
-      <c r="C32" s="7">
+      <c r="D32" s="7">
         <v>40.051699999999997</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <f>'prices quaterly'!C32</f>
         <v>60.878293601003762</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f>'prices quaterly'!I32</f>
         <v>79.648682559598498</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2845</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>17.95</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="17"/>
+      <c r="C33" s="7">
         <v>40.496899999999997</v>
       </c>
-      <c r="C33" s="7">
+      <c r="D33" s="7">
         <v>34.563899999999997</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <f>'prices quaterly'!C33</f>
         <v>102.12234706616729</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f>'prices quaterly'!I33</f>
         <v>73.632958801498134</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3750</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>8.3666666666666654</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="17"/>
+      <c r="C34" s="7">
         <v>47.564</v>
       </c>
-      <c r="C34" s="7">
+      <c r="D34" s="7">
         <v>29.975999999999999</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <f>'prices quaterly'!C34</f>
         <v>54.538653366583539</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f>'prices quaterly'!I34</f>
         <v>82.182044887780549</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1775</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5.2666666666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="17"/>
+      <c r="C35" s="7">
         <v>28.546099999999999</v>
       </c>
-      <c r="C35" s="7">
+      <c r="D35" s="7">
         <v>33.685000000000002</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <f>'prices quaterly'!C35</f>
         <v>48.731527093596057</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f>'prices quaterly'!I35</f>
         <v>90.52955665024632</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2100</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>14.083333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="17"/>
+      <c r="C36" s="7">
         <v>26.863800000000001</v>
       </c>
-      <c r="C36" s="7">
+      <c r="D36" s="7">
         <v>35.3645</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <f>'prices quaterly'!C36</f>
         <v>67.099143206854336</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f>'prices quaterly'!I36</f>
         <v>76.47490820073439</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>5005</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>19.633333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="17"/>
+      <c r="C37" s="7">
         <v>38.5212</v>
       </c>
-      <c r="C37" s="7">
+      <c r="D37" s="7">
         <v>38.7288</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <f>'prices quaterly'!C37</f>
         <v>39.149453219927096</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f>'prices quaterly'!I37</f>
         <v>73.948967193195628</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>5465</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>10.008333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="17"/>
+      <c r="C38" s="7">
         <v>37.0169</v>
       </c>
-      <c r="C38" s="7">
+      <c r="D38" s="7">
         <v>42.8157</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <f>'prices quaterly'!C38</f>
         <v>24.623786407766989</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f>'prices quaterly'!I38</f>
         <v>82.645631067961148</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4500</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>7.7166666666666659</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="17"/>
+      <c r="C39" s="7">
         <v>24.100999999999999</v>
       </c>
-      <c r="C39" s="7">
+      <c r="D39" s="7">
         <v>43.474400000000003</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <f>'prices quaterly'!C39</f>
         <v>25.642256902761105</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f>'prices quaterly'!I39</f>
         <v>85.72629051620649</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3055</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>14.666666666666666</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="17"/>
+      <c r="C40" s="7">
         <v>25.624700000000001</v>
       </c>
-      <c r="C40" s="7">
+      <c r="D40" s="7">
         <v>36.554299999999998</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <f>'prices quaterly'!C40</f>
         <v>51.080432172869152</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f>'prices quaterly'!I40</f>
         <v>95.042016806722685</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>6520</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>15.115296000000001</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>16.7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="17"/>
+      <c r="C41" s="7">
         <v>42.287599999999998</v>
       </c>
-      <c r="C41" s="7">
+      <c r="D41" s="7">
         <v>39.545099999999998</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <f>'prices quaterly'!C41</f>
         <v>62.164090368608804</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f>'prices quaterly'!I41</f>
         <v>111.59334126040429</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>6790</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>16.473590999999999</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>8.65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="17"/>
+      <c r="C42" s="7">
         <v>33.424900000000001</v>
       </c>
-      <c r="C42" s="7">
+      <c r="D42" s="7">
         <v>47.612400000000001</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <f>'prices quaterly'!C42</f>
         <v>68.556213017751475</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f>'prices quaterly'!I42</f>
         <v>118.69822485207101</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>6330</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>17.715785</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>7.0666666666666673</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="17"/>
+      <c r="C43" s="7">
         <v>26.293099999999999</v>
       </c>
-      <c r="C43" s="7">
+      <c r="D43" s="7">
         <v>41.9255</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <f>'prices quaterly'!C43</f>
         <v>85.133565621370508</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f>'prices quaterly'!I43</f>
         <v>162.40418118466903</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>5655</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>22.742685000000002</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>13.65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="17"/>
+      <c r="C44" s="7">
         <v>22.006599999999999</v>
       </c>
-      <c r="C44" s="7">
+      <c r="D44" s="7">
         <v>43.280099999999997</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <f>'prices quaterly'!C44</f>
         <v>97.887485648679686</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f>'prices quaterly'!I44</f>
         <v>112.70952927669346</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>7414</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>17.698965000000001</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>16.983333333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="17"/>
+      <c r="C45" s="7">
         <v>36.328499999999998</v>
       </c>
-      <c r="C45" s="7">
+      <c r="D45" s="7">
         <v>40.169600000000003</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <f>'prices quaterly'!C45</f>
         <v>67.121559633027516</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f>'prices quaterly'!I45</f>
         <v>52.282110091743121</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>4380</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>14.765565</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>7.7833333333333341</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="17"/>
+      <c r="C46" s="7">
         <v>37.806800000000003</v>
       </c>
-      <c r="C46" s="7">
+      <c r="D46" s="7">
         <v>37.268799999999999</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <f>'prices quaterly'!C46</f>
         <v>36.747126436781606</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f>'prices quaterly'!I46</f>
         <v>56.586206896551722</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>11140</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>10.592395</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="17"/>
+      <c r="C47" s="7">
         <v>19.102599999999999</v>
       </c>
-      <c r="C47" s="7">
+      <c r="D47" s="7">
         <v>38.1096</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <f>'prices quaterly'!C47</f>
         <v>29.601366742596813</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f>'prices quaterly'!I47</f>
         <v>78.929384965831431</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>10595</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>10.651249999999999</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="17"/>
+      <c r="C48" s="7">
         <v>15.5716</v>
       </c>
-      <c r="C48" s="7">
+      <c r="D48" s="7">
         <v>42.070999999999998</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <f>'prices quaterly'!C48</f>
         <v>36.75736961451247</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f>'prices quaterly'!I48</f>
         <v>78.310657596371868</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>18195</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>12.215047999999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>17.866666666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="17"/>
+      <c r="C49" s="7">
         <v>25.3169</v>
       </c>
-      <c r="C49" s="7">
+      <c r="D49" s="7">
         <v>46.005899999999997</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <f>'prices quaterly'!C49</f>
         <v>38.058690744920995</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f>'prices quaterly'!I49</f>
         <v>87.957110609480821</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>12590</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>10.909122</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>8.9833333333333343</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="17"/>
+      <c r="C50" s="7">
         <v>30.9666</v>
       </c>
-      <c r="C50" s="7">
+      <c r="D50" s="7">
         <v>47.329099999999997</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <f>'prices quaterly'!C50</f>
         <v>33.344556677890012</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f>'prices quaterly'!I50</f>
         <v>92.817059483726155</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>18530</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>11.409800000000001</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>4.6000000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="17"/>
+      <c r="C51" s="7">
         <v>18.547799999999999</v>
       </c>
-      <c r="C51" s="7">
+      <c r="D51" s="7">
         <v>44.679000000000002</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <f>'prices quaterly'!C51</f>
         <v>50.544444444444444</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f>'prices quaterly'!I51</f>
         <v>83.344444444444449</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>16700</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>12.433014999999999</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="17"/>
+      <c r="C52" s="7">
         <v>18.805099999999999</v>
       </c>
-      <c r="C52" s="7">
+      <c r="D52" s="7">
         <v>40.1098</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <f>'prices quaterly'!C52</f>
         <v>52.403100775193799</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f>'prices quaterly'!I52</f>
         <v>91.151716500553718</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>22145</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>13.371257</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>17.583333333333332</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="17"/>
+      <c r="C53" s="7">
         <v>33.8568</v>
       </c>
-      <c r="C53" s="7">
+      <c r="D53" s="7">
         <v>40.335299999999997</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <f>'prices quaterly'!C53</f>
         <v>67.036223929747536</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f>'prices quaterly'!I53</f>
         <v>104.00658616904501</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>23810</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>12.02215</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>6.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="17"/>
+      <c r="C54" s="7">
         <v>33.357799999999997</v>
       </c>
-      <c r="C54" s="7">
+      <c r="D54" s="7">
         <v>37.591000000000001</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <f>'prices quaterly'!C54</f>
         <v>69.479392624728845</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f>'prices quaterly'!I54</f>
         <v>127.28850325379609</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>19575</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>14.910104</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>6.8833333333333329</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="17"/>
+      <c r="C55" s="7">
         <v>18.0886</v>
       </c>
-      <c r="C55" s="7">
+      <c r="D55" s="7">
         <v>36.252899999999997</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <f>'prices quaterly'!C55</f>
         <v>61.33832976445396</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f>'prices quaterly'!I55</f>
         <v>120.42826552462526</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>22840</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>12.073432</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>14.799999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="17"/>
+      <c r="C56" s="7">
         <v>18.149799999999999</v>
       </c>
-      <c r="C56" s="7">
+      <c r="D56" s="7">
         <v>37.915399999999998</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <f>'prices quaterly'!C56</f>
         <v>70.82002129925452</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f>'prices quaterly'!I56</f>
         <v>109.43556975505857</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>31540</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>9.1537419999999994</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>17.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="17"/>
+      <c r="C57" s="7">
         <v>33.410200000000003</v>
       </c>
-      <c r="C57" s="7">
+      <c r="D57" s="7">
         <v>32.046300000000002</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <f>'prices quaterly'!C57</f>
         <v>57.34952481520591</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f>'prices quaterly'!I57</f>
         <v>113.389651531151</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>24880</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>5.8046160000000002</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>10.424999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="17"/>
+      <c r="C58" s="7">
         <v>39.906500000000001</v>
       </c>
-      <c r="C58" s="7">
+      <c r="D58" s="7">
         <v>26.705400000000001</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <f>'prices quaterly'!C58</f>
         <v>64.668769716088335</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f>'prices quaterly'!I58</f>
         <v>129.21135646687699</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>29910</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>5.8150380000000004</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>6.9833333333333334</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="17"/>
+      <c r="C59" s="7">
         <v>29.6341</v>
       </c>
-      <c r="C59" s="7">
+      <c r="D59" s="7">
         <v>24.7651</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <f>'prices quaterly'!C59</f>
         <v>58.006263048016706</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f>'prices quaterly'!I59</f>
         <v>102.08768267223383</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>29470</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>6.6059200000000002</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>12.85</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="17"/>
+      <c r="C60" s="7">
         <v>27.3111</v>
       </c>
-      <c r="C60" s="7">
+      <c r="D60" s="7">
         <v>22.540800000000001</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <f>'prices quaterly'!C60</f>
         <v>64.588969823100939</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f>'prices quaterly'!I60</f>
         <v>116.95109261186265</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>32259</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>6.3043500000000003</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>17.099999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="17"/>
+      <c r="C61" s="7">
         <v>38.669899999999998</v>
       </c>
-      <c r="C61" s="7">
+      <c r="D61" s="7">
         <v>24.252199999999998</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <f>'prices quaterly'!C61</f>
         <v>66.505154639175274</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f>'prices quaterly'!I61</f>
         <v>114.54639175257732</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>27275</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>5.2419149999999997</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>8.2333333333333325</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="18"/>
+      <c r="C62" s="7">
         <v>39.301600000000001</v>
       </c>
-      <c r="C62" s="7">
+      <c r="D62" s="7">
         <v>26.714700000000001</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <f>'prices quaterly'!C62</f>
         <v>69.558521560574945</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f>'prices quaterly'!I62</f>
         <v>112.95687885010267</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>24125</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>13.544397999999999</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="18"/>
+      <c r="C63" s="7">
         <v>27.357600000000001</v>
       </c>
-      <c r="C63" s="7">
+      <c r="D63" s="7">
         <v>23.702400000000001</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <f>'prices quaterly'!C63</f>
         <v>66.279306829765545</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f>'prices quaterly'!I63</f>
         <v>104.13863404689093</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>21915</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>13.123900000000001</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="18"/>
+      <c r="C64" s="7">
         <v>25.190300000000001</v>
       </c>
-      <c r="C64" s="7">
+      <c r="D64" s="7">
         <v>20.951799999999999</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <f>'prices quaterly'!C64</f>
         <v>68.932926829268283</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f>'prices quaterly'!I64</f>
         <v>110.1321138211382</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>24815</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <v>13.744210000000001</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="18"/>
+      <c r="C65" s="7">
         <v>31.726299999999998</v>
       </c>
-      <c r="C65" s="7">
+      <c r="D65" s="7">
         <v>22.663599999999999</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <f>'prices quaterly'!C65</f>
         <v>69.676440849342768</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f>'prices quaterly'!I65</f>
         <v>112.03235591506572</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>29590</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>13.5589</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>8.3166666666666682</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="17"/>
+      <c r="C66" s="7">
         <v>32.773499999999999</v>
       </c>
-      <c r="C66" s="7">
+      <c r="D66" s="7">
         <v>21.314800000000002</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <f>'prices quaterly'!C66</f>
         <v>51.787878787878789</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <f>'prices quaterly'!I66</f>
         <v>108.84848484848484</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>25185</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>13.384031999999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>7.8833333333333329</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="17"/>
+      <c r="C67" s="7">
         <v>20.957999999999998</v>
       </c>
-      <c r="C67" s="7">
+      <c r="D67" s="7">
         <v>23.331600000000002</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <f>'prices quaterly'!C67</f>
         <v>39.719157472417251</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <f>'prices quaterly'!I67</f>
         <v>112.69809428284854</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>30490</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>14.199743</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="17"/>
+      <c r="C68" s="7">
         <v>15.0779</v>
       </c>
-      <c r="C68" s="7">
+      <c r="D68" s="7">
         <v>28.616700000000002</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <f>'prices quaterly'!C68</f>
         <v>55.901803607214433</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <f>'prices quaterly'!I68</f>
         <v>94.859719438877761</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>42010</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>14.083780000000001</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>18.249999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="17"/>
+      <c r="C69" s="7">
         <v>26.272200000000002</v>
       </c>
-      <c r="C69" s="7">
+      <c r="D69" s="7">
         <v>25.737200000000001</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <f>'prices quaterly'!C69</f>
         <v>49.81</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <f>'prices quaterly'!I69</f>
         <v>57.33</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>51385</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>15.180350000000001</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>9.8416666666666668</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="17"/>
+      <c r="C70" s="7">
         <v>28.035399999999999</v>
       </c>
-      <c r="C70" s="7">
+      <c r="D70" s="7">
         <v>23.194199999999999</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <f>'prices quaterly'!C70</f>
         <v>46.16700201207243</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <f>'prices quaterly'!I70</f>
         <v>55.442655935613679</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>31400</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>23.010079999999999</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>5.9833333333333343</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="17"/>
+      <c r="C71" s="7">
         <v>15.192600000000001</v>
       </c>
-      <c r="C71" s="7">
+      <c r="D71" s="7">
         <v>23.020199999999999</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <f>'prices quaterly'!C71</f>
         <v>42.13</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <f>'prices quaterly'!I71</f>
         <v>63.59</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>41010</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>23.257812000000001</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>13.716666666666669</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="17"/>
+      <c r="C72" s="7">
         <v>12.1724</v>
       </c>
-      <c r="C72" s="7">
+      <c r="D72" s="7">
         <v>26.063199999999998</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <f>'prices quaterly'!C72</f>
         <v>41.616766467065865</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <f>'prices quaterly'!I72</f>
         <v>48.273453093812371</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>56285</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <v>24.004818</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>17.099999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="17"/>
+      <c r="C73" s="7">
         <v>16.584700000000002</v>
       </c>
-      <c r="C73" s="7">
+      <c r="D73" s="7">
         <v>25.726900000000001</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <f>'prices quaterly'!C73</f>
         <v>32.998007968127496</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <f>'prices quaterly'!I73</f>
         <v>37.131474103585653</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>53685</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <v>24.056495999999999</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>11.516666666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="17"/>
+      <c r="C74" s="7">
         <v>13.9376</v>
       </c>
-      <c r="C74" s="7">
+      <c r="D74" s="7">
         <v>33.552199999999999</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <f>'prices quaterly'!C74</f>
         <v>27.992007992007995</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <f>'prices quaterly'!I74</f>
         <v>39.560439560439562</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>46380</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>22.118919999999999</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>6.45</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="17"/>
+      <c r="C75" s="7">
         <v>4.3414999999999999</v>
       </c>
-      <c r="C75" s="7">
+      <c r="D75" s="7">
         <v>33.872999999999998</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <f>'prices quaterly'!C75</f>
         <v>34.43452380952381</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <f>'prices quaterly'!I75</f>
         <v>49.285714285714285</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>47928</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>21.720085999999998</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>13.416666666666666</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="17"/>
+      <c r="C76" s="7">
         <v>2.5729000000000002</v>
       </c>
-      <c r="C76" s="7">
+      <c r="D76" s="7">
         <v>32.070300000000003</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <f>'prices quaterly'!C76</f>
         <v>40.51383399209486</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <f>'prices quaterly'!I76</f>
         <v>48.478260869565219</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>49850</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>22.294864</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>18.983333333333331</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="17"/>
+      <c r="C77" s="7">
         <v>8.2453000000000003</v>
       </c>
-      <c r="C77" s="7">
+      <c r="D77" s="7">
         <v>41.336100000000002</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <f>'prices quaterly'!C77</f>
         <v>52.630029440628064</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <f>'prices quaterly'!I77</f>
         <v>55.760549558390579</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>48935</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>23.571425999999999</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>8.7500000000000018</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="17"/>
+      <c r="C78" s="7">
         <v>9.8958999999999993</v>
       </c>
-      <c r="C78" s="7">
+      <c r="D78" s="7">
         <v>37.158299999999997</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <f>'prices quaterly'!C78</f>
         <v>38.758553274682306</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <f>'prices quaterly'!I78</f>
         <v>51.642228739002931</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>51787</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H78" s="4">
         <v>22.275431999999999</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>7.2333333333333334</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="17"/>
+      <c r="C79" s="7">
         <v>1.4601999999999999</v>
       </c>
-      <c r="C79" s="7">
+      <c r="D79" s="7">
         <v>31.1996</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <f>'prices quaterly'!C79</f>
         <v>35.009671179883945</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <f>'prices quaterly'!I79</f>
         <v>46.34429400386847</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>68726</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>22.751714</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>14.966666666666669</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="17"/>
+      <c r="C80" s="7">
         <v>2.0501999999999998</v>
       </c>
-      <c r="C80" s="7">
+      <c r="D80" s="7">
         <v>29.583200000000001</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <f>'prices quaterly'!C80</f>
         <v>45.543792107795959</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <f>'prices quaterly'!I80</f>
         <v>55.380173243503364</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>48680</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <v>24.691344000000001</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>17.400000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="17"/>
+      <c r="C81" s="8">
         <v>7.9683000000000002</v>
       </c>
-      <c r="C81" s="8">
+      <c r="D81" s="8">
         <v>36.301900000000003</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <f>'prices quaterly'!C81</f>
         <v>53.896848137535812</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <f>'prices quaterly'!I81</f>
         <v>63.868194842406872</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>50264</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <v>25.6325</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>8.6750000000000007</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="17"/>
+      <c r="C82" s="8">
         <v>8.2638999999999996</v>
       </c>
-      <c r="C82" s="8">
+      <c r="D82" s="8">
         <v>36.2288</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <f>'prices quaterly'!C82</f>
         <v>45.190839694656489</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <f>'prices quaterly'!I82</f>
         <v>67.051526717557252</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>35365</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <v>30.338352</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="17"/>
+      <c r="C83" s="8">
         <v>1.1474</v>
       </c>
-      <c r="C83" s="8">
+      <c r="D83" s="8">
         <v>31.524799999999999</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <f>'prices quaterly'!C83</f>
         <v>52.211720226843099</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <f>'prices quaterly'!I83</f>
         <v>75.085066162570897</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>50394</v>
       </c>
-      <c r="G83" s="4">
+      <c r="H83" s="4">
         <v>32.601444000000001</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>15.216666666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="18"/>
+      <c r="C84" s="8">
         <v>1.7586999999999999</v>
       </c>
-      <c r="C84" s="8">
+      <c r="D84" s="8">
         <v>28.522099999999998</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <f>'prices quaterly'!C84</f>
         <v>70.611476952022585</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <f>'prices quaterly'!I84</f>
         <v>77.81749764816557</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>58325</v>
       </c>
-      <c r="G84" s="4">
+      <c r="H84" s="4">
         <v>39.937941000000002</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>19.266666666666666</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="18"/>
+      <c r="C85" s="8">
         <v>4.7960000000000003</v>
       </c>
-      <c r="C85" s="8">
+      <c r="D85" s="8">
         <v>32.805</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <f>'prices quaterly'!C85</f>
         <v>57.128157156220766</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <f>'prices quaterly'!I85</f>
         <v>50.32740879326473</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>55243</v>
       </c>
-      <c r="G85" s="4">
+      <c r="H85" s="4">
         <v>42.318821999999997</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>9.8166666666666664</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="18"/>
+      <c r="C86" s="8">
         <v>2.9075000000000002</v>
       </c>
-      <c r="C86" s="8">
+      <c r="D86" s="8">
         <v>35.940199999999997</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <f>'prices quaterly'!C86</f>
         <v>32.436738519212746</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <f>'prices quaterly'!I86</f>
         <v>64.095595126522966</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>70131</v>
       </c>
-      <c r="G86" s="4">
+      <c r="H86" s="4">
         <v>37.636609999999997</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>7.3666666666666663</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="18"/>
+      <c r="C87" s="8">
         <v>0.44779999999999998</v>
       </c>
-      <c r="C87" s="8">
+      <c r="D87" s="8">
         <v>32.504800000000003</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <f>'prices quaterly'!C87</f>
         <v>23.794063079777366</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <f>'prices quaterly'!I87</f>
         <v>61.734693877551024</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>54235</v>
       </c>
-      <c r="G87" s="4">
+      <c r="H87" s="4">
         <v>42.620750000000001</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>13.700000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="18"/>
+      <c r="C88" s="8">
         <v>0.70379999999999998</v>
       </c>
-      <c r="C88" s="8">
+      <c r="D88" s="8">
         <v>28.061199999999999</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <f>'prices quaterly'!C88</f>
         <v>39.907578558225509</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <f>'prices quaterly'!I88</f>
         <v>56.173752310536045</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>101360</v>
       </c>
-      <c r="G88" s="4">
+      <c r="H88" s="4">
         <v>40.833663999999999</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>18.783333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="17"/>
+      <c r="C89" s="8">
         <v>2.5371000000000001</v>
       </c>
-      <c r="C89" s="8">
+      <c r="D89" s="8">
         <v>32.986400000000003</v>
       </c>
-      <c r="D89" s="4">
+      <c r="E89" s="4">
         <f>'prices quaterly'!C89</f>
         <v>28.662361623616235</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <f>'prices quaterly'!I89</f>
         <v>60.88560885608856</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>71225</v>
       </c>
-      <c r="G89" s="4">
+      <c r="H89" s="4">
         <v>39.269545999999998</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>8.8166666666666682</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="17"/>
+      <c r="C90" s="8">
         <v>3.1276000000000002</v>
       </c>
-      <c r="C90" s="8">
+      <c r="D90" s="8">
         <v>26.281400000000001</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <f>'prices quaterly'!C90</f>
         <v>15.05069124423963</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <f>'prices quaterly'!I90</f>
         <v>20.958525345622121</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>55435</v>
       </c>
-      <c r="G90" s="4">
+      <c r="H90" s="4">
         <v>34.355117999999997</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>7.6833333333333336</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="17"/>
+      <c r="C91" s="8">
         <v>0.36120000000000002</v>
       </c>
-      <c r="C91" s="8">
+      <c r="D91" s="8">
         <v>22.198399999999999</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <f>'prices quaterly'!C91</f>
         <v>14.921803127874885</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <f>'prices quaterly'!I91</f>
         <v>37.856485740570378</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>47542</v>
       </c>
-      <c r="G91" s="4">
+      <c r="H91" s="4">
         <v>43.064239999999998</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="18"/>
+      <c r="C92" s="8">
         <v>0.50760000000000005</v>
       </c>
-      <c r="C92" s="8">
+      <c r="D92" s="8">
         <v>29.692699999999999</v>
       </c>
-      <c r="D92" s="4">
+      <c r="E92" s="4">
         <f>'prices quaterly'!C92</f>
         <v>33.913840513290559</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <f>'prices quaterly'!I92</f>
         <v>37.534372135655367</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>63025</v>
       </c>
-      <c r="G92" s="4">
+      <c r="H92" s="4">
         <v>42.936999999999998</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>18.533333333333335</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="18"/>
+      <c r="C93" s="8">
         <v>1.2245999999999999</v>
       </c>
-      <c r="C93" s="8">
+      <c r="D93" s="8">
         <v>31.1309</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <f>'prices quaterly'!C93</f>
         <v>51.601097895699908</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <f>'prices quaterly'!I93</f>
         <v>47.392497712717294</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>75583</v>
       </c>
-      <c r="G93" s="4">
+      <c r="H93" s="4">
         <v>47.412126000000001</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>9.1333333333333329</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="18"/>
+      <c r="C94" s="8">
         <v>2.1945000000000001</v>
       </c>
-      <c r="C94" s="8">
+      <c r="D94" s="8">
         <v>32.396000000000001</v>
       </c>
-      <c r="D94" s="4">
+      <c r="E94" s="4">
         <f>'prices quaterly'!C94</f>
         <v>42.739726027397261</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <f>'prices quaterly'!I94</f>
         <v>58.027397260273972</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>44325</v>
       </c>
-      <c r="G94" s="4">
+      <c r="H94" s="4">
         <v>54.486522999999998</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>6.1166666666666671</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="18"/>
+      <c r="C95" s="8">
         <v>0.69889999999999997</v>
       </c>
-      <c r="C95" s="8">
+      <c r="D95" s="8">
         <v>30.7469</v>
       </c>
-      <c r="D95" s="4">
+      <c r="E95" s="4">
         <f>'prices quaterly'!C95</f>
         <v>77.430117222723169</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <f>'prices quaterly'!I95</f>
         <v>67.745716862037867</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>35409</v>
       </c>
-      <c r="G95" s="4">
+      <c r="H95" s="4">
         <v>66.666138000000004</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>12.583333333333334</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="10" t="s">
+    <row r="96" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="18"/>
+      <c r="C96" s="8">
         <v>1.3825000000000001</v>
       </c>
-      <c r="C96" s="8">
+      <c r="D96" s="8">
         <v>28.900400000000001</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <f>'prices quaterly'!C96</f>
         <v>224.26785714285714</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <f>'prices quaterly'!I96</f>
         <v>70.107142857142861</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>51091</v>
       </c>
-      <c r="G96" s="4">
+      <c r="H96" s="4">
         <v>71.420304000000002</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="10" t="s">
+    <row r="97" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="18"/>
+      <c r="C97" s="8">
         <v>1.7048000000000001</v>
       </c>
-      <c r="C97" s="8">
+      <c r="D97" s="8">
         <v>29.782399999999999</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <f>'prices quaterly'!C97</f>
         <v>149.55302366345313</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <f>'prices quaterly'!I97</f>
         <v>68.168273444347065</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>45135</v>
       </c>
-      <c r="G97" s="4">
+      <c r="H97" s="4">
         <v>85.745999999999995</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>9.65</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G98" s="4"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H98" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="G30">
     <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Gas Data processed.xlsx
+++ b/Gas Data processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCDC16-2772-9149-B157-0741DA42EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C250D5C-21CE-FF49-855B-E071F8FE7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="385">
   <si>
     <t>Year</t>
   </si>
@@ -1217,6 +1217,9 @@
   </si>
   <si>
     <t>gbpusd</t>
+  </si>
+  <si>
+    <t>churn</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1391,6 +1394,9 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11543,10 +11549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E1AF0F-0DF7-7D48-9F23-302A7B9DB405}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11566,7 +11572,7 @@
     <col min="14" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>220</v>
       </c>
@@ -11606,8 +11612,11 @@
       <c r="M1" s="21" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N1" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>221</v>
       </c>
@@ -11650,8 +11659,12 @@
       <c r="M2" s="27">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="21">
+        <f>code_monthly!O2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -11694,8 +11707,12 @@
       <c r="M3" s="27">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N3" s="21">
+        <f>code_monthly!O3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>223</v>
       </c>
@@ -11738,8 +11755,12 @@
       <c r="M4" s="27">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N4" s="21">
+        <f>code_monthly!O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>224</v>
       </c>
@@ -11782,8 +11803,12 @@
       <c r="M5" s="27">
         <v>87.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N5" s="21">
+        <f>code_monthly!O5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>225</v>
       </c>
@@ -11826,8 +11851,12 @@
       <c r="M6" s="27">
         <v>88.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N6" s="21">
+        <f>code_monthly!O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>226</v>
       </c>
@@ -11870,8 +11899,12 @@
       <c r="M7" s="27">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N7" s="21">
+        <f>code_monthly!O7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>227</v>
       </c>
@@ -11914,8 +11947,12 @@
       <c r="M8" s="27">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N8" s="21">
+        <f>code_monthly!O8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>228</v>
       </c>
@@ -11958,8 +11995,12 @@
       <c r="M9" s="27">
         <v>89.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N9" s="21">
+        <f>code_monthly!O9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>229</v>
       </c>
@@ -12002,8 +12043,12 @@
       <c r="M10" s="27">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N10" s="21">
+        <f>code_monthly!O10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>230</v>
       </c>
@@ -12047,8 +12092,12 @@
       <c r="M11" s="27">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N11" s="21">
+        <f>code_monthly!O11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>231</v>
       </c>
@@ -12091,8 +12140,12 @@
       <c r="M12" s="27">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N12" s="21">
+        <f>code_monthly!O12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>232</v>
       </c>
@@ -12135,8 +12188,12 @@
       <c r="M13" s="27">
         <v>89.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N13" s="21">
+        <f>code_monthly!O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>233</v>
       </c>
@@ -12179,8 +12236,12 @@
       <c r="M14" s="27">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N14" s="21">
+        <f>code_monthly!O14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>234</v>
       </c>
@@ -12223,8 +12284,12 @@
       <c r="M15" s="27">
         <v>90.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N15" s="21">
+        <f>code_monthly!O15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>235</v>
       </c>
@@ -12267,8 +12332,12 @@
       <c r="M16" s="27">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N16" s="21">
+        <f>code_monthly!O16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>236</v>
       </c>
@@ -12311,8 +12380,12 @@
       <c r="M17" s="27">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N17" s="21">
+        <f>code_monthly!O17</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>237</v>
       </c>
@@ -12355,8 +12428,12 @@
       <c r="M18" s="27">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N18" s="21">
+        <f>code_monthly!O18</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>238</v>
       </c>
@@ -12399,8 +12476,12 @@
       <c r="M19" s="27">
         <v>92.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N19" s="21">
+        <f>code_monthly!O19</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>239</v>
       </c>
@@ -12443,8 +12524,12 @@
       <c r="M20" s="27">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N20" s="21">
+        <f>code_monthly!O20</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>240</v>
       </c>
@@ -12487,8 +12572,12 @@
       <c r="M21" s="27">
         <v>93.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N21" s="21">
+        <f>code_monthly!O21</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>241</v>
       </c>
@@ -12531,8 +12620,12 @@
       <c r="M22" s="27">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N22" s="21">
+        <f>code_monthly!O22</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>242</v>
       </c>
@@ -12575,8 +12668,12 @@
       <c r="M23" s="27">
         <v>93.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N23" s="21">
+        <f>code_monthly!O23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>243</v>
       </c>
@@ -12619,8 +12716,12 @@
       <c r="M24" s="27">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N24" s="21">
+        <f>code_monthly!O24</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>244</v>
       </c>
@@ -12663,8 +12764,12 @@
       <c r="M25" s="27">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N25" s="21">
+        <f>code_monthly!O25</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>245</v>
       </c>
@@ -12707,8 +12812,12 @@
       <c r="M26" s="27">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N26" s="21">
+        <f>code_monthly!O26</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>246</v>
       </c>
@@ -12751,8 +12860,12 @@
       <c r="M27" s="27">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N27" s="21">
+        <f>code_monthly!O27</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>247</v>
       </c>
@@ -12795,8 +12908,12 @@
       <c r="M28" s="27">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N28" s="21">
+        <f>code_monthly!O28</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>248</v>
       </c>
@@ -12839,8 +12956,12 @@
       <c r="M29" s="27">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N29" s="21">
+        <f>code_monthly!O29</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>249</v>
       </c>
@@ -12883,8 +13004,12 @@
       <c r="M30" s="27">
         <v>95.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N30" s="21">
+        <f>code_monthly!O30</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>250</v>
       </c>
@@ -12927,8 +13052,12 @@
       <c r="M31" s="27">
         <v>95.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N31" s="21">
+        <f>code_monthly!O31</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>251</v>
       </c>
@@ -12971,8 +13100,12 @@
       <c r="M32" s="27">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N32" s="21">
+        <f>code_monthly!O32</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -13015,8 +13148,12 @@
       <c r="M33" s="27">
         <v>95.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N33" s="21">
+        <f>code_monthly!O33</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>253</v>
       </c>
@@ -13059,8 +13196,12 @@
       <c r="M34" s="27">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N34" s="21">
+        <f>code_monthly!O34</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>254</v>
       </c>
@@ -13103,8 +13244,12 @@
       <c r="M35" s="27">
         <v>95.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N35" s="21">
+        <f>code_monthly!O35</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>255</v>
       </c>
@@ -13147,8 +13292,12 @@
       <c r="M36" s="27">
         <v>96.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N36" s="21">
+        <f>code_monthly!O36</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>256</v>
       </c>
@@ -13191,8 +13340,12 @@
       <c r="M37" s="27">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N37" s="21">
+        <f>code_monthly!O37</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>257</v>
       </c>
@@ -13235,8 +13388,12 @@
       <c r="M38" s="27">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N38" s="21">
+        <f>code_monthly!O38</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>258</v>
       </c>
@@ -13279,8 +13436,12 @@
       <c r="M39" s="27">
         <v>97.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N39" s="21">
+        <f>code_monthly!O39</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>259</v>
       </c>
@@ -13323,8 +13484,12 @@
       <c r="M40" s="27">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N40" s="21">
+        <f>code_monthly!O40</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>260</v>
       </c>
@@ -13367,8 +13532,12 @@
       <c r="M41" s="27">
         <v>97.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N41" s="21">
+        <f>code_monthly!O41</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>261</v>
       </c>
@@ -13411,8 +13580,12 @@
       <c r="M42" s="27">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N42" s="21">
+        <f>code_monthly!O42</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>262</v>
       </c>
@@ -13455,8 +13628,12 @@
       <c r="M43" s="27">
         <v>98.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N43" s="21">
+        <f>code_monthly!O43</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>263</v>
       </c>
@@ -13499,8 +13676,12 @@
       <c r="M44" s="27">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N44" s="21">
+        <f>code_monthly!O44</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>264</v>
       </c>
@@ -13543,8 +13724,12 @@
       <c r="M45" s="27">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N45" s="21">
+        <f>code_monthly!O45</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>265</v>
       </c>
@@ -13587,8 +13772,12 @@
       <c r="M46" s="27">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N46" s="21">
+        <f>code_monthly!O46</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>266</v>
       </c>
@@ -13631,8 +13820,12 @@
       <c r="M47" s="27">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N47" s="21">
+        <f>code_monthly!O47</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>267</v>
       </c>
@@ -13675,8 +13868,12 @@
       <c r="M48" s="27">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N48" s="21">
+        <f>code_monthly!O48</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>268</v>
       </c>
@@ -13719,8 +13916,12 @@
       <c r="M49" s="27">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N49" s="21">
+        <f>code_monthly!O49</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>269</v>
       </c>
@@ -13763,8 +13964,12 @@
       <c r="M50" s="27">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N50" s="21">
+        <f>code_monthly!O50</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>270</v>
       </c>
@@ -13807,8 +14012,12 @@
       <c r="M51" s="27">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N51" s="21">
+        <f>code_monthly!O51</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>271</v>
       </c>
@@ -13851,8 +14060,12 @@
       <c r="M52" s="27">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N52" s="21">
+        <f>code_monthly!O52</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>272</v>
       </c>
@@ -13895,8 +14108,12 @@
       <c r="M53" s="27">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N53" s="21">
+        <f>code_monthly!O53</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>273</v>
       </c>
@@ -13939,8 +14156,12 @@
       <c r="M54" s="27">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N54" s="21">
+        <f>code_monthly!O54</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>274</v>
       </c>
@@ -13983,8 +14204,12 @@
       <c r="M55" s="27">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N55" s="21">
+        <f>code_monthly!O55</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>275</v>
       </c>
@@ -14027,8 +14252,12 @@
       <c r="M56" s="27">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N56" s="21">
+        <f>code_monthly!O56</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>276</v>
       </c>
@@ -14071,8 +14300,12 @@
       <c r="M57" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N57" s="21">
+        <f>code_monthly!O57</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>277</v>
       </c>
@@ -14115,8 +14348,12 @@
       <c r="M58" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N58" s="21">
+        <f>code_monthly!O58</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>278</v>
       </c>
@@ -14159,8 +14396,12 @@
       <c r="M59" s="27">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N59" s="21">
+        <f>code_monthly!O59</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>279</v>
       </c>
@@ -14203,8 +14444,12 @@
       <c r="M60" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N60" s="21">
+        <f>code_monthly!O60</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>280</v>
       </c>
@@ -14247,8 +14492,12 @@
       <c r="M61" s="27">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N61" s="21">
+        <f>code_monthly!O61</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>281</v>
       </c>
@@ -14291,8 +14540,12 @@
       <c r="M62" s="27">
         <v>100.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N62" s="21">
+        <f>code_monthly!O62</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>282</v>
       </c>
@@ -14335,8 +14588,12 @@
       <c r="M63" s="27">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N63" s="21">
+        <f>code_monthly!O63</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>283</v>
       </c>
@@ -14379,8 +14636,12 @@
       <c r="M64" s="27">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N64" s="21">
+        <f>code_monthly!O64</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>284</v>
       </c>
@@ -14423,8 +14684,12 @@
       <c r="M65" s="27">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N65" s="21">
+        <f>code_monthly!O65</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>285</v>
       </c>
@@ -14467,8 +14732,12 @@
       <c r="M66" s="27">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N66" s="21">
+        <f>code_monthly!O66</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>286</v>
       </c>
@@ -14511,8 +14780,12 @@
       <c r="M67" s="27">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N67" s="21">
+        <f>code_monthly!O67</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>287</v>
       </c>
@@ -14555,8 +14828,12 @@
       <c r="M68" s="27">
         <v>99.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N68" s="21">
+        <f>code_monthly!O68</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>288</v>
       </c>
@@ -14599,8 +14876,12 @@
       <c r="M69" s="27">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N69" s="21">
+        <f>code_monthly!O69</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>289</v>
       </c>
@@ -14643,8 +14924,12 @@
       <c r="M70" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N70" s="21">
+        <f>code_monthly!O70</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>290</v>
       </c>
@@ -14687,8 +14972,12 @@
       <c r="M71" s="27">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N71" s="21">
+        <f>code_monthly!O71</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>291</v>
       </c>
@@ -14731,8 +15020,12 @@
       <c r="M72" s="27">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N72" s="21">
+        <f>code_monthly!O72</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>292</v>
       </c>
@@ -14775,8 +15068,12 @@
       <c r="M73" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N73" s="21">
+        <f>code_monthly!O73</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>293</v>
       </c>
@@ -14819,8 +15116,12 @@
       <c r="M74" s="27">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N74" s="21">
+        <f>code_monthly!O74</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>294</v>
       </c>
@@ -14863,8 +15164,12 @@
       <c r="M75" s="27">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N75" s="21">
+        <f>code_monthly!O75</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>295</v>
       </c>
@@ -14907,8 +15212,12 @@
       <c r="M76" s="27">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N76" s="21">
+        <f>code_monthly!O76</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>296</v>
       </c>
@@ -14951,8 +15260,12 @@
       <c r="M77" s="27">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N77" s="21">
+        <f>code_monthly!O77</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>297</v>
       </c>
@@ -14995,8 +15308,12 @@
       <c r="M78" s="27">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N78" s="21">
+        <f>code_monthly!O78</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>298</v>
       </c>
@@ -15039,8 +15356,12 @@
       <c r="M79" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N79" s="21">
+        <f>code_monthly!O79</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>299</v>
       </c>
@@ -15083,8 +15404,12 @@
       <c r="M80" s="27">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N80" s="21">
+        <f>code_monthly!O80</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>300</v>
       </c>
@@ -15127,8 +15452,12 @@
       <c r="M81" s="27">
         <v>100.4</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N81" s="21">
+        <f>code_monthly!O81</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>301</v>
       </c>
@@ -15171,8 +15500,12 @@
       <c r="M82" s="27">
         <v>100.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N82" s="21">
+        <f>code_monthly!O82</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>302</v>
       </c>
@@ -15215,8 +15548,12 @@
       <c r="M83" s="27">
         <v>100.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N83" s="21">
+        <f>code_monthly!O83</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>303</v>
       </c>
@@ -15259,8 +15596,12 @@
       <c r="M84" s="27">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N84" s="21">
+        <f>code_monthly!O84</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>304</v>
       </c>
@@ -15303,8 +15644,12 @@
       <c r="M85" s="27">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N85" s="21">
+        <f>code_monthly!O85</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>305</v>
       </c>
@@ -15347,8 +15692,12 @@
       <c r="M86" s="27">
         <v>101.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N86" s="21">
+        <f>code_monthly!O86</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>306</v>
       </c>
@@ -15391,8 +15740,12 @@
       <c r="M87" s="27">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N87" s="21">
+        <f>code_monthly!O87</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>307</v>
       </c>
@@ -15435,8 +15788,12 @@
       <c r="M88" s="27">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N88" s="21">
+        <f>code_monthly!O88</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>308</v>
       </c>
@@ -15479,8 +15836,12 @@
       <c r="M89" s="27">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N89" s="21">
+        <f>code_monthly!O89</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>309</v>
       </c>
@@ -15523,8 +15884,12 @@
       <c r="M90" s="27">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N90" s="21">
+        <f>code_monthly!O90</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>310</v>
       </c>
@@ -15567,8 +15932,12 @@
       <c r="M91" s="27">
         <v>102.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N91" s="21">
+        <f>code_monthly!O91</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>311</v>
       </c>
@@ -15611,8 +15980,12 @@
       <c r="M92" s="27">
         <v>102.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N92" s="21">
+        <f>code_monthly!O92</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>312</v>
       </c>
@@ -15655,8 +16028,12 @@
       <c r="M93" s="27">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N93" s="21">
+        <f>code_monthly!O93</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>313</v>
       </c>
@@ -15699,8 +16076,12 @@
       <c r="M94" s="27">
         <v>103.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N94" s="21">
+        <f>code_monthly!O94</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>314</v>
       </c>
@@ -15743,8 +16124,12 @@
       <c r="M95" s="27">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N95" s="21">
+        <f>code_monthly!O95</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>315</v>
       </c>
@@ -15787,8 +16172,12 @@
       <c r="M96" s="27">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N96" s="21">
+        <f>code_monthly!O96</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>316</v>
       </c>
@@ -15831,8 +16220,12 @@
       <c r="M97" s="27">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="21">
+        <f>code_monthly!O97</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>317</v>
       </c>
@@ -15875,8 +16268,12 @@
       <c r="M98" s="27">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="21">
+        <f>code_monthly!O98</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>318</v>
       </c>
@@ -15919,8 +16316,12 @@
       <c r="M99" s="27">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="21">
+        <f>code_monthly!O99</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>319</v>
       </c>
@@ -15963,8 +16364,12 @@
       <c r="M100" s="27">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="21">
+        <f>code_monthly!O100</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>320</v>
       </c>
@@ -16007,8 +16412,12 @@
       <c r="M101" s="27">
         <v>104.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="21">
+        <f>code_monthly!O101</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>321</v>
       </c>
@@ -16051,8 +16460,12 @@
       <c r="M102" s="27">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="21">
+        <f>code_monthly!O102</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>322</v>
       </c>
@@ -16095,8 +16508,12 @@
       <c r="M103" s="27">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="21">
+        <f>code_monthly!O103</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>323</v>
       </c>
@@ -16139,8 +16556,12 @@
       <c r="M104" s="27">
         <v>105.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="21">
+        <f>code_monthly!O104</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>324</v>
       </c>
@@ -16183,8 +16604,12 @@
       <c r="M105" s="27">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="21">
+        <f>code_monthly!O105</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>325</v>
       </c>
@@ -16227,8 +16652,12 @@
       <c r="M106" s="27">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="21">
+        <f>code_monthly!O106</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>326</v>
       </c>
@@ -16271,8 +16700,12 @@
       <c r="M107" s="27">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="21">
+        <f>code_monthly!O107</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>327</v>
       </c>
@@ -16315,8 +16748,12 @@
       <c r="M108" s="27">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="21">
+        <f>code_monthly!O108</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>328</v>
       </c>
@@ -16359,8 +16796,12 @@
       <c r="M109" s="27">
         <v>106.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="21">
+        <f>code_monthly!O109</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>329</v>
       </c>
@@ -16403,8 +16844,12 @@
       <c r="M110" s="27">
         <v>106.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="21">
+        <f>code_monthly!O110</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>330</v>
       </c>
@@ -16447,8 +16892,12 @@
       <c r="M111" s="27">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="21">
+        <f>code_monthly!O111</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>331</v>
       </c>
@@ -16491,8 +16940,12 @@
       <c r="M112" s="27">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="21">
+        <f>code_monthly!O112</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>332</v>
       </c>
@@ -16535,8 +16988,12 @@
       <c r="M113" s="27">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="21">
+        <f>code_monthly!O113</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>333</v>
       </c>
@@ -16579,8 +17036,12 @@
       <c r="M114" s="27">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="21">
+        <f>code_monthly!O114</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>334</v>
       </c>
@@ -16623,8 +17084,12 @@
       <c r="M115" s="27">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="21">
+        <f>code_monthly!O115</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>335</v>
       </c>
@@ -16667,8 +17132,12 @@
       <c r="M116" s="27">
         <v>107.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="21">
+        <f>code_monthly!O116</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>336</v>
       </c>
@@ -16711,8 +17180,12 @@
       <c r="M117" s="27">
         <v>107.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="21">
+        <f>code_monthly!O117</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>337</v>
       </c>
@@ -16755,8 +17228,12 @@
       <c r="M118" s="27">
         <v>107.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="21">
+        <f>code_monthly!O118</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>338</v>
       </c>
@@ -16799,8 +17276,12 @@
       <c r="M119" s="27">
         <v>107.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="21">
+        <f>code_monthly!O119</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>339</v>
       </c>
@@ -16843,8 +17324,12 @@
       <c r="M120" s="27">
         <v>108.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="21">
+        <f>code_monthly!O120</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>340</v>
       </c>
@@ -16887,8 +17372,12 @@
       <c r="M121" s="27">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="21">
+        <f>code_monthly!O121</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>341</v>
       </c>
@@ -16931,8 +17420,12 @@
       <c r="M122" s="27">
         <v>108.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="21">
+        <f>code_monthly!O122</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>342</v>
       </c>
@@ -16975,8 +17468,12 @@
       <c r="M123" s="27">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="21">
+        <f>code_monthly!O123</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>343</v>
       </c>
@@ -17019,8 +17516,12 @@
       <c r="M124" s="27">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="21">
+        <f>code_monthly!O124</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>344</v>
       </c>
@@ -17063,8 +17564,12 @@
       <c r="M125" s="27">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="21">
+        <f>code_monthly!O125</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>345</v>
       </c>
@@ -17107,8 +17612,12 @@
       <c r="M126" s="27">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="21">
+        <f>code_monthly!O126</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>346</v>
       </c>
@@ -17151,8 +17660,12 @@
       <c r="M127" s="27">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="21">
+        <f>code_monthly!O127</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>347</v>
       </c>
@@ -17195,8 +17708,12 @@
       <c r="M128" s="27">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="21">
+        <f>code_monthly!O128</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>348</v>
       </c>
@@ -17239,8 +17756,12 @@
       <c r="M129" s="27">
         <v>108.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="21">
+        <f>code_monthly!O129</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>349</v>
       </c>
@@ -17283,8 +17804,12 @@
       <c r="M130" s="27">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="21">
+        <f>code_monthly!O130</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>350</v>
       </c>
@@ -17327,8 +17852,12 @@
       <c r="M131" s="27">
         <v>109.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="21">
+        <f>code_monthly!O131</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>351</v>
       </c>
@@ -17371,8 +17900,12 @@
       <c r="M132" s="27">
         <v>108.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="21">
+        <f>code_monthly!O132</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>352</v>
       </c>
@@ -17415,8 +17948,12 @@
       <c r="M133" s="27">
         <v>109.1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="21">
+        <f>code_monthly!O133</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>353</v>
       </c>
@@ -17459,8 +17996,12 @@
       <c r="M134" s="27">
         <v>109.1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="21">
+        <f>code_monthly!O134</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>354</v>
       </c>
@@ -17503,8 +18044,12 @@
       <c r="M135" s="27">
         <v>108.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="21">
+        <f>code_monthly!O135</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>355</v>
       </c>
@@ -17547,8 +18092,12 @@
       <c r="M136" s="27">
         <v>109.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="21">
+        <f>code_monthly!O136</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>356</v>
       </c>
@@ -17591,8 +18140,12 @@
       <c r="M137" s="27">
         <v>109</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="21">
+        <f>code_monthly!O137</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>357</v>
       </c>
@@ -17635,8 +18188,12 @@
       <c r="M138" s="27">
         <v>109.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="21">
+        <f>code_monthly!O138</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>358</v>
       </c>
@@ -17679,8 +18236,12 @@
       <c r="M139" s="27">
         <v>109.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="21">
+        <f>code_monthly!O139</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>359</v>
       </c>
@@ -17723,8 +18284,12 @@
       <c r="M140" s="27">
         <v>110.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="21">
+        <f>code_monthly!O140</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>360</v>
       </c>
@@ -17767,8 +18332,12 @@
       <c r="M141" s="27">
         <v>110.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="21">
+        <f>code_monthly!O141</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>361</v>
       </c>
@@ -17811,8 +18380,12 @@
       <c r="M142" s="27">
         <v>111.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="21">
+        <f>code_monthly!O142</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>362</v>
       </c>
@@ -17855,8 +18428,12 @@
       <c r="M143" s="27">
         <v>111.3</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="21">
+        <f>code_monthly!O143</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>363</v>
       </c>
@@ -17899,8 +18476,12 @@
       <c r="M144" s="27">
         <v>112.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="21">
+        <f>code_monthly!O144</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>364</v>
       </c>
@@ -17943,8 +18524,12 @@
       <c r="M145" s="27">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="21">
+        <f>code_monthly!O145</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>365</v>
       </c>
@@ -17987,8 +18572,12 @@
       <c r="M146" s="27">
         <v>113.6</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="21">
+        <f>code_monthly!O146</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>366</v>
       </c>
@@ -18031,8 +18620,12 @@
       <c r="M147" s="27">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="21">
+        <f>code_monthly!O147</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>367</v>
       </c>
@@ -18075,8 +18668,12 @@
       <c r="M148" s="27">
         <v>115.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="21">
+        <f>code_monthly!O148</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>368</v>
       </c>
@@ -18119,8 +18716,12 @@
       <c r="M149" s="27">
         <v>114.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="21">
+        <f>code_monthly!O149</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>369</v>
       </c>
@@ -18163,8 +18764,12 @@
       <c r="M150" s="27">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="21">
+        <f>code_monthly!O150</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>370</v>
       </c>
@@ -18206,6 +18811,10 @@
       </c>
       <c r="M151" s="27">
         <v>117.1</v>
+      </c>
+      <c r="N151" s="21">
+        <f>code_monthly!O151</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -18235,10 +18844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1A12A-60AE-8541-8DC2-9465FA0A2F2C}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18252,7 +18861,7 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -18295,8 +18904,11 @@
       <c r="N1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>221</v>
       </c>
@@ -18337,7 +18949,7 @@
         <v>1.6447909999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>222</v>
       </c>
@@ -18378,7 +18990,7 @@
         <v>1.6457930000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>223</v>
       </c>
@@ -18419,7 +19031,7 @@
         <v>1.6182019999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>224</v>
       </c>
@@ -18460,7 +19072,7 @@
         <v>1.5975969999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>225</v>
       </c>
@@ -18501,7 +19113,7 @@
         <v>1.5180499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>226</v>
       </c>
@@ -18542,7 +19154,7 @@
         <v>1.5183720000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>227</v>
       </c>
@@ -18583,7 +19195,7 @@
         <v>1.530011</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>228</v>
       </c>
@@ -18624,7 +19236,7 @@
         <v>1.4522010000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>229</v>
       </c>
@@ -18665,7 +19277,7 @@
         <v>1.4944329999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>230</v>
       </c>
@@ -18706,7 +19318,7 @@
         <v>1.569809</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>231</v>
       </c>
@@ -18747,7 +19359,7 @@
         <v>1.5465990000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>232</v>
       </c>
@@ -18788,7 +19400,7 @@
         <v>1.5795790000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>233</v>
       </c>
@@ -18829,7 +19441,7 @@
         <v>1.577412</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>234</v>
       </c>
@@ -18870,7 +19482,7 @@
         <v>1.5556209999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>235</v>
       </c>
@@ -18911,7 +19523,7 @@
         <v>1.5437099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>236</v>
       </c>
@@ -18951,8 +19563,11 @@
       <c r="N17">
         <v>1.5829299999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>237</v>
       </c>
@@ -18992,8 +19607,11 @@
       <c r="N18">
         <v>1.610047</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>238</v>
       </c>
@@ -19033,8 +19651,11 @@
       <c r="N19">
         <v>1.607407</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>239</v>
       </c>
@@ -19074,8 +19695,11 @@
       <c r="N20">
         <v>1.6650020000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>240</v>
       </c>
@@ -19115,8 +19739,11 @@
       <c r="N21">
         <v>1.6487769999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>241</v>
       </c>
@@ -19156,8 +19783,11 @@
       <c r="N22">
         <v>1.607588</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>242</v>
       </c>
@@ -19197,8 +19827,11 @@
       <c r="N23">
         <v>1.636849</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>243</v>
       </c>
@@ -19238,8 +19871,11 @@
       <c r="N24">
         <v>1.630763</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O24" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>244</v>
       </c>
@@ -19279,8 +19915,11 @@
       <c r="N25">
         <v>1.559941</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>245</v>
       </c>
@@ -19320,8 +19959,11 @@
       <c r="N26">
         <v>1.6111880000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O26" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>246</v>
       </c>
@@ -19361,8 +20003,11 @@
       <c r="N27">
         <v>1.559795</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>247</v>
       </c>
@@ -19402,8 +20047,11 @@
       <c r="N28">
         <v>1.5415920000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O28" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>248</v>
       </c>
@@ -19443,8 +20091,11 @@
       <c r="N29">
         <v>1.570845</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>249</v>
       </c>
@@ -19484,8 +20135,11 @@
       <c r="N30">
         <v>1.5922050000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O30" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>250</v>
       </c>
@@ -19525,8 +20179,11 @@
       <c r="N31">
         <v>1.601691</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>251</v>
       </c>
@@ -19566,8 +20223,11 @@
       <c r="N32">
         <v>1.628134</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>252</v>
       </c>
@@ -19607,8 +20267,11 @@
       <c r="N33">
         <v>1.5482990000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O33" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>253</v>
       </c>
@@ -19648,8 +20311,11 @@
       <c r="N34">
         <v>1.570697</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>254</v>
       </c>
@@ -19689,8 +20355,11 @@
       <c r="N35">
         <v>1.571339</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O35" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>255</v>
       </c>
@@ -19730,8 +20399,11 @@
       <c r="N36">
         <v>1.5790310000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O36" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>256</v>
       </c>
@@ -19771,8 +20443,11 @@
       <c r="N37">
         <v>1.6145179999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O37" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>257</v>
       </c>
@@ -19812,8 +20487,11 @@
       <c r="N38">
         <v>1.607459</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O38" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>258</v>
       </c>
@@ -19853,8 +20531,11 @@
       <c r="N39">
         <v>1.6041069999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O39" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>259</v>
       </c>
@@ -19894,8 +20575,11 @@
       <c r="N40">
         <v>1.6162920000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O40" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>260</v>
       </c>
@@ -19935,8 +20619,11 @@
       <c r="N41">
         <v>1.579779</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O41" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>261</v>
       </c>
@@ -19976,8 +20663,11 @@
       <c r="N42">
         <v>1.5167600000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O42" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>262</v>
       </c>
@@ -20017,8 +20707,11 @@
       <c r="N43">
         <v>1.519711</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O43" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>263</v>
       </c>
@@ -20058,8 +20751,11 @@
       <c r="N44">
         <v>1.5494270000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O44" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>264</v>
       </c>
@@ -20099,8 +20795,11 @@
       <c r="N45">
         <v>1.522905</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O45" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>265</v>
       </c>
@@ -20140,8 +20839,11 @@
       <c r="N46">
         <v>1.520427</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O46" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>266</v>
       </c>
@@ -20181,8 +20883,11 @@
       <c r="N47">
         <v>1.5242039999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O47" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>267</v>
       </c>
@@ -20222,8 +20927,11 @@
       <c r="N48">
         <v>1.5511090000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O48" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>268</v>
       </c>
@@ -20263,8 +20971,11 @@
       <c r="N49">
         <v>1.6168929999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O49" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>269</v>
       </c>
@@ -20304,8 +21015,11 @@
       <c r="N50">
         <v>1.6026149999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O50" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>270</v>
       </c>
@@ -20345,8 +21059,11 @@
       <c r="N51">
         <v>1.6369020000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O51" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>271</v>
       </c>
@@ -20386,8 +21103,11 @@
       <c r="N52">
         <v>1.6495120000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O52" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>272</v>
       </c>
@@ -20427,8 +21147,11 @@
       <c r="N53">
         <v>1.6498379999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O53" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>273</v>
       </c>
@@ -20468,8 +21191,11 @@
       <c r="N54">
         <v>1.669198</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O54" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>274</v>
       </c>
@@ -20509,8 +21235,11 @@
       <c r="N55">
         <v>1.6643920000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O55" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>275</v>
       </c>
@@ -20550,8 +21279,11 @@
       <c r="N56">
         <v>1.6824250000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O56" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>276</v>
       </c>
@@ -20591,8 +21323,11 @@
       <c r="N57">
         <v>1.6759120000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O57" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>277</v>
       </c>
@@ -20632,8 +21367,11 @@
       <c r="N58">
         <v>1.703403</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O58" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>278</v>
       </c>
@@ -20673,8 +21411,11 @@
       <c r="N59">
         <v>1.691017</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>279</v>
       </c>
@@ -20714,8 +21455,11 @@
       <c r="N60">
         <v>1.65909</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O60" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>280</v>
       </c>
@@ -20755,8 +21499,11 @@
       <c r="N61">
         <v>1.62422</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O61" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>281</v>
       </c>
@@ -20796,8 +21543,11 @@
       <c r="N62">
         <v>1.6001019999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O62" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>282</v>
       </c>
@@ -20837,8 +21587,11 @@
       <c r="N63">
         <v>1.5613049999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O63" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>283</v>
       </c>
@@ -20878,8 +21631,11 @@
       <c r="N64">
         <v>1.556905</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O64" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>284</v>
       </c>
@@ -20919,8 +21675,11 @@
       <c r="N65">
         <v>1.5069999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O65" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>285</v>
       </c>
@@ -20960,8 +21719,11 @@
       <c r="N66">
         <v>1.5438050000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O66" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>286</v>
       </c>
@@ -21001,8 +21763,11 @@
       <c r="N67">
         <v>1.4809110000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O67" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>287</v>
       </c>
@@ -21042,8 +21807,11 @@
       <c r="N68">
         <v>1.542686</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O68" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>288</v>
       </c>
@@ -21083,8 +21851,11 @@
       <c r="N69">
         <v>1.5319100000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O69" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>289</v>
       </c>
@@ -21124,8 +21895,11 @@
       <c r="N70">
         <v>1.5731930000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O70" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>290</v>
       </c>
@@ -21165,8 +21939,11 @@
       <c r="N71">
         <v>1.5604279999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O71" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>291</v>
       </c>
@@ -21206,8 +21983,11 @@
       <c r="N72">
         <v>1.541806</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O72" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>292</v>
       </c>
@@ -21247,8 +22027,11 @@
       <c r="N73">
         <v>1.515795</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O73" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>293</v>
       </c>
@@ -21288,8 +22071,11 @@
       <c r="N74">
         <v>1.5428999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O74" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>294</v>
       </c>
@@ -21329,8 +22115,11 @@
       <c r="N75">
         <v>1.503895</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O75" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>295</v>
       </c>
@@ -21370,8 +22159,11 @@
       <c r="N76">
         <v>1.481921</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O76" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>296</v>
       </c>
@@ -21411,8 +22203,11 @@
       <c r="N77">
         <v>1.4246030000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O77" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>297</v>
       </c>
@@ -21452,8 +22247,11 @@
       <c r="N78">
         <v>1.3861939999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O78" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>298</v>
       </c>
@@ -21493,8 +22291,11 @@
       <c r="N79">
         <v>1.4374009999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O79" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>299</v>
       </c>
@@ -21534,8 +22335,11 @@
       <c r="N80">
         <v>1.4617100000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O80" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>300</v>
       </c>
@@ -21575,8 +22379,11 @@
       <c r="N81">
         <v>1.4635069999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O81" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>301</v>
       </c>
@@ -21616,8 +22423,11 @@
       <c r="N82">
         <v>1.346584</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O82" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>302</v>
       </c>
@@ -21657,8 +22467,11 @@
       <c r="N83">
         <v>1.3216330000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O83" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>303</v>
       </c>
@@ -21698,8 +22511,11 @@
       <c r="N84">
         <v>1.309072</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O84" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>304</v>
       </c>
@@ -21739,8 +22555,11 @@
       <c r="N85">
         <v>1.2963439999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O85" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>305</v>
       </c>
@@ -21780,8 +22599,11 @@
       <c r="N86">
         <v>1.221598</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O86" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>306</v>
       </c>
@@ -21821,8 +22643,11 @@
       <c r="N87">
         <v>1.2492190000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O87" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>307</v>
       </c>
@@ -21862,8 +22687,11 @@
       <c r="N88">
         <v>1.2340040000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O88" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>308</v>
       </c>
@@ -21903,8 +22731,11 @@
       <c r="N89">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O89" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>309</v>
       </c>
@@ -21944,8 +22775,11 @@
       <c r="N90">
         <v>1.2439359999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O90" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>310</v>
       </c>
@@ -21985,8 +22819,11 @@
       <c r="N91">
         <v>1.2478469999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O91" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>311</v>
       </c>
@@ -22026,8 +22863,11 @@
       <c r="N92">
         <v>1.2931589999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O92" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>312</v>
       </c>
@@ -22067,8 +22907,11 @@
       <c r="N93">
         <v>1.280902</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O93" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>313</v>
       </c>
@@ -22108,8 +22951,11 @@
       <c r="N94">
         <v>1.301118</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O94" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>314</v>
       </c>
@@ -22149,8 +22995,11 @@
       <c r="N95">
         <v>1.314492</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O95" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>315</v>
       </c>
@@ -22190,8 +23039,11 @@
       <c r="N96">
         <v>1.2920560000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O96" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>316</v>
       </c>
@@ -22231,8 +23083,11 @@
       <c r="N97">
         <v>1.339674</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>317</v>
       </c>
@@ -22272,8 +23127,11 @@
       <c r="N98">
         <v>1.321248</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>318</v>
       </c>
@@ -22313,8 +23171,11 @@
       <c r="N99">
         <v>1.3417239999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>319</v>
       </c>
@@ -22354,8 +23215,11 @@
       <c r="N100">
         <v>1.351607</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>320</v>
       </c>
@@ -22395,8 +23259,11 @@
       <c r="N101">
         <v>1.4155880000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>321</v>
       </c>
@@ -22436,8 +23303,11 @@
       <c r="N102">
         <v>1.3906080000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>322</v>
       </c>
@@ -22477,8 +23347,11 @@
       <c r="N103">
         <v>1.401699</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>323</v>
       </c>
@@ -22518,8 +23391,11 @@
       <c r="N104">
         <v>1.3771070000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>324</v>
       </c>
@@ -22559,8 +23435,11 @@
       <c r="N105">
         <v>1.3283560000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>325</v>
       </c>
@@ -22600,8 +23479,11 @@
       <c r="N106">
         <v>1.3210040000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>326</v>
       </c>
@@ -22641,8 +23523,11 @@
       <c r="N107">
         <v>1.3135429999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>327</v>
       </c>
@@ -22682,8 +23567,11 @@
       <c r="N108">
         <v>1.3011010000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>328</v>
       </c>
@@ -22723,8 +23611,11 @@
       <c r="N109">
         <v>1.3031010000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>329</v>
       </c>
@@ -22764,8 +23655,11 @@
       <c r="N110">
         <v>1.2708900000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>330</v>
       </c>
@@ -22805,8 +23699,11 @@
       <c r="N111">
         <v>1.2784450000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>331</v>
       </c>
@@ -22846,8 +23743,11 @@
       <c r="N112">
         <v>1.269358</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>332</v>
       </c>
@@ -22887,8 +23787,11 @@
       <c r="N113">
         <v>1.3117160000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>333</v>
       </c>
@@ -22928,8 +23831,11 @@
       <c r="N114">
         <v>1.3318239999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>334</v>
       </c>
@@ -22969,8 +23875,11 @@
       <c r="N115">
         <v>1.304495</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>335</v>
       </c>
@@ -23010,8 +23919,11 @@
       <c r="N116">
         <v>1.2932429999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>336</v>
       </c>
@@ -23051,8 +23963,11 @@
       <c r="N117">
         <v>1.2609699999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>337</v>
       </c>
@@ -23092,8 +24007,11 @@
       <c r="N118">
         <v>1.2695989999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>338</v>
       </c>
@@ -23133,8 +24051,11 @@
       <c r="N119">
         <v>1.2161599999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>339</v>
       </c>
@@ -23174,8 +24095,11 @@
       <c r="N120">
         <v>1.215894</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>340</v>
       </c>
@@ -23215,8 +24139,11 @@
       <c r="N121">
         <v>1.229317</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>341</v>
       </c>
@@ -23256,8 +24183,11 @@
       <c r="N122">
         <v>1.290173</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>342</v>
       </c>
@@ -23297,8 +24227,11 @@
       <c r="N123">
         <v>1.2929999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>343</v>
       </c>
@@ -23338,8 +24271,11 @@
       <c r="N124">
         <v>1.3113030000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>344</v>
       </c>
@@ -23379,8 +24315,11 @@
       <c r="N125">
         <v>1.3089</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>345</v>
       </c>
@@ -23420,8 +24359,11 @@
       <c r="N126">
         <v>1.281839</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>346</v>
       </c>
@@ -23461,8 +24403,11 @@
       <c r="N127">
         <v>1.2371639999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>347</v>
       </c>
@@ -23502,8 +24447,11 @@
       <c r="N128">
         <v>1.247147</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>348</v>
       </c>
@@ -23543,8 +24491,11 @@
       <c r="N129">
         <v>1.234499</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>349</v>
       </c>
@@ -23584,8 +24535,11 @@
       <c r="N130">
         <v>1.2310570000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>350</v>
       </c>
@@ -23625,8 +24579,11 @@
       <c r="N131">
         <v>1.311785</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>351</v>
       </c>
@@ -23666,8 +24623,11 @@
       <c r="N132">
         <v>1.3356479999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>352</v>
       </c>
@@ -23707,8 +24667,11 @@
       <c r="N133">
         <v>1.286654</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>353</v>
       </c>
@@ -23748,8 +24711,11 @@
       <c r="N134">
         <v>1.2949010000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>354</v>
       </c>
@@ -23789,8 +24755,11 @@
       <c r="N135">
         <v>1.333191</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>355</v>
       </c>
@@ -23830,8 +24799,11 @@
       <c r="N136">
         <v>1.3630660000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>356</v>
       </c>
@@ -23871,8 +24843,11 @@
       <c r="N137">
         <v>1.370601</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>357</v>
       </c>
@@ -23912,8 +24887,11 @@
       <c r="N138">
         <v>1.393</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>358</v>
       </c>
@@ -23953,8 +24931,11 @@
       <c r="N139">
         <v>1.374665</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>359</v>
       </c>
@@ -23994,8 +24975,11 @@
       <c r="N140">
         <v>1.395284</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>360</v>
       </c>
@@ -24035,8 +25019,11 @@
       <c r="N141">
         <v>1.418037</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>361</v>
       </c>
@@ -24076,8 +25063,11 @@
       <c r="N142">
         <v>1.3842749999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>362</v>
       </c>
@@ -24117,8 +25107,11 @@
       <c r="N143">
         <v>1.390401</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>363</v>
       </c>
@@ -24158,8 +25151,11 @@
       <c r="N144">
         <v>1.3760460000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>364</v>
       </c>
@@ -24199,8 +25195,11 @@
       <c r="N145">
         <v>1.3426419999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>365</v>
       </c>
@@ -24240,8 +25239,11 @@
       <c r="N146">
         <v>1.369</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>366</v>
       </c>
@@ -24281,8 +25283,11 @@
       <c r="N147">
         <v>1.3315049999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>367</v>
       </c>
@@ -24322,8 +25327,11 @@
       <c r="N148">
         <v>1.349837</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>368</v>
       </c>
@@ -24363,8 +25371,11 @@
       <c r="N149">
         <v>1.3403389999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>369</v>
       </c>
@@ -24404,8 +25415,11 @@
       <c r="N150">
         <v>1.3373269999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>370</v>
       </c>
@@ -24444,6 +25458,9 @@
       </c>
       <c r="N151">
         <v>1.3138879999999999</v>
+      </c>
+      <c r="O151" s="28">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Gas Data processed.xlsx
+++ b/Gas Data processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C250D5C-21CE-FF49-855B-E071F8FE7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708F607-4F0F-2B40-8DDB-E1619D2A24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="code_monthly_deflated" sheetId="12" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="386">
   <si>
     <t>Year</t>
   </si>
@@ -1220,6 +1220,9 @@
   </si>
   <si>
     <t>churn</t>
+  </si>
+  <si>
+    <t>temp_deviation</t>
   </si>
 </sst>
 </file>
@@ -11549,10 +11552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E1AF0F-0DF7-7D48-9F23-302A7B9DB405}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11572,7 +11575,7 @@
     <col min="14" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>220</v>
       </c>
@@ -11615,8 +11618,11 @@
       <c r="N1" s="21" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O1" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>221</v>
       </c>
@@ -11663,8 +11669,12 @@
         <f>code_monthly!O2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O2" s="21">
+        <f>code_monthly!P2</f>
+        <v>0.28166666666666806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -11711,8 +11721,12 @@
         <f>code_monthly!O3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O3" s="21">
+        <f>code_monthly!P3</f>
+        <v>0.76500000000000057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>223</v>
       </c>
@@ -11759,8 +11773,12 @@
         <f>code_monthly!O4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4" s="21">
+        <f>code_monthly!P4</f>
+        <v>1.6183333333333341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>224</v>
       </c>
@@ -11807,8 +11825,12 @@
         <f>code_monthly!O5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O5" s="21">
+        <f>code_monthly!P5</f>
+        <v>-1.8883333333333319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>225</v>
       </c>
@@ -11855,8 +11877,12 @@
         <f>code_monthly!O6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O6" s="21">
+        <f>code_monthly!P6</f>
+        <v>-3.4400000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>226</v>
       </c>
@@ -11903,8 +11929,12 @@
         <f>code_monthly!O7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O7" s="21">
+        <f>code_monthly!P7</f>
+        <v>-1.6533333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>227</v>
       </c>
@@ -11951,8 +11981,12 @@
         <f>code_monthly!O8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O8" s="21">
+        <f>code_monthly!P8</f>
+        <v>-0.51166666666666583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>228</v>
       </c>
@@ -11999,8 +12033,12 @@
         <f>code_monthly!O9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O9" s="21">
+        <f>code_monthly!P9</f>
+        <v>0.20333333333333137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>229</v>
       </c>
@@ -12047,8 +12085,12 @@
         <f>code_monthly!O10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O10" s="21">
+        <f>code_monthly!P10</f>
+        <v>-1.2433333333333358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>230</v>
       </c>
@@ -12096,8 +12138,12 @@
         <f>code_monthly!O11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O11" s="21">
+        <f>code_monthly!P11</f>
+        <v>0.86333333333332973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>231</v>
       </c>
@@ -12144,8 +12190,12 @@
         <f>code_monthly!O12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O12" s="21">
+        <f>code_monthly!P12</f>
+        <v>0.99166666666666714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>232</v>
       </c>
@@ -12192,8 +12242,12 @@
         <f>code_monthly!O13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O13" s="21">
+        <f>code_monthly!P13</f>
+        <v>-1.2800000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>233</v>
       </c>
@@ -12240,8 +12294,12 @@
         <f>code_monthly!O14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O14" s="21">
+        <f>code_monthly!P14</f>
+        <v>-0.668333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>234</v>
       </c>
@@ -12288,8 +12346,12 @@
         <f>code_monthly!O15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15" s="21">
+        <f>code_monthly!P15</f>
+        <v>-0.28500000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>235</v>
       </c>
@@ -12336,8 +12398,12 @@
         <f>code_monthly!O16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16" s="21">
+        <f>code_monthly!P16</f>
+        <v>-1.8316666666666661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>236</v>
       </c>
@@ -12384,8 +12450,12 @@
         <f>code_monthly!O17</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="21">
+        <f>code_monthly!P17</f>
+        <v>-4.838333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>237</v>
       </c>
@@ -12432,8 +12502,12 @@
         <f>code_monthly!O18</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18" s="21">
+        <f>code_monthly!P18</f>
+        <v>-0.44000000000000128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>238</v>
       </c>
@@ -12480,8 +12554,12 @@
         <f>code_monthly!O19</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19" s="21">
+        <f>code_monthly!P19</f>
+        <v>1.5466666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>239</v>
       </c>
@@ -12528,8 +12606,12 @@
         <f>code_monthly!O20</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20" s="21">
+        <f>code_monthly!P20</f>
+        <v>0.13833333333333453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>240</v>
       </c>
@@ -12576,8 +12658,12 @@
         <f>code_monthly!O21</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21" s="21">
+        <f>code_monthly!P21</f>
+        <v>3.6533333333333307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>241</v>
       </c>
@@ -12624,8 +12710,12 @@
         <f>code_monthly!O22</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22" s="21">
+        <f>code_monthly!P22</f>
+        <v>0.65666666666666273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>242</v>
       </c>
@@ -12672,8 +12762,12 @@
         <f>code_monthly!O23</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23" s="21">
+        <f>code_monthly!P23</f>
+        <v>-1.0866666666666713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>243</v>
       </c>
@@ -12720,8 +12814,12 @@
         <f>code_monthly!O24</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O24" s="21">
+        <f>code_monthly!P24</f>
+        <v>-1.908333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>244</v>
       </c>
@@ -12768,8 +12866,12 @@
         <f>code_monthly!O25</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25" s="21">
+        <f>code_monthly!P25</f>
+        <v>-1.0799999999999983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>245</v>
       </c>
@@ -12816,8 +12918,12 @@
         <f>code_monthly!O26</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O26" s="21">
+        <f>code_monthly!P26</f>
+        <v>0.88166666666666949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>246</v>
       </c>
@@ -12864,8 +12970,12 @@
         <f>code_monthly!O27</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27" s="21">
+        <f>code_monthly!P27</f>
+        <v>1.9400000000000013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>247</v>
       </c>
@@ -12912,8 +13022,12 @@
         <f>code_monthly!O28</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O28" s="21">
+        <f>code_monthly!P28</f>
+        <v>2.0683333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>248</v>
       </c>
@@ -12960,8 +13074,12 @@
         <f>code_monthly!O29</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29" s="21">
+        <f>code_monthly!P29</f>
+        <v>0.81166666666666742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>249</v>
       </c>
@@ -13008,8 +13126,12 @@
         <f>code_monthly!O30</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O30" s="21">
+        <f>code_monthly!P30</f>
+        <v>1.0599999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>250</v>
       </c>
@@ -13056,8 +13178,12 @@
         <f>code_monthly!O31</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31" s="21">
+        <f>code_monthly!P31</f>
+        <v>-1.3033333333333328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>251</v>
       </c>
@@ -13104,8 +13230,12 @@
         <f>code_monthly!O32</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32" s="21">
+        <f>code_monthly!P32</f>
+        <v>1.7883333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>252</v>
       </c>
@@ -13152,8 +13282,12 @@
         <f>code_monthly!O33</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O33" s="21">
+        <f>code_monthly!P33</f>
+        <v>-1.3966666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
         <v>253</v>
       </c>
@@ -13200,8 +13334,12 @@
         <f>code_monthly!O34</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34" s="21">
+        <f>code_monthly!P34</f>
+        <v>0.20666666666666345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
         <v>254</v>
       </c>
@@ -13248,8 +13386,12 @@
         <f>code_monthly!O35</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O35" s="21">
+        <f>code_monthly!P35</f>
+        <v>-1.436666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
         <v>255</v>
       </c>
@@ -13296,8 +13438,12 @@
         <f>code_monthly!O36</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O36" s="21">
+        <f>code_monthly!P36</f>
+        <v>-1.8083333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>256</v>
       </c>
@@ -13344,8 +13490,12 @@
         <f>code_monthly!O37</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O37" s="21">
+        <f>code_monthly!P37</f>
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>257</v>
       </c>
@@ -13392,8 +13542,12 @@
         <f>code_monthly!O38</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O38" s="21">
+        <f>code_monthly!P38</f>
+        <v>-0.81833333333333158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
         <v>258</v>
       </c>
@@ -13440,8 +13594,12 @@
         <f>code_monthly!O39</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O39" s="21">
+        <f>code_monthly!P39</f>
+        <v>-0.9350000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
         <v>259</v>
       </c>
@@ -13488,8 +13646,12 @@
         <f>code_monthly!O40</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O40" s="21">
+        <f>code_monthly!P40</f>
+        <v>-0.58166666666666611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>260</v>
       </c>
@@ -13536,8 +13698,12 @@
         <f>code_monthly!O41</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O41" s="21">
+        <f>code_monthly!P41</f>
+        <v>-0.2383333333333324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
         <v>261</v>
       </c>
@@ -13584,8 +13750,12 @@
         <f>code_monthly!O42</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O42" s="21">
+        <f>code_monthly!P42</f>
+        <v>-1.2900000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
         <v>262</v>
       </c>
@@ -13632,8 +13802,12 @@
         <f>code_monthly!O43</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O43" s="21">
+        <f>code_monthly!P43</f>
+        <v>-2.003333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>263</v>
       </c>
@@ -13680,8 +13854,12 @@
         <f>code_monthly!O44</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O44" s="21">
+        <f>code_monthly!P44</f>
+        <v>-3.8616666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>264</v>
       </c>
@@ -13728,8 +13906,12 @@
         <f>code_monthly!O45</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O45" s="21">
+        <f>code_monthly!P45</f>
+        <v>-1.3966666666666683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
         <v>265</v>
       </c>
@@ -13776,8 +13958,12 @@
         <f>code_monthly!O46</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O46" s="21">
+        <f>code_monthly!P46</f>
+        <v>-1.6933333333333369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
         <v>266</v>
       </c>
@@ -13824,8 +14010,12 @@
         <f>code_monthly!O47</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O47" s="21">
+        <f>code_monthly!P47</f>
+        <v>-1.186666666666671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
         <v>267</v>
       </c>
@@ -13872,8 +14062,12 @@
         <f>code_monthly!O48</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O48" s="21">
+        <f>code_monthly!P48</f>
+        <v>2.0416666666666679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>268</v>
       </c>
@@ -13920,8 +14114,12 @@
         <f>code_monthly!O49</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O49" s="21">
+        <f>code_monthly!P49</f>
+        <v>0.62000000000000099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>269</v>
       </c>
@@ -13968,8 +14166,12 @@
         <f>code_monthly!O50</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O50" s="21">
+        <f>code_monthly!P50</f>
+        <v>-0.56833333333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>270</v>
       </c>
@@ -14016,8 +14218,12 @@
         <f>code_monthly!O51</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O51" s="21">
+        <f>code_monthly!P51</f>
+        <v>-1.1850000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>271</v>
       </c>
@@ -14064,8 +14270,12 @@
         <f>code_monthly!O52</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O52" s="21">
+        <f>code_monthly!P52</f>
+        <v>-1.1316666666666659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>272</v>
       </c>
@@ -14112,8 +14322,12 @@
         <f>code_monthly!O53</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O53" s="21">
+        <f>code_monthly!P53</f>
+        <v>0.81166666666666742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>273</v>
       </c>
@@ -14160,8 +14374,12 @@
         <f>code_monthly!O54</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O54" s="21">
+        <f>code_monthly!P54</f>
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>274</v>
       </c>
@@ -14208,8 +14426,12 @@
         <f>code_monthly!O55</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O55" s="21">
+        <f>code_monthly!P55</f>
+        <v>1.5466666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>275</v>
       </c>
@@ -14256,8 +14478,12 @@
         <f>code_monthly!O56</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O56" s="21">
+        <f>code_monthly!P56</f>
+        <v>1.3383333333333338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>276</v>
       </c>
@@ -14304,8 +14530,12 @@
         <f>code_monthly!O57</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O57" s="21">
+        <f>code_monthly!P57</f>
+        <v>1.3033333333333328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>277</v>
       </c>
@@ -14352,8 +14582,12 @@
         <f>code_monthly!O58</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O58" s="21">
+        <f>code_monthly!P58</f>
+        <v>0.15666666666666451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>278</v>
       </c>
@@ -14400,8 +14634,12 @@
         <f>code_monthly!O59</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59" s="21">
+        <f>code_monthly!P59</f>
+        <v>0.36333333333332973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>279</v>
       </c>
@@ -14448,8 +14686,12 @@
         <f>code_monthly!O60</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O60" s="21">
+        <f>code_monthly!P60</f>
+        <v>1.341666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>280</v>
       </c>
@@ -14496,8 +14738,12 @@
         <f>code_monthly!O61</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O61" s="21">
+        <f>code_monthly!P61</f>
+        <v>-1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>281</v>
       </c>
@@ -14544,8 +14790,12 @@
         <f>code_monthly!O62</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O62" s="21">
+        <f>code_monthly!P62</f>
+        <v>1.1816666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>282</v>
       </c>
@@ -14592,8 +14842,12 @@
         <f>code_monthly!O63</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O63" s="21">
+        <f>code_monthly!P63</f>
+        <v>1.6900000000000013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>283</v>
       </c>
@@ -14640,8 +14894,12 @@
         <f>code_monthly!O64</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O64" s="21">
+        <f>code_monthly!P64</f>
+        <v>1.3183333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>284</v>
       </c>
@@ -14688,8 +14946,12 @@
         <f>code_monthly!O65</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O65" s="21">
+        <f>code_monthly!P65</f>
+        <v>6.1666666666667425E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>285</v>
       </c>
@@ -14736,8 +14998,12 @@
         <f>code_monthly!O66</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O66" s="21">
+        <f>code_monthly!P66</f>
+        <v>-0.34000000000000075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
         <v>286</v>
       </c>
@@ -14784,8 +15050,12 @@
         <f>code_monthly!O67</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O67" s="21">
+        <f>code_monthly!P67</f>
+        <v>-1.0533333333333328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
         <v>287</v>
       </c>
@@ -14832,8 +15102,12 @@
         <f>code_monthly!O68</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O68" s="21">
+        <f>code_monthly!P68</f>
+        <v>-6.1666666666666536E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
         <v>288</v>
       </c>
@@ -14880,8 +15154,12 @@
         <f>code_monthly!O69</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O69" s="21">
+        <f>code_monthly!P69</f>
+        <v>0.65333333333333243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
         <v>289</v>
       </c>
@@ -14928,8 +15206,12 @@
         <f>code_monthly!O70</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O70" s="21">
+        <f>code_monthly!P70</f>
+        <v>-0.54333333333333478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
         <v>290</v>
       </c>
@@ -14976,8 +15258,12 @@
         <f>code_monthly!O71</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O71" s="21">
+        <f>code_monthly!P71</f>
+        <v>-0.13666666666667027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>291</v>
       </c>
@@ -15024,8 +15310,12 @@
         <f>code_monthly!O72</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O72" s="21">
+        <f>code_monthly!P72</f>
+        <v>-0.30833333333333357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
         <v>292</v>
       </c>
@@ -15072,8 +15362,12 @@
         <f>code_monthly!O73</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O73" s="21">
+        <f>code_monthly!P73</f>
+        <v>-0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
         <v>293</v>
       </c>
@@ -15120,8 +15414,12 @@
         <f>code_monthly!O74</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O74" s="21">
+        <f>code_monthly!P74</f>
+        <v>-1.5683333333333316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
         <v>294</v>
       </c>
@@ -15168,8 +15466,12 @@
         <f>code_monthly!O75</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O75" s="21">
+        <f>code_monthly!P75</f>
+        <v>0.51500000000000057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
         <v>295</v>
       </c>
@@ -15216,8 +15518,12 @@
         <f>code_monthly!O76</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O76" s="21">
+        <f>code_monthly!P76</f>
+        <v>2.3183333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
         <v>296</v>
       </c>
@@ -15264,8 +15570,12 @@
         <f>code_monthly!O77</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O77" s="21">
+        <f>code_monthly!P77</f>
+        <v>5.2616666666666685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>297</v>
       </c>
@@ -15312,8 +15622,12 @@
         <f>code_monthly!O78</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O78" s="21">
+        <f>code_monthly!P78</f>
+        <v>0.70999999999999908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>298</v>
       </c>
@@ -15360,8 +15674,12 @@
         <f>code_monthly!O79</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O79" s="21">
+        <f>code_monthly!P79</f>
+        <v>0.19666666666666721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>299</v>
       </c>
@@ -15408,8 +15726,12 @@
         <f>code_monthly!O80</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O80" s="21">
+        <f>code_monthly!P80</f>
+        <v>-0.96166666666666689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>300</v>
       </c>
@@ -15456,8 +15778,12 @@
         <f>code_monthly!O81</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O81" s="21">
+        <f>code_monthly!P81</f>
+        <v>-1.2966666666666686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>301</v>
       </c>
@@ -15504,8 +15830,12 @@
         <f>code_monthly!O82</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O82" s="21">
+        <f>code_monthly!P82</f>
+        <v>0.6066666666666638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>302</v>
       </c>
@@ -15552,8 +15882,12 @@
         <f>code_monthly!O83</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O83" s="21">
+        <f>code_monthly!P83</f>
+        <v>-0.23666666666667169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>303</v>
       </c>
@@ -15600,8 +15934,12 @@
         <f>code_monthly!O84</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O84" s="21">
+        <f>code_monthly!P84</f>
+        <v>0.19166666666666643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>304</v>
       </c>
@@ -15648,8 +15986,12 @@
         <f>code_monthly!O85</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O85" s="21">
+        <f>code_monthly!P85</f>
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>305</v>
       </c>
@@ -15696,8 +16038,12 @@
         <f>code_monthly!O86</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O86" s="21">
+        <f>code_monthly!P86</f>
+        <v>2.0816666666666652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>306</v>
       </c>
@@ -15744,8 +16090,12 @@
         <f>code_monthly!O87</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O87" s="21">
+        <f>code_monthly!P87</f>
+        <v>0.26500000000000057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>307</v>
       </c>
@@ -15792,8 +16142,12 @@
         <f>code_monthly!O88</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O88" s="21">
+        <f>code_monthly!P88</f>
+        <v>-1.2316666666666656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>308</v>
       </c>
@@ -15840,8 +16194,12 @@
         <f>code_monthly!O89</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O89" s="21">
+        <f>code_monthly!P89</f>
+        <v>0.7616666666666676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>309</v>
       </c>
@@ -15888,8 +16246,12 @@
         <f>code_monthly!O90</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O90" s="21">
+        <f>code_monthly!P90</f>
+        <v>-1.3900000000000015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>310</v>
       </c>
@@ -15936,8 +16298,12 @@
         <f>code_monthly!O91</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O91" s="21">
+        <f>code_monthly!P91</f>
+        <v>1.246666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>311</v>
       </c>
@@ -15984,8 +16350,12 @@
         <f>code_monthly!O92</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O92" s="21">
+        <f>code_monthly!P92</f>
+        <v>2.4383333333333335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>312</v>
       </c>
@@ -16032,8 +16402,12 @@
         <f>code_monthly!O93</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O93" s="21">
+        <f>code_monthly!P93</f>
+        <v>0.3533333333333335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>313</v>
       </c>
@@ -16080,8 +16454,12 @@
         <f>code_monthly!O94</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O94" s="21">
+        <f>code_monthly!P94</f>
+        <v>1.3566666666666656</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>314</v>
       </c>
@@ -16128,8 +16506,12 @@
         <f>code_monthly!O95</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O95" s="21">
+        <f>code_monthly!P95</f>
+        <v>2.0133333333333283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>315</v>
       </c>
@@ -16176,8 +16558,12 @@
         <f>code_monthly!O96</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O96" s="21">
+        <f>code_monthly!P96</f>
+        <v>0.29166666666666785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>316</v>
       </c>
@@ -16224,8 +16610,12 @@
         <f>code_monthly!O97</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="21">
+        <f>code_monthly!P97</f>
+        <v>-0.92999999999999972</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>317</v>
       </c>
@@ -16272,8 +16662,12 @@
         <f>code_monthly!O98</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="21">
+        <f>code_monthly!P98</f>
+        <v>-0.86833333333333229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>318</v>
       </c>
@@ -16320,8 +16714,12 @@
         <f>code_monthly!O99</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="21">
+        <f>code_monthly!P99</f>
+        <v>0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>319</v>
       </c>
@@ -16368,8 +16766,12 @@
         <f>code_monthly!O100</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="21">
+        <f>code_monthly!P100</f>
+        <v>-0.58166666666666611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>320</v>
       </c>
@@ -16416,8 +16818,12 @@
         <f>code_monthly!O101</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="21">
+        <f>code_monthly!P101</f>
+        <v>-0.2383333333333324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>321</v>
       </c>
@@ -16464,8 +16870,12 @@
         <f>code_monthly!O102</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="21">
+        <f>code_monthly!P102</f>
+        <v>1.2099999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>322</v>
       </c>
@@ -16512,8 +16922,12 @@
         <f>code_monthly!O103</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" s="21">
+        <f>code_monthly!P103</f>
+        <v>-2.3033333333333332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>323</v>
       </c>
@@ -16560,8 +16974,12 @@
         <f>code_monthly!O104</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" s="21">
+        <f>code_monthly!P104</f>
+        <v>-1.5116666666666658</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>324</v>
       </c>
@@ -16608,8 +17026,12 @@
         <f>code_monthly!O105</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" s="21">
+        <f>code_monthly!P105</f>
+        <v>1.2033333333333314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>325</v>
       </c>
@@ -16656,8 +17078,12 @@
         <f>code_monthly!O106</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" s="21">
+        <f>code_monthly!P106</f>
+        <v>1.5566666666666649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>326</v>
       </c>
@@ -16704,8 +17130,12 @@
         <f>code_monthly!O107</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" s="21">
+        <f>code_monthly!P107</f>
+        <v>1.7133333333333276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>327</v>
       </c>
@@ -16752,8 +17182,12 @@
         <f>code_monthly!O108</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" s="21">
+        <f>code_monthly!P108</f>
+        <v>3.2916666666666679</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>328</v>
       </c>
@@ -16800,8 +17234,12 @@
         <f>code_monthly!O109</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" s="21">
+        <f>code_monthly!P109</f>
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>329</v>
       </c>
@@ -16848,8 +17286,12 @@
         <f>code_monthly!O110</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" s="21">
+        <f>code_monthly!P110</f>
+        <v>-1.8333333333332646E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>330</v>
       </c>
@@ -16896,8 +17338,12 @@
         <f>code_monthly!O111</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" s="21">
+        <f>code_monthly!P111</f>
+        <v>0.46499999999999986</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>331</v>
       </c>
@@ -16944,8 +17390,12 @@
         <f>code_monthly!O112</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" s="21">
+        <f>code_monthly!P112</f>
+        <v>0.61833333333333407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>332</v>
       </c>
@@ -16992,8 +17442,12 @@
         <f>code_monthly!O113</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" s="21">
+        <f>code_monthly!P113</f>
+        <v>1.9116666666666671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>333</v>
       </c>
@@ -17040,8 +17494,12 @@
         <f>code_monthly!O114</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="21">
+        <f>code_monthly!P114</f>
+        <v>-0.7400000000000011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>334</v>
       </c>
@@ -17088,8 +17546,12 @@
         <f>code_monthly!O115</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" s="21">
+        <f>code_monthly!P115</f>
+        <v>1.8966666666666665</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>335</v>
       </c>
@@ -17136,8 +17598,12 @@
         <f>code_monthly!O116</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" s="21">
+        <f>code_monthly!P116</f>
+        <v>1.5383333333333331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>336</v>
       </c>
@@ -17184,8 +17650,12 @@
         <f>code_monthly!O117</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" s="21">
+        <f>code_monthly!P117</f>
+        <v>0.25333333333333208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>337</v>
       </c>
@@ -17232,8 +17702,12 @@
         <f>code_monthly!O118</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" s="21">
+        <f>code_monthly!P118</f>
+        <v>-0.24333333333333584</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>338</v>
       </c>
@@ -17280,8 +17754,12 @@
         <f>code_monthly!O119</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" s="21">
+        <f>code_monthly!P119</f>
+        <v>-8.6666666666669556E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>339</v>
       </c>
@@ -17328,8 +17806,12 @@
         <f>code_monthly!O120</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" s="21">
+        <f>code_monthly!P120</f>
+        <v>1.1416666666666657</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>340</v>
       </c>
@@ -17376,8 +17858,12 @@
         <f>code_monthly!O121</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" s="21">
+        <f>code_monthly!P121</f>
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>341</v>
       </c>
@@ -17424,8 +17910,12 @@
         <f>code_monthly!O122</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" s="21">
+        <f>code_monthly!P122</f>
+        <v>0.53166666666666806</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>342</v>
       </c>
@@ -17472,8 +17962,12 @@
         <f>code_monthly!O123</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="21">
+        <f>code_monthly!P123</f>
+        <v>1.5000000000000568E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>343</v>
       </c>
@@ -17520,8 +18014,12 @@
         <f>code_monthly!O124</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" s="21">
+        <f>code_monthly!P124</f>
+        <v>-1.0816666666666652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>344</v>
       </c>
@@ -17568,8 +18066,12 @@
         <f>code_monthly!O125</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" s="21">
+        <f>code_monthly!P125</f>
+        <v>1.0616666666666674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>345</v>
       </c>
@@ -17616,8 +18118,12 @@
         <f>code_monthly!O126</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126" s="21">
+        <f>code_monthly!P126</f>
+        <v>1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>346</v>
       </c>
@@ -17664,8 +18170,12 @@
         <f>code_monthly!O127</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="21">
+        <f>code_monthly!P127</f>
+        <v>1.7466666666666661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>347</v>
       </c>
@@ -17712,8 +18222,12 @@
         <f>code_monthly!O128</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="21">
+        <f>code_monthly!P128</f>
+        <v>3.8333333333333997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>348</v>
       </c>
@@ -17760,8 +18274,12 @@
         <f>code_monthly!O129</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="21">
+        <f>code_monthly!P129</f>
+        <v>1.8533333333333317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>349</v>
       </c>
@@ -17808,8 +18326,12 @@
         <f>code_monthly!O130</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="21">
+        <f>code_monthly!P130</f>
+        <v>1.3566666666666656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>350</v>
       </c>
@@ -17856,8 +18378,12 @@
         <f>code_monthly!O131</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" s="21">
+        <f>code_monthly!P131</f>
+        <v>0.61333333333332973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>351</v>
       </c>
@@ -17904,8 +18430,12 @@
         <f>code_monthly!O132</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="21">
+        <f>code_monthly!P132</f>
+        <v>-0.45833333333333215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>352</v>
       </c>
@@ -17952,8 +18482,12 @@
         <f>code_monthly!O133</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" s="21">
+        <f>code_monthly!P133</f>
+        <v>1.9200000000000017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>353</v>
       </c>
@@ -18000,8 +18534,12 @@
         <f>code_monthly!O134</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" s="21">
+        <f>code_monthly!P134</f>
+        <v>0.43166666666666664</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>354</v>
       </c>
@@ -18048,8 +18586,12 @@
         <f>code_monthly!O135</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="21">
+        <f>code_monthly!P135</f>
+        <v>-8.5000000000000853E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>355</v>
       </c>
@@ -18096,8 +18638,12 @@
         <f>code_monthly!O136</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="21">
+        <f>code_monthly!P136</f>
+        <v>1.0683333333333334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>356</v>
       </c>
@@ -18144,8 +18690,12 @@
         <f>code_monthly!O137</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" s="21">
+        <f>code_monthly!P137</f>
+        <v>-3.833333333333222E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>357</v>
       </c>
@@ -18192,8 +18742,12 @@
         <f>code_monthly!O138</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="21">
+        <f>code_monthly!P138</f>
+        <v>-1.3900000000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>358</v>
       </c>
@@ -18240,8 +18794,12 @@
         <f>code_monthly!O139</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" s="21">
+        <f>code_monthly!P139</f>
+        <v>0.1466666666666665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>359</v>
       </c>
@@ -18288,8 +18846,12 @@
         <f>code_monthly!O140</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="21">
+        <f>code_monthly!P140</f>
+        <v>0.18833333333333346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>360</v>
       </c>
@@ -18336,8 +18898,12 @@
         <f>code_monthly!O141</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="21">
+        <f>code_monthly!P141</f>
+        <v>-2.4966666666666679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>361</v>
       </c>
@@ -18384,8 +18950,12 @@
         <f>code_monthly!O142</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" s="21">
+        <f>code_monthly!P142</f>
+        <v>-1.8933333333333362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>362</v>
       </c>
@@ -18432,8 +19002,12 @@
         <f>code_monthly!O143</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" s="21">
+        <f>code_monthly!P143</f>
+        <v>0.9633333333333276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>363</v>
       </c>
@@ -18480,8 +19054,12 @@
         <f>code_monthly!O144</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" s="21">
+        <f>code_monthly!P144</f>
+        <v>0.49166666666666714</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>364</v>
       </c>
@@ -18528,8 +19106,12 @@
         <f>code_monthly!O145</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="21">
+        <f>code_monthly!P145</f>
+        <v>-1.0300000000000011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>365</v>
       </c>
@@ -18576,8 +19158,12 @@
         <f>code_monthly!O146</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" s="21">
+        <f>code_monthly!P146</f>
+        <v>1.8316666666666688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>366</v>
       </c>
@@ -18624,8 +19210,12 @@
         <f>code_monthly!O147</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="21">
+        <f>code_monthly!P147</f>
+        <v>1.2649999999999988</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>367</v>
       </c>
@@ -18672,8 +19262,12 @@
         <f>code_monthly!O148</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" s="21">
+        <f>code_monthly!P148</f>
+        <v>-0.43166666666666575</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>368</v>
       </c>
@@ -18720,8 +19314,12 @@
         <f>code_monthly!O149</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="21">
+        <f>code_monthly!P149</f>
+        <v>1.6616666666666671</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>369</v>
       </c>
@@ -18768,8 +19366,12 @@
         <f>code_monthly!O150</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150" s="21">
+        <f>code_monthly!P150</f>
+        <v>-0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>370</v>
       </c>
@@ -18815,6 +19417,10 @@
       <c r="N151" s="21">
         <f>code_monthly!O151</f>
         <v>9</v>
+      </c>
+      <c r="O151" s="21">
+        <f>code_monthly!P151</f>
+        <v>1.6966666666666672</v>
       </c>
     </row>
   </sheetData>
@@ -18844,10 +19450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1A12A-60AE-8541-8DC2-9465FA0A2F2C}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18861,7 +19467,7 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -18907,8 +19513,11 @@
       <c r="O1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>221</v>
       </c>
@@ -18948,8 +19557,11 @@
       <c r="N2">
         <v>1.6447909999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0.28166666666666806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>222</v>
       </c>
@@ -18989,8 +19601,11 @@
       <c r="N3">
         <v>1.6457930000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0.76500000000000057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>223</v>
       </c>
@@ -19030,8 +19645,11 @@
       <c r="N4">
         <v>1.6182019999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>1.6183333333333341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>224</v>
       </c>
@@ -19071,8 +19689,11 @@
       <c r="N5">
         <v>1.5975969999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>-1.8883333333333319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>225</v>
       </c>
@@ -19112,8 +19733,11 @@
       <c r="N6">
         <v>1.5180499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>-3.4400000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>226</v>
       </c>
@@ -19153,8 +19777,11 @@
       <c r="N7">
         <v>1.5183720000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>-1.6533333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>227</v>
       </c>
@@ -19194,8 +19821,11 @@
       <c r="N8">
         <v>1.530011</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>-0.51166666666666583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>228</v>
       </c>
@@ -19235,8 +19865,11 @@
       <c r="N9">
         <v>1.4522010000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>0.20333333333333137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>229</v>
       </c>
@@ -19276,8 +19909,11 @@
       <c r="N10">
         <v>1.4944329999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>-1.2433333333333358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>230</v>
       </c>
@@ -19317,8 +19953,11 @@
       <c r="N11">
         <v>1.569809</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>0.86333333333332973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>231</v>
       </c>
@@ -19358,8 +19997,11 @@
       <c r="N12">
         <v>1.5465990000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>0.99166666666666714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>232</v>
       </c>
@@ -19399,8 +20041,11 @@
       <c r="N13">
         <v>1.5795790000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>-1.2800000000000011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>233</v>
       </c>
@@ -19440,8 +20085,11 @@
       <c r="N14">
         <v>1.577412</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>-0.668333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>234</v>
       </c>
@@ -19481,8 +20129,11 @@
       <c r="N15">
         <v>1.5556209999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>-0.28500000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>235</v>
       </c>
@@ -19522,8 +20173,11 @@
       <c r="N16">
         <v>1.5437099999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>-1.8316666666666661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>236</v>
       </c>
@@ -19566,8 +20220,11 @@
       <c r="O17" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>-4.838333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>237</v>
       </c>
@@ -19610,8 +20267,11 @@
       <c r="O18" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>-0.44000000000000128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>238</v>
       </c>
@@ -19654,8 +20314,11 @@
       <c r="O19" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1.5466666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>239</v>
       </c>
@@ -19698,8 +20361,11 @@
       <c r="O20" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>0.13833333333333453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>240</v>
       </c>
@@ -19742,8 +20408,11 @@
       <c r="O21" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>3.6533333333333307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>241</v>
       </c>
@@ -19786,8 +20455,11 @@
       <c r="O22" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0.65666666666666273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>242</v>
       </c>
@@ -19830,8 +20502,11 @@
       <c r="O23" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>-1.0866666666666713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>243</v>
       </c>
@@ -19874,8 +20549,11 @@
       <c r="O24" s="28">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>-1.908333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>244</v>
       </c>
@@ -19918,8 +20596,11 @@
       <c r="O25" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>-1.0799999999999983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>245</v>
       </c>
@@ -19962,8 +20643,11 @@
       <c r="O26" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>0.88166666666666949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>246</v>
       </c>
@@ -20006,8 +20690,11 @@
       <c r="O27" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>1.9400000000000013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>247</v>
       </c>
@@ -20050,8 +20737,11 @@
       <c r="O28" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>2.0683333333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>248</v>
       </c>
@@ -20094,8 +20784,11 @@
       <c r="O29" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>0.81166666666666742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>249</v>
       </c>
@@ -20138,8 +20831,11 @@
       <c r="O30" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>1.0599999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>250</v>
       </c>
@@ -20182,8 +20878,11 @@
       <c r="O31" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>-1.3033333333333328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>251</v>
       </c>
@@ -20226,8 +20925,11 @@
       <c r="O32" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>1.7883333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>252</v>
       </c>
@@ -20270,8 +20972,11 @@
       <c r="O33" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>-1.3966666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>253</v>
       </c>
@@ -20314,8 +21019,11 @@
       <c r="O34" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>0.20666666666666345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>254</v>
       </c>
@@ -20358,8 +21066,11 @@
       <c r="O35" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>-1.436666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>255</v>
       </c>
@@ -20402,8 +21113,11 @@
       <c r="O36" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>-1.8083333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>256</v>
       </c>
@@ -20446,8 +21160,11 @@
       <c r="O37" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>257</v>
       </c>
@@ -20490,8 +21207,11 @@
       <c r="O38" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>-0.81833333333333158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>258</v>
       </c>
@@ -20534,8 +21254,11 @@
       <c r="O39" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>-0.9350000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>259</v>
       </c>
@@ -20578,8 +21301,11 @@
       <c r="O40" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>-0.58166666666666611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>260</v>
       </c>
@@ -20622,8 +21348,11 @@
       <c r="O41" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>-0.2383333333333324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>261</v>
       </c>
@@ -20666,8 +21395,11 @@
       <c r="O42" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>-1.2900000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>262</v>
       </c>
@@ -20710,8 +21442,11 @@
       <c r="O43" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>-2.003333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>263</v>
       </c>
@@ -20754,8 +21489,11 @@
       <c r="O44" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>-3.8616666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>264</v>
       </c>
@@ -20798,8 +21536,11 @@
       <c r="O45" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>-1.3966666666666683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>265</v>
       </c>
@@ -20842,8 +21583,11 @@
       <c r="O46" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>-1.6933333333333369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>266</v>
       </c>
@@ -20886,8 +21630,11 @@
       <c r="O47" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>-1.186666666666671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>267</v>
       </c>
@@ -20930,8 +21677,11 @@
       <c r="O48" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>2.0416666666666679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>268</v>
       </c>
@@ -20974,8 +21724,11 @@
       <c r="O49" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>0.62000000000000099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>269</v>
       </c>
@@ -21018,8 +21771,11 @@
       <c r="O50" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>-0.56833333333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>270</v>
       </c>
@@ -21062,8 +21818,11 @@
       <c r="O51" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>-1.1850000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>271</v>
       </c>
@@ -21106,8 +21865,11 @@
       <c r="O52" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>-1.1316666666666659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>272</v>
       </c>
@@ -21150,8 +21912,11 @@
       <c r="O53" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>0.81166666666666742</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>273</v>
       </c>
@@ -21194,8 +21959,11 @@
       <c r="O54" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>1.3599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>274</v>
       </c>
@@ -21238,8 +22006,11 @@
       <c r="O55" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>1.5466666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>275</v>
       </c>
@@ -21282,8 +22053,11 @@
       <c r="O56" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>1.3383333333333338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>276</v>
       </c>
@@ -21326,8 +22100,11 @@
       <c r="O57" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>1.3033333333333328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>277</v>
       </c>
@@ -21370,8 +22147,11 @@
       <c r="O58" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>0.15666666666666451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>278</v>
       </c>
@@ -21414,8 +22194,11 @@
       <c r="O59" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>0.36333333333332973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>279</v>
       </c>
@@ -21458,8 +22241,11 @@
       <c r="O60" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>1.341666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>280</v>
       </c>
@@ -21502,8 +22288,11 @@
       <c r="O61" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>-1.4800000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>281</v>
       </c>
@@ -21546,8 +22335,11 @@
       <c r="O62" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>1.1816666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>282</v>
       </c>
@@ -21590,8 +22382,11 @@
       <c r="O63" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>1.6900000000000013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>283</v>
       </c>
@@ -21634,8 +22429,11 @@
       <c r="O64" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>1.3183333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>284</v>
       </c>
@@ -21678,8 +22476,11 @@
       <c r="O65" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>6.1666666666667425E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>285</v>
       </c>
@@ -21722,8 +22523,11 @@
       <c r="O66" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>-0.34000000000000075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>286</v>
       </c>
@@ -21766,8 +22570,11 @@
       <c r="O67" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>-1.0533333333333328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>287</v>
       </c>
@@ -21810,8 +22617,11 @@
       <c r="O68" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>-6.1666666666666536E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>288</v>
       </c>
@@ -21854,8 +22664,11 @@
       <c r="O69" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>0.65333333333333243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>289</v>
       </c>
@@ -21898,8 +22711,11 @@
       <c r="O70" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>-0.54333333333333478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>290</v>
       </c>
@@ -21942,8 +22758,11 @@
       <c r="O71" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>-0.13666666666667027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>291</v>
       </c>
@@ -21986,8 +22805,11 @@
       <c r="O72" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>-0.30833333333333357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>292</v>
       </c>
@@ -22030,8 +22852,11 @@
       <c r="O73" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P73">
+        <v>-0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>293</v>
       </c>
@@ -22074,8 +22899,11 @@
       <c r="O74" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P74">
+        <v>-1.5683333333333316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>294</v>
       </c>
@@ -22118,8 +22946,11 @@
       <c r="O75" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P75">
+        <v>0.51500000000000057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>295</v>
       </c>
@@ -22162,8 +22993,11 @@
       <c r="O76" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>2.3183333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>296</v>
       </c>
@@ -22206,8 +23040,11 @@
       <c r="O77" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P77">
+        <v>5.2616666666666685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>297</v>
       </c>
@@ -22250,8 +23087,11 @@
       <c r="O78" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>0.70999999999999908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>298</v>
       </c>
@@ -22294,8 +23134,11 @@
       <c r="O79" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P79">
+        <v>0.19666666666666721</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>299</v>
       </c>
@@ -22338,8 +23181,11 @@
       <c r="O80" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P80">
+        <v>-0.96166666666666689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>300</v>
       </c>
@@ -22382,8 +23228,11 @@
       <c r="O81" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>-1.2966666666666686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>301</v>
       </c>
@@ -22426,8 +23275,11 @@
       <c r="O82" s="28">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>0.6066666666666638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>302</v>
       </c>
@@ -22470,8 +23322,11 @@
       <c r="O83" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>-0.23666666666667169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>303</v>
       </c>
@@ -22514,8 +23369,11 @@
       <c r="O84" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>0.19166666666666643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>304</v>
       </c>
@@ -22558,8 +23416,11 @@
       <c r="O85" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>305</v>
       </c>
@@ -22602,8 +23463,11 @@
       <c r="O86" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>2.0816666666666652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>306</v>
       </c>
@@ -22646,8 +23510,11 @@
       <c r="O87" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P87">
+        <v>0.26500000000000057</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>307</v>
       </c>
@@ -22690,8 +23557,11 @@
       <c r="O88" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>-1.2316666666666656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>308</v>
       </c>
@@ -22734,8 +23604,11 @@
       <c r="O89" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>0.7616666666666676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>309</v>
       </c>
@@ -22778,8 +23651,11 @@
       <c r="O90" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>-1.3900000000000015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>310</v>
       </c>
@@ -22822,8 +23698,11 @@
       <c r="O91" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>1.246666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>311</v>
       </c>
@@ -22866,8 +23745,11 @@
       <c r="O92" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>2.4383333333333335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>312</v>
       </c>
@@ -22910,8 +23792,11 @@
       <c r="O93" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>0.3533333333333335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>313</v>
       </c>
@@ -22954,8 +23839,11 @@
       <c r="O94" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P94">
+        <v>1.3566666666666656</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>314</v>
       </c>
@@ -22998,8 +23886,11 @@
       <c r="O95" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P95">
+        <v>2.0133333333333283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>315</v>
       </c>
@@ -23042,8 +23933,11 @@
       <c r="O96" s="28">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P96">
+        <v>0.29166666666666785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>316</v>
       </c>
@@ -23086,8 +23980,11 @@
       <c r="O97" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97">
+        <v>-0.92999999999999972</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>317</v>
       </c>
@@ -23130,8 +24027,11 @@
       <c r="O98" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98">
+        <v>-0.86833333333333229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>318</v>
       </c>
@@ -23174,8 +24074,11 @@
       <c r="O99" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99">
+        <v>0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>319</v>
       </c>
@@ -23218,8 +24121,11 @@
       <c r="O100" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100">
+        <v>-0.58166666666666611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>320</v>
       </c>
@@ -23262,8 +24168,11 @@
       <c r="O101" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101">
+        <v>-0.2383333333333324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>321</v>
       </c>
@@ -23306,8 +24215,11 @@
       <c r="O102" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102">
+        <v>1.2099999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>322</v>
       </c>
@@ -23350,8 +24262,11 @@
       <c r="O103" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>-2.3033333333333332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>323</v>
       </c>
@@ -23394,8 +24309,11 @@
       <c r="O104" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104">
+        <v>-1.5116666666666658</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>324</v>
       </c>
@@ -23438,8 +24356,11 @@
       <c r="O105" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105">
+        <v>1.2033333333333314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>325</v>
       </c>
@@ -23482,8 +24403,11 @@
       <c r="O106" s="28">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106">
+        <v>1.5566666666666649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>326</v>
       </c>
@@ -23526,8 +24450,11 @@
       <c r="O107" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107">
+        <v>1.7133333333333276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>327</v>
       </c>
@@ -23570,8 +24497,11 @@
       <c r="O108" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108">
+        <v>3.2916666666666679</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>328</v>
       </c>
@@ -23614,8 +24544,11 @@
       <c r="O109" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109">
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>329</v>
       </c>
@@ -23658,8 +24591,11 @@
       <c r="O110" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110">
+        <v>-1.8333333333332646E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>330</v>
       </c>
@@ -23702,8 +24638,11 @@
       <c r="O111" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111">
+        <v>0.46499999999999986</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>331</v>
       </c>
@@ -23746,8 +24685,11 @@
       <c r="O112" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112">
+        <v>0.61833333333333407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>332</v>
       </c>
@@ -23790,8 +24732,11 @@
       <c r="O113" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113">
+        <v>1.9116666666666671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>333</v>
       </c>
@@ -23834,8 +24779,11 @@
       <c r="O114" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114">
+        <v>-0.7400000000000011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>334</v>
       </c>
@@ -23878,8 +24826,11 @@
       <c r="O115" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115">
+        <v>1.8966666666666665</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>335</v>
       </c>
@@ -23922,8 +24873,11 @@
       <c r="O116" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116">
+        <v>1.5383333333333331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>336</v>
       </c>
@@ -23966,8 +24920,11 @@
       <c r="O117" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117">
+        <v>0.25333333333333208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>337</v>
       </c>
@@ -24010,8 +24967,11 @@
       <c r="O118" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118">
+        <v>-0.24333333333333584</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>338</v>
       </c>
@@ -24054,8 +25014,11 @@
       <c r="O119" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119">
+        <v>-8.6666666666669556E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>339</v>
       </c>
@@ -24098,8 +25061,11 @@
       <c r="O120" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120">
+        <v>1.1416666666666657</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>340</v>
       </c>
@@ -24142,8 +25108,11 @@
       <c r="O121" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121">
+        <v>0.96999999999999886</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>341</v>
       </c>
@@ -24186,8 +25155,11 @@
       <c r="O122" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122">
+        <v>0.53166666666666806</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>342</v>
       </c>
@@ -24230,8 +25202,11 @@
       <c r="O123" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123">
+        <v>1.5000000000000568E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>343</v>
       </c>
@@ -24274,8 +25249,11 @@
       <c r="O124" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124">
+        <v>-1.0816666666666652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>344</v>
       </c>
@@ -24318,8 +25296,11 @@
       <c r="O125" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125">
+        <v>1.0616666666666674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>345</v>
       </c>
@@ -24362,8 +25343,11 @@
       <c r="O126" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126">
+        <v>1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>346</v>
       </c>
@@ -24406,8 +25390,11 @@
       <c r="O127" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127">
+        <v>1.7466666666666661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>347</v>
       </c>
@@ -24450,8 +25437,11 @@
       <c r="O128" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128">
+        <v>3.8333333333333997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>348</v>
       </c>
@@ -24494,8 +25484,11 @@
       <c r="O129" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>1.8533333333333317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>349</v>
       </c>
@@ -24538,8 +25531,11 @@
       <c r="O130" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>1.3566666666666656</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>350</v>
       </c>
@@ -24582,8 +25578,11 @@
       <c r="O131" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131">
+        <v>0.61333333333332973</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>351</v>
       </c>
@@ -24626,8 +25625,11 @@
       <c r="O132" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132">
+        <v>-0.45833333333333215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>352</v>
       </c>
@@ -24670,8 +25672,11 @@
       <c r="O133" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133">
+        <v>1.9200000000000017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>353</v>
       </c>
@@ -24714,8 +25719,11 @@
       <c r="O134" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134">
+        <v>0.43166666666666664</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>354</v>
       </c>
@@ -24758,8 +25766,11 @@
       <c r="O135" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135">
+        <v>-8.5000000000000853E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>355</v>
       </c>
@@ -24802,8 +25813,11 @@
       <c r="O136" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136">
+        <v>1.0683333333333334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>356</v>
       </c>
@@ -24846,8 +25860,11 @@
       <c r="O137" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137">
+        <v>-3.833333333333222E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>357</v>
       </c>
@@ -24890,8 +25907,11 @@
       <c r="O138" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138">
+        <v>-1.3900000000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>358</v>
       </c>
@@ -24934,8 +25954,11 @@
       <c r="O139" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139">
+        <v>0.1466666666666665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>359</v>
       </c>
@@ -24978,8 +26001,11 @@
       <c r="O140" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140">
+        <v>0.18833333333333346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>360</v>
       </c>
@@ -25022,8 +26048,11 @@
       <c r="O141" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141">
+        <v>-2.4966666666666679</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>361</v>
       </c>
@@ -25066,8 +26095,11 @@
       <c r="O142" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142">
+        <v>-1.8933333333333362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>362</v>
       </c>
@@ -25110,8 +26142,11 @@
       <c r="O143" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143">
+        <v>0.9633333333333276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>363</v>
       </c>
@@ -25154,8 +26189,11 @@
       <c r="O144" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144">
+        <v>0.49166666666666714</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>364</v>
       </c>
@@ -25198,8 +26236,11 @@
       <c r="O145" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145">
+        <v>-1.0300000000000011</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>365</v>
       </c>
@@ -25242,8 +26283,11 @@
       <c r="O146" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146">
+        <v>1.8316666666666688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>366</v>
       </c>
@@ -25286,8 +26330,11 @@
       <c r="O147" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147">
+        <v>1.2649999999999988</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>367</v>
       </c>
@@ -25330,8 +26377,11 @@
       <c r="O148" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148">
+        <v>-0.43166666666666575</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>368</v>
       </c>
@@ -25374,8 +26424,11 @@
       <c r="O149" s="28">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149">
+        <v>1.6616666666666671</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>369</v>
       </c>
@@ -25418,8 +26471,11 @@
       <c r="O150" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150">
+        <v>-0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>370</v>
       </c>
@@ -25461,6 +26517,9 @@
       </c>
       <c r="O151" s="28">
         <v>9</v>
+      </c>
+      <c r="P151">
+        <v>1.6966666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/Gas Data processed.xlsx
+++ b/Gas Data processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucruffie/Desktop/Imperial/thesis/VAR model/GasPriceDecomp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B9BDD-7659-7241-AFD4-6A4243E728D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB5F046-EE40-5B42-BB0F-B5DD60DD8DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{88D9446F-9168-9442-AAE9-1CF976F5EBFD}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="397">
   <si>
     <t>Year</t>
   </si>
@@ -26202,10 +26202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE51D9A-5C09-2646-8907-DAE3B2E6F030}">
-  <dimension ref="A1:Y153"/>
+  <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J125" workbookViewId="0">
-      <selection activeCell="P153" sqref="P153"/>
+    <sheetView tabSelected="1" topLeftCell="G66" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26352,8 +26352,8 @@
         <v>89.58</v>
       </c>
       <c r="L2" s="21">
-        <f>code_monthly!N2*100</f>
-        <v>164.47909999999999</v>
+        <f>code_monthly!N2*10</f>
+        <v>16.44791</v>
       </c>
       <c r="M2" s="27">
         <v>87.2</v>
@@ -26383,11 +26383,12 @@
         <v>-0.01</v>
       </c>
       <c r="V2">
-        <f>code_monthly!T2*100</f>
-        <v>60.79799804352043</v>
+        <f>code_monthly!T2*10</f>
+        <v>6.0797998043520431</v>
       </c>
       <c r="W2" s="4">
-        <v>25.18797</v>
+        <f>code_monthly!W2/10</f>
+        <v>2.0839810000000001</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26429,8 +26430,8 @@
         <v>0.90239999999999998</v>
       </c>
       <c r="L3" s="21">
-        <f>code_monthly!N3*100</f>
-        <v>164.57930000000002</v>
+        <f>code_monthly!N3*10</f>
+        <v>16.457930000000001</v>
       </c>
       <c r="M3" s="27">
         <v>87.5</v>
@@ -26460,11 +26461,12 @@
         <v>-0.19</v>
       </c>
       <c r="V3">
-        <f>code_monthly!T3*100</f>
-        <v>60.760982699525393</v>
+        <f>code_monthly!T3*10</f>
+        <v>6.0760982699525385</v>
       </c>
       <c r="W3" s="4">
-        <v>17.001339999999999</v>
+        <f>code_monthly!W3/10</f>
+        <v>1.5582819999999999</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26506,8 +26508,8 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="L4" s="21">
-        <f>code_monthly!N4*100</f>
-        <v>161.8202</v>
+        <f>code_monthly!N4*10</f>
+        <v>16.182019999999998</v>
       </c>
       <c r="M4" s="27">
         <v>88</v>
@@ -26537,11 +26539,12 @@
         <v>0.32</v>
       </c>
       <c r="V4">
-        <f>code_monthly!T4*100</f>
-        <v>61.796982082583021</v>
+        <f>code_monthly!T4*10</f>
+        <v>6.1796982082583014</v>
       </c>
       <c r="W4" s="4">
-        <v>16.65005</v>
+        <f>code_monthly!W4/10</f>
+        <v>1.5666040000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26583,8 +26586,8 @@
         <v>0.86839999999999995</v>
       </c>
       <c r="L5" s="21">
-        <f>code_monthly!N5*100</f>
-        <v>159.75969999999998</v>
+        <f>code_monthly!N5*10</f>
+        <v>15.97597</v>
       </c>
       <c r="M5" s="27">
         <v>87.8</v>
@@ -26614,11 +26617,12 @@
         <v>0.7</v>
       </c>
       <c r="V5">
-        <f>code_monthly!T5*100</f>
-        <v>62.594008376330201</v>
+        <f>code_monthly!T5*10</f>
+        <v>6.2594008376330201</v>
       </c>
       <c r="W5" s="4">
-        <v>14.128439999999999</v>
+        <f>code_monthly!W5/10</f>
+        <v>1.326443</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26660,8 +26664,8 @@
         <v>0.8982</v>
       </c>
       <c r="L6" s="21">
-        <f>code_monthly!N6*100</f>
-        <v>151.80499999999998</v>
+        <f>code_monthly!N6*10</f>
+        <v>15.180499999999999</v>
       </c>
       <c r="M6" s="27">
         <v>88.2</v>
@@ -26691,11 +26695,12 @@
         <v>0.33</v>
       </c>
       <c r="V6">
-        <f>code_monthly!T6*100</f>
-        <v>65.873983070386359</v>
+        <f>code_monthly!T6*10</f>
+        <v>6.5873983070386357</v>
       </c>
       <c r="W6" s="4">
-        <v>14.28571</v>
+        <f>code_monthly!W6/10</f>
+        <v>1.3340020000000001</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26737,8 +26742,8 @@
         <v>0.88360000000000005</v>
       </c>
       <c r="L7" s="21">
-        <f>code_monthly!N7*100</f>
-        <v>151.8372</v>
+        <f>code_monthly!N7*10</f>
+        <v>15.183720000000001</v>
       </c>
       <c r="M7" s="27">
         <v>88.7</v>
@@ -26768,11 +26773,12 @@
         <v>0.02</v>
       </c>
       <c r="V7">
-        <f>code_monthly!T7*100</f>
-        <v>65.860013224690647</v>
+        <f>code_monthly!T7*10</f>
+        <v>6.5860013224690652</v>
       </c>
       <c r="W7" s="4">
-        <v>15.331009999999999</v>
+        <f>code_monthly!W7/10</f>
+        <v>1.390938</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26814,8 +26820,8 @@
         <v>0.87039999999999995</v>
       </c>
       <c r="L8" s="21">
-        <f>code_monthly!N8*100</f>
-        <v>153.00110000000001</v>
+        <f>code_monthly!N8*10</f>
+        <v>15.30011</v>
       </c>
       <c r="M8" s="27">
         <v>89.2</v>
@@ -26845,11 +26851,12 @@
         <v>-0.72</v>
       </c>
       <c r="V8">
-        <f>code_monthly!T8*100</f>
-        <v>65.359007222823891</v>
+        <f>code_monthly!T8*10</f>
+        <v>6.5359007222823884</v>
       </c>
       <c r="W8" s="4">
-        <v>31.386859999999999</v>
+        <f>code_monthly!W8/10</f>
+        <v>2.5036390000000002</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26891,8 +26898,8 @@
         <v>0.82769999999999999</v>
       </c>
       <c r="L9" s="21">
-        <f>code_monthly!N9*100</f>
-        <v>145.2201</v>
+        <f>code_monthly!N9*10</f>
+        <v>14.522010000000002</v>
       </c>
       <c r="M9" s="27">
         <v>89.4</v>
@@ -26922,11 +26929,12 @@
         <v>-0.42</v>
       </c>
       <c r="V9">
-        <f>code_monthly!T9*100</f>
-        <v>68.860991006065959</v>
+        <f>code_monthly!T9*10</f>
+        <v>6.8860991006065966</v>
       </c>
       <c r="W9" s="4">
-        <v>36.05442</v>
+        <f>code_monthly!W9/10</f>
+        <v>2.55627</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -26968,8 +26976,8 @@
         <v>0.82640000000000002</v>
       </c>
       <c r="L10" s="21">
-        <f>code_monthly!N10*100</f>
-        <v>149.44329999999999</v>
+        <f>code_monthly!N10*10</f>
+        <v>14.944329999999999</v>
       </c>
       <c r="M10" s="27">
         <v>89.5</v>
@@ -26999,11 +27007,12 @@
         <v>-0.36</v>
       </c>
       <c r="V10">
-        <f>code_monthly!T10*100</f>
-        <v>66.915010575917421</v>
+        <f>code_monthly!T10*10</f>
+        <v>6.6915010575917417</v>
       </c>
       <c r="W10" s="4">
-        <v>34.328360000000004</v>
+        <f>code_monthly!W10/10</f>
+        <v>1.9784949999999999</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27045,8 +27054,8 @@
         <v>0.83150000000000002</v>
       </c>
       <c r="L11" s="21">
-        <f>code_monthly!N11*100</f>
-        <v>156.98089999999999</v>
+        <f>code_monthly!N11*10</f>
+        <v>15.698090000000001</v>
       </c>
       <c r="M11" s="27">
         <v>89.3</v>
@@ -27076,11 +27085,12 @@
         <v>-0.15</v>
       </c>
       <c r="V11">
-        <f>code_monthly!T11*100</f>
-        <v>63.702017251780305</v>
+        <f>code_monthly!T11*10</f>
+        <v>6.3702017251780312</v>
       </c>
       <c r="W11" s="4">
-        <v>38.306449999999998</v>
+        <f>code_monthly!W11/10</f>
+        <v>2.2144520000000001</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27122,8 +27132,8 @@
         <v>0.8327</v>
       </c>
       <c r="L12" s="21">
-        <f>code_monthly!N12*100</f>
-        <v>154.65989999999999</v>
+        <f>code_monthly!N12*10</f>
+        <v>15.465990000000001</v>
       </c>
       <c r="M12" s="27">
         <v>89.8</v>
@@ -27153,11 +27163,12 @@
         <v>-0.16</v>
       </c>
       <c r="V12">
-        <f>code_monthly!T12*100</f>
-        <v>64.658001201345655</v>
+        <f>code_monthly!T12*10</f>
+        <v>6.4658001201345661</v>
       </c>
       <c r="W12" s="4">
-        <v>46.333329999999997</v>
+        <f>code_monthly!W12/10</f>
+        <v>3.0684329999999997</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27199,8 +27210,8 @@
         <v>0.86660000000000004</v>
       </c>
       <c r="L13" s="21">
-        <f>code_monthly!N13*100</f>
-        <v>157.9579</v>
+        <f>code_monthly!N13*10</f>
+        <v>15.79579</v>
       </c>
       <c r="M13" s="27">
         <v>89.8</v>
@@ -27230,11 +27241,12 @@
         <v>-0.27</v>
       </c>
       <c r="V13">
-        <f>code_monthly!T13*100</f>
-        <v>63.308008019858455</v>
+        <f>code_monthly!T13*10</f>
+        <v>6.3308008019858448</v>
       </c>
       <c r="W13" s="4">
-        <v>39.095739999999999</v>
+        <f>code_monthly!W13/10</f>
+        <v>2.981744</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27276,8 +27288,8 @@
         <v>0.87319999999999998</v>
       </c>
       <c r="L14" s="21">
-        <f>code_monthly!N14*100</f>
-        <v>157.74119999999999</v>
+        <f>code_monthly!N14*10</f>
+        <v>15.77412</v>
       </c>
       <c r="M14" s="27">
         <v>90</v>
@@ -27307,11 +27319,12 @@
         <v>0.04</v>
       </c>
       <c r="V14">
-        <f>code_monthly!T14*100</f>
-        <v>63.394978610534217</v>
+        <f>code_monthly!T14*10</f>
+        <v>6.3394978610534212</v>
       </c>
       <c r="W14" s="4">
-        <v>37.246049999999997</v>
+        <f>code_monthly!W14/10</f>
+        <v>2.5502320000000003</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27353,8 +27366,8 @@
         <v>0.84740000000000004</v>
       </c>
       <c r="L15" s="21">
-        <f>code_monthly!N15*100</f>
-        <v>155.56209999999999</v>
+        <f>code_monthly!N15*10</f>
+        <v>15.55621</v>
       </c>
       <c r="M15" s="27">
         <v>90.3</v>
@@ -27384,11 +27397,12 @@
         <v>0.24</v>
       </c>
       <c r="V15">
-        <f>code_monthly!T15*100</f>
-        <v>64.283009807658814</v>
+        <f>code_monthly!T15*10</f>
+        <v>6.4283009807658811</v>
       </c>
       <c r="W15" s="4">
-        <v>22.544080000000001</v>
+        <f>code_monthly!W15/10</f>
+        <v>2.0112359999999998</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -27430,8 +27444,8 @@
         <v>0.86140000000000005</v>
       </c>
       <c r="L16" s="21">
-        <f>code_monthly!N16*100</f>
-        <v>154.37099999999998</v>
+        <f>code_monthly!N16*10</f>
+        <v>15.437099999999999</v>
       </c>
       <c r="M16" s="27">
         <v>91.2</v>
@@ -27461,11 +27475,12 @@
         <v>0.9</v>
       </c>
       <c r="V16">
-        <f>code_monthly!T16*100</f>
-        <v>64.77900641959954</v>
+        <f>code_monthly!T16*10</f>
+        <v>6.4779006419599536</v>
       </c>
       <c r="W16" s="4">
-        <v>19.08257</v>
+        <f>code_monthly!W16/10</f>
+        <v>1.7931029999999999</v>
       </c>
       <c r="X16" s="21">
         <f>code_monthly_deflated!T16</f>
@@ -27515,8 +27530,8 @@
         <v>0.84430000000000005</v>
       </c>
       <c r="L17" s="21">
-        <f>code_monthly!N17*100</f>
-        <v>158.29300000000001</v>
+        <f>code_monthly!N17*10</f>
+        <v>15.8293</v>
       </c>
       <c r="M17" s="27">
         <v>91.3</v>
@@ -27550,11 +27565,12 @@
         <v>-0.32</v>
       </c>
       <c r="V17">
-        <f>code_monthly!T17*100</f>
-        <v>63.173987478915684</v>
+        <f>code_monthly!T17*10</f>
+        <v>6.3173987478915681</v>
       </c>
       <c r="W17" s="4">
-        <v>25.605899999999998</v>
+        <f>code_monthly!W17/10</f>
+        <v>2.3940890000000001</v>
       </c>
       <c r="X17" s="21">
         <f>code_monthly_deflated!T17</f>
@@ -27604,8 +27620,8 @@
         <v>0.85740000000000005</v>
       </c>
       <c r="L18" s="21">
-        <f>code_monthly!N18*100</f>
-        <v>161.00470000000001</v>
+        <f>code_monthly!N18*10</f>
+        <v>16.100470000000001</v>
       </c>
       <c r="M18" s="27">
         <v>92</v>
@@ -27639,11 +27655,12 @@
         <v>-0.53</v>
       </c>
       <c r="V18">
-        <f>code_monthly!T18*100</f>
-        <v>62.109988093515277</v>
+        <f>code_monthly!T18*10</f>
+        <v>6.210998809351528</v>
       </c>
       <c r="W18" s="4">
-        <v>26.89189</v>
+        <f>code_monthly!W18/10</f>
+        <v>2.4843950000000001</v>
       </c>
       <c r="X18" s="21">
         <f>code_monthly_deflated!T18</f>
@@ -27693,8 +27710,8 @@
         <v>0.88290000000000002</v>
       </c>
       <c r="L19" s="21">
-        <f>code_monthly!N19*100</f>
-        <v>160.7407</v>
+        <f>code_monthly!N19*10</f>
+        <v>16.074069999999999</v>
       </c>
       <c r="M19" s="27">
         <v>92.2</v>
@@ -27728,11 +27745,12 @@
         <v>-0.49</v>
       </c>
       <c r="V19">
-        <f>code_monthly!T19*100</f>
-        <v>62.211997334838031</v>
+        <f>code_monthly!T19*10</f>
+        <v>6.221199733483803</v>
       </c>
       <c r="W19" s="4">
-        <v>33.884300000000003</v>
+        <f>code_monthly!W19/10</f>
+        <v>3.0943399999999999</v>
       </c>
       <c r="X19" s="21">
         <f>code_monthly_deflated!T19</f>
@@ -27782,8 +27800,8 @@
         <v>0.89141999999999999</v>
       </c>
       <c r="L20" s="21">
-        <f>code_monthly!N20*100</f>
-        <v>166.50020000000001</v>
+        <f>code_monthly!N20*10</f>
+        <v>16.650020000000001</v>
       </c>
       <c r="M20" s="27">
         <v>93.2</v>
@@ -27817,11 +27835,12 @@
         <v>-0.91</v>
       </c>
       <c r="V20">
-        <f>code_monthly!T20*100</f>
-        <v>60.059987915930421</v>
+        <f>code_monthly!T20*10</f>
+        <v>6.0059987915930426</v>
       </c>
       <c r="W20" s="4">
-        <v>76.353279999999998</v>
+        <f>code_monthly!W20/10</f>
+        <v>5.0853890000000002</v>
       </c>
       <c r="X20" s="21">
         <f>code_monthly_deflated!T20</f>
@@ -27871,8 +27890,8 @@
         <v>0.88512000000000002</v>
       </c>
       <c r="L21" s="21">
-        <f>code_monthly!N21*100</f>
-        <v>164.8777</v>
+        <f>code_monthly!N21*10</f>
+        <v>16.487769999999998</v>
       </c>
       <c r="M21" s="27">
         <v>93.4</v>
@@ -27906,11 +27925,12 @@
         <v>-0.3</v>
       </c>
       <c r="V21">
-        <f>code_monthly!T21*100</f>
-        <v>60.651015874190385</v>
+        <f>code_monthly!T21*10</f>
+        <v>6.0651015874190382</v>
       </c>
       <c r="W21" s="4">
-        <v>72.941180000000003</v>
+        <f>code_monthly!W21/10</f>
+        <v>4.940239</v>
       </c>
       <c r="X21" s="21">
         <f>code_monthly_deflated!T21</f>
@@ -27960,8 +27980,8 @@
         <v>0.90324000000000004</v>
       </c>
       <c r="L22" s="21">
-        <f>code_monthly!N22*100</f>
-        <v>160.75880000000001</v>
+        <f>code_monthly!N22*10</f>
+        <v>16.075880000000002</v>
       </c>
       <c r="M22" s="27">
         <v>93.3</v>
@@ -27995,11 +28015,12 @@
         <v>-0.04</v>
       </c>
       <c r="V22">
-        <f>code_monthly!T22*100</f>
-        <v>62.204992821543826</v>
+        <f>code_monthly!T22*10</f>
+        <v>6.2204992821543827</v>
       </c>
       <c r="W22" s="4">
-        <v>69.415809999999993</v>
+        <f>code_monthly!W22/10</f>
+        <v>4.7306790000000003</v>
       </c>
       <c r="X22" s="21">
         <f>code_monthly_deflated!T22</f>
@@ -28049,8 +28070,8 @@
         <v>0.87573000000000001</v>
       </c>
       <c r="L23" s="21">
-        <f>code_monthly!N23*100</f>
-        <v>163.6849</v>
+        <f>code_monthly!N23*10</f>
+        <v>16.368490000000001</v>
       </c>
       <c r="M23" s="27">
         <v>93.3</v>
@@ -28084,11 +28105,12 @@
         <v>-0.18</v>
       </c>
       <c r="V23">
-        <f>code_monthly!T23*100</f>
-        <v>61.092990251391541</v>
+        <f>code_monthly!T23*10</f>
+        <v>6.1092990251391548</v>
       </c>
       <c r="W23" s="4">
-        <v>69.66292</v>
+        <f>code_monthly!W23/10</f>
+        <v>4.4391410000000002</v>
       </c>
       <c r="X23" s="21">
         <f>code_monthly_deflated!T23</f>
@@ -28138,8 +28160,8 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="L24" s="21">
-        <f>code_monthly!N24*100</f>
-        <v>163.0763</v>
+        <f>code_monthly!N24*10</f>
+        <v>16.30763</v>
       </c>
       <c r="M24" s="27">
         <v>93.8</v>
@@ -28173,11 +28195,12 @@
         <v>0.23</v>
       </c>
       <c r="V24">
-        <f>code_monthly!T24*100</f>
-        <v>61.320989009439145</v>
+        <f>code_monthly!T24*10</f>
+        <v>6.1320989009439142</v>
       </c>
       <c r="W24" s="4">
-        <v>79.039299999999997</v>
+        <f>code_monthly!W24/10</f>
+        <v>4.3719809999999999</v>
       </c>
       <c r="X24" s="21">
         <f>code_monthly_deflated!T24</f>
@@ -28227,8 +28250,8 @@
         <v>0.87070999999999998</v>
       </c>
       <c r="L25" s="21">
-        <f>code_monthly!N25*100</f>
-        <v>155.9941</v>
+        <f>code_monthly!N25*10</f>
+        <v>15.599410000000001</v>
       </c>
       <c r="M25" s="27">
         <v>94.4</v>
@@ -28262,11 +28285,12 @@
         <v>-0.33</v>
       </c>
       <c r="V25">
-        <f>code_monthly!T25*100</f>
-        <v>64.104988586106785</v>
+        <f>code_monthly!T25*10</f>
+        <v>6.4104988586106781</v>
       </c>
       <c r="W25" s="4">
-        <v>47.878790000000002</v>
+        <f>code_monthly!W25/10</f>
+        <v>3.5585590000000002</v>
       </c>
       <c r="X25" s="21">
         <f>code_monthly_deflated!T25</f>
@@ -28316,8 +28340,8 @@
         <v>0.86180000000000001</v>
       </c>
       <c r="L26" s="21">
-        <f>code_monthly!N26*100</f>
-        <v>161.11879999999999</v>
+        <f>code_monthly!N26*10</f>
+        <v>16.111879999999999</v>
       </c>
       <c r="M26" s="27">
         <v>94.5</v>
@@ -28351,11 +28375,12 @@
         <v>0.08</v>
       </c>
       <c r="V26">
-        <f>code_monthly!T26*100</f>
-        <v>62.066003470730912</v>
+        <f>code_monthly!T26*10</f>
+        <v>6.2066003470730911</v>
       </c>
       <c r="W26" s="4">
-        <v>48.459380000000003</v>
+        <f>code_monthly!W26/10</f>
+        <v>3.174312</v>
       </c>
       <c r="X26" s="21">
         <f>code_monthly_deflated!T26</f>
@@ -28405,8 +28430,8 @@
         <v>0.85855999999999999</v>
       </c>
       <c r="L27" s="21">
-        <f>code_monthly!N27*100</f>
-        <v>155.9795</v>
+        <f>code_monthly!N27*10</f>
+        <v>15.597950000000001</v>
       </c>
       <c r="M27" s="27">
         <v>94.6</v>
@@ -28440,11 +28465,12 @@
         <v>-0.17</v>
       </c>
       <c r="V27">
-        <f>code_monthly!T27*100</f>
-        <v>64.110988944059955</v>
+        <f>code_monthly!T27*10</f>
+        <v>6.4110988944059955</v>
       </c>
       <c r="W27" s="4">
-        <v>23.265309999999999</v>
+        <f>code_monthly!W27/10</f>
+        <v>1.7729389999999998</v>
       </c>
       <c r="X27" s="21">
         <f>code_monthly_deflated!T27</f>
@@ -28494,8 +28520,8 @@
         <v>0.83426999999999996</v>
       </c>
       <c r="L28" s="21">
-        <f>code_monthly!N28*100</f>
-        <v>154.1592</v>
+        <f>code_monthly!N28*10</f>
+        <v>15.41592</v>
       </c>
       <c r="M28" s="27">
         <v>95.1</v>
@@ -28529,11 +28555,12 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="V28">
-        <f>code_monthly!T28*100</f>
-        <v>64.868006580210576</v>
+        <f>code_monthly!T28*10</f>
+        <v>6.4868006580210578</v>
       </c>
       <c r="W28" s="4">
-        <v>21.229050000000001</v>
+        <f>code_monthly!W28/10</f>
+        <v>1.8742290000000001</v>
       </c>
       <c r="X28" s="21">
         <f>code_monthly_deflated!T28</f>
@@ -28583,8 +28610,8 @@
         <v>0.83069999999999999</v>
       </c>
       <c r="L29" s="21">
-        <f>code_monthly!N29*100</f>
-        <v>157.08449999999999</v>
+        <f>code_monthly!N29*10</f>
+        <v>15.708450000000001</v>
       </c>
       <c r="M29" s="27">
         <v>94.6</v>
@@ -28618,11 +28645,12 @@
         <v>-0.21</v>
       </c>
       <c r="V29">
-        <f>code_monthly!T29*100</f>
-        <v>63.660004647180337</v>
+        <f>code_monthly!T29*10</f>
+        <v>6.3660004647180335</v>
       </c>
       <c r="W29" s="4">
-        <v>14.248699999999999</v>
+        <f>code_monthly!W29/10</f>
+        <v>1.3002359999999999</v>
       </c>
       <c r="X29" s="21">
         <f>code_monthly_deflated!T29</f>
@@ -28672,8 +28700,8 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="L30" s="21">
-        <f>code_monthly!N30*100</f>
-        <v>159.22050000000002</v>
+        <f>code_monthly!N30*10</f>
+        <v>15.92205</v>
       </c>
       <c r="M30" s="27">
         <v>95.1</v>
@@ -28707,11 +28735,12 @@
         <v>0.3</v>
       </c>
       <c r="V30">
-        <f>code_monthly!T30*100</f>
-        <v>62.805982897930853</v>
+        <f>code_monthly!T30*10</f>
+        <v>6.2805982897930859</v>
       </c>
       <c r="W30" s="4">
-        <v>14.64052</v>
+        <f>code_monthly!W30/10</f>
+        <v>1.3270139999999999</v>
       </c>
       <c r="X30" s="21">
         <f>code_monthly_deflated!T30</f>
@@ -28761,8 +28790,8 @@
         <v>0.8347</v>
       </c>
       <c r="L31" s="21">
-        <f>code_monthly!N31*100</f>
-        <v>160.16909999999999</v>
+        <f>code_monthly!N31*10</f>
+        <v>16.016909999999999</v>
       </c>
       <c r="M31" s="27">
         <v>95.4</v>
@@ -28796,11 +28825,12 @@
         <v>-0.99</v>
       </c>
       <c r="V31">
-        <f>code_monthly!T31*100</f>
-        <v>62.434015050343675</v>
+        <f>code_monthly!T31*10</f>
+        <v>6.2434015050343667</v>
       </c>
       <c r="W31" s="4">
-        <v>20.411989999999999</v>
+        <f>code_monthly!W31/10</f>
+        <v>1.738437</v>
       </c>
       <c r="X31" s="21">
         <f>code_monthly_deflated!T31</f>
@@ -28850,8 +28880,8 @@
         <v>0.80469999999999997</v>
       </c>
       <c r="L32" s="21">
-        <f>code_monthly!N32*100</f>
-        <v>162.8134</v>
+        <f>code_monthly!N32*10</f>
+        <v>16.28134</v>
       </c>
       <c r="M32" s="27">
         <v>96</v>
@@ -28885,11 +28915,12 @@
         <v>0.16</v>
       </c>
       <c r="V32">
-        <f>code_monthly!T32*100</f>
-        <v>61.420005970024583</v>
+        <f>code_monthly!T32*10</f>
+        <v>6.1420005970024585</v>
       </c>
       <c r="W32" s="4">
-        <v>33.136090000000003</v>
+        <f>code_monthly!W32/10</f>
+        <v>2.7406199999999998</v>
       </c>
       <c r="X32" s="21">
         <f>code_monthly_deflated!T32</f>
@@ -28939,8 +28970,8 @@
         <v>0.8085</v>
       </c>
       <c r="L33" s="21">
-        <f>code_monthly!N33*100</f>
-        <v>154.82990000000001</v>
+        <f>code_monthly!N33*10</f>
+        <v>15.482990000000001</v>
       </c>
       <c r="M33" s="27">
         <v>95.9</v>
@@ -28974,11 +29005,12 @@
         <v>-0.19</v>
       </c>
       <c r="V33">
-        <f>code_monthly!T33*100</f>
-        <v>64.587008064979685</v>
+        <f>code_monthly!T33*10</f>
+        <v>6.4587008064979692</v>
       </c>
       <c r="W33" s="4">
-        <v>33.753149999999998</v>
+        <f>code_monthly!W33/10</f>
+        <v>2.685371</v>
       </c>
       <c r="X33" s="21">
         <f>code_monthly_deflated!T33</f>
@@ -29028,8 +29060,8 @@
         <v>0.80689999999999995</v>
       </c>
       <c r="L34" s="21">
-        <f>code_monthly!N34*100</f>
-        <v>157.06970000000001</v>
+        <f>code_monthly!N34*10</f>
+        <v>15.70697</v>
       </c>
       <c r="M34" s="27">
         <v>95.5</v>
@@ -29063,11 +29095,12 @@
         <v>-0.27</v>
       </c>
       <c r="V34">
-        <f>code_monthly!T34*100</f>
-        <v>63.666003054694833</v>
+        <f>code_monthly!T34*10</f>
+        <v>6.3666003054694826</v>
       </c>
       <c r="W34" s="4">
-        <v>32.587859999999999</v>
+        <f>code_monthly!W34/10</f>
+        <v>2.5954199999999998</v>
       </c>
       <c r="X34" s="21">
         <f>code_monthly_deflated!T34</f>
@@ -29117,8 +29150,8 @@
         <v>0.79235999999999995</v>
       </c>
       <c r="L35" s="21">
-        <f>code_monthly!N35*100</f>
-        <v>157.13390000000001</v>
+        <f>code_monthly!N35*10</f>
+        <v>15.71339</v>
       </c>
       <c r="M35" s="27">
         <v>95.6</v>
@@ -29152,11 +29185,12 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="V35">
-        <f>code_monthly!T35*100</f>
-        <v>63.639991115857242</v>
+        <f>code_monthly!T35*10</f>
+        <v>6.3639991115857244</v>
       </c>
       <c r="W35" s="4">
-        <v>30.952380000000002</v>
+        <f>code_monthly!W35/10</f>
+        <v>1.8624639999999999</v>
       </c>
       <c r="X35" s="21">
         <f>code_monthly_deflated!T35</f>
@@ -29206,8 +29240,8 @@
         <v>0.79249999999999998</v>
       </c>
       <c r="L36" s="21">
-        <f>code_monthly!N36*100</f>
-        <v>157.90309999999999</v>
+        <f>code_monthly!N36*10</f>
+        <v>15.790310000000002</v>
       </c>
       <c r="M36" s="27">
         <v>96.1</v>
@@ -29241,11 +29275,12 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="V36">
-        <f>code_monthly!T36*100</f>
-        <v>63.329978955447984</v>
+        <f>code_monthly!T36*10</f>
+        <v>6.3329978955447981</v>
       </c>
       <c r="W36" s="4">
-        <v>103.16459999999999</v>
+        <f>code_monthly!W36/10</f>
+        <v>5.207668</v>
       </c>
       <c r="X36" s="21">
         <f>code_monthly_deflated!T36</f>
@@ -29295,8 +29330,8 @@
         <v>0.79530000000000001</v>
       </c>
       <c r="L37" s="21">
-        <f>code_monthly!N37*100</f>
-        <v>161.45179999999999</v>
+        <f>code_monthly!N37*10</f>
+        <v>16.14518</v>
       </c>
       <c r="M37" s="27">
         <v>96.5</v>
@@ -29330,11 +29365,12 @@
         <v>0.21</v>
       </c>
       <c r="V37">
-        <f>code_monthly!T37*100</f>
-        <v>61.937990161769655</v>
+        <f>code_monthly!T37*10</f>
+        <v>6.1937990161769649</v>
       </c>
       <c r="W37" s="4">
-        <v>21.785710000000002</v>
+        <f>code_monthly!W37/10</f>
+        <v>1.71831</v>
       </c>
       <c r="X37" s="21">
         <f>code_monthly_deflated!T37</f>
@@ -29384,8 +29420,8 @@
         <v>0.80049999999999999</v>
       </c>
       <c r="L38" s="21">
-        <f>code_monthly!N38*100</f>
-        <v>160.74590000000001</v>
+        <f>code_monthly!N38*10</f>
+        <v>16.074590000000001</v>
       </c>
       <c r="M38" s="27">
         <v>97</v>
@@ -29419,11 +29455,12 @@
         <v>-0.13</v>
       </c>
       <c r="V38">
-        <f>code_monthly!T38*100</f>
-        <v>62.209984826984702</v>
+        <f>code_monthly!T38*10</f>
+        <v>6.2209984826984694</v>
       </c>
       <c r="W38" s="4">
-        <v>7.4898790000000002</v>
+        <f>code_monthly!W38/10</f>
+        <v>0.65836300000000003</v>
       </c>
       <c r="X38" s="21">
         <f>code_monthly_deflated!T38</f>
@@ -29473,8 +29510,8 @@
         <v>0.81096000000000001</v>
       </c>
       <c r="L39" s="21">
-        <f>code_monthly!N39*100</f>
-        <v>160.41069999999999</v>
+        <f>code_monthly!N39*10</f>
+        <v>16.041069999999998</v>
       </c>
       <c r="M39" s="27">
         <v>97.2</v>
@@ -29508,11 +29545,12 @@
         <v>-0.03</v>
       </c>
       <c r="V39">
-        <f>code_monthly!T39*100</f>
-        <v>62.339981061113761</v>
+        <f>code_monthly!T39*10</f>
+        <v>6.2339981061113754</v>
       </c>
       <c r="W39" s="4">
-        <v>11.39818</v>
+        <f>code_monthly!W39/10</f>
+        <v>1.0474859999999999</v>
       </c>
       <c r="X39" s="21">
         <f>code_monthly_deflated!T39</f>
@@ -29562,8 +29600,8 @@
         <v>0.81330000000000002</v>
       </c>
       <c r="L40" s="21">
-        <f>code_monthly!N40*100</f>
-        <v>161.6292</v>
+        <f>code_monthly!N40*10</f>
+        <v>16.16292</v>
       </c>
       <c r="M40" s="27">
         <v>97.6</v>
@@ -29597,11 +29635,12 @@
         <v>0.02</v>
       </c>
       <c r="V40">
-        <f>code_monthly!T40*100</f>
-        <v>61.870008637053211</v>
+        <f>code_monthly!T40*10</f>
+        <v>6.1870008637053209</v>
       </c>
       <c r="W40" s="4">
-        <v>14.678900000000001</v>
+        <f>code_monthly!W40/10</f>
+        <v>1.3510249999999999</v>
       </c>
       <c r="X40" s="21">
         <f>code_monthly_deflated!T40</f>
@@ -29651,8 +29690,8 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="L41" s="21">
-        <f>code_monthly!N41*100</f>
-        <v>157.97790000000001</v>
+        <f>code_monthly!N41*10</f>
+        <v>15.797790000000001</v>
       </c>
       <c r="M41" s="27">
         <v>97.1</v>
@@ -29686,11 +29725,12 @@
         <v>0.44</v>
       </c>
       <c r="V41">
-        <f>code_monthly!T41*100</f>
-        <v>63.299993226900718</v>
+        <f>code_monthly!T41*10</f>
+        <v>6.3299993226900719</v>
       </c>
       <c r="W41" s="4">
-        <v>7.1516650000000004</v>
+        <f>code_monthly!W41/10</f>
+        <v>0.65834280000000001</v>
       </c>
       <c r="X41" s="21">
         <f>code_monthly_deflated!T41</f>
@@ -29740,8 +29780,8 @@
         <v>0.86570000000000003</v>
       </c>
       <c r="L42" s="21">
-        <f>code_monthly!N42*100</f>
-        <v>151.67600000000002</v>
+        <f>code_monthly!N42*10</f>
+        <v>15.1676</v>
       </c>
       <c r="M42" s="27">
         <v>97.8</v>
@@ -29775,11 +29815,12 @@
         <v>0.82</v>
       </c>
       <c r="V42">
-        <f>code_monthly!T42*100</f>
-        <v>65.930008702761143</v>
+        <f>code_monthly!T42*10</f>
+        <v>6.5930008702761143</v>
       </c>
       <c r="W42" s="4">
-        <v>4.4191919999999998</v>
+        <f>code_monthly!W42/10</f>
+        <v>0.41322310000000001</v>
       </c>
       <c r="X42" s="21">
         <f>code_monthly_deflated!T42</f>
@@ -29829,8 +29870,8 @@
         <v>0.84260000000000002</v>
       </c>
       <c r="L43" s="21">
-        <f>code_monthly!N43*100</f>
-        <v>151.97110000000001</v>
+        <f>code_monthly!N43*10</f>
+        <v>15.19711</v>
       </c>
       <c r="M43" s="27">
         <v>98.1</v>
@@ -29864,11 +29905,12 @@
         <v>0.42</v>
       </c>
       <c r="V43">
-        <f>code_monthly!T43*100</f>
-        <v>65.801984719463107</v>
+        <f>code_monthly!T43*10</f>
+        <v>6.5801984719463107</v>
       </c>
       <c r="W43" s="4">
-        <v>3.5671819999999999</v>
+        <f>code_monthly!W43/10</f>
+        <v>0.33296340000000002</v>
       </c>
       <c r="X43" s="21">
         <f>code_monthly_deflated!T43</f>
@@ -29918,8 +29960,8 @@
         <v>0.84238999999999997</v>
       </c>
       <c r="L44" s="21">
-        <f>code_monthly!N44*100</f>
-        <v>154.9427</v>
+        <f>code_monthly!N44*10</f>
+        <v>15.49427</v>
       </c>
       <c r="M44" s="27">
         <v>98.3</v>
@@ -29953,11 +29995,12 @@
         <v>-0.56999999999999995</v>
       </c>
       <c r="V44">
-        <f>code_monthly!T44*100</f>
-        <v>64.539988008470232</v>
+        <f>code_monthly!T44*10</f>
+        <v>6.4539988008470228</v>
       </c>
       <c r="W44" s="4">
-        <v>20.588239999999999</v>
+        <f>code_monthly!W44/10</f>
+        <v>1.7920000000000003</v>
       </c>
       <c r="X44" s="21">
         <f>code_monthly_deflated!T44</f>
@@ -30007,8 +30050,8 @@
         <v>0.85489999999999999</v>
       </c>
       <c r="L45" s="21">
-        <f>code_monthly!N45*100</f>
-        <v>152.29050000000001</v>
+        <f>code_monthly!N45*10</f>
+        <v>15.229049999999999</v>
       </c>
       <c r="M45" s="27">
         <v>98.5</v>
@@ -30042,11 +30085,12 @@
         <v>-0.37</v>
       </c>
       <c r="V45">
-        <f>code_monthly!T45*100</f>
-        <v>65.663977726778754</v>
+        <f>code_monthly!T45*10</f>
+        <v>6.5663977726778757</v>
       </c>
       <c r="W45" s="4">
-        <v>35.356200000000001</v>
+        <f>code_monthly!W45/10</f>
+        <v>2.803347</v>
       </c>
       <c r="X45" s="21">
         <f>code_monthly_deflated!T45</f>
@@ -30096,8 +30140,8 @@
         <v>0.85560000000000003</v>
       </c>
       <c r="L46" s="21">
-        <f>code_monthly!N46*100</f>
-        <v>152.0427</v>
+        <f>code_monthly!N46*10</f>
+        <v>15.204269999999999</v>
       </c>
       <c r="M46" s="27">
         <v>98.3</v>
@@ -30131,11 +30175,12 @@
         <v>-0.72</v>
       </c>
       <c r="V46">
-        <f>code_monthly!T46*100</f>
-        <v>65.770997226437046</v>
+        <f>code_monthly!T46*10</f>
+        <v>6.5770997226437045</v>
       </c>
       <c r="W46" s="4">
-        <v>51.428570000000001</v>
+        <f>code_monthly!W46/10</f>
+        <v>3.7305700000000002</v>
       </c>
       <c r="X46" s="21">
         <f>code_monthly_deflated!T46</f>
@@ -30185,8 +30230,8 @@
         <v>0.86860000000000004</v>
       </c>
       <c r="L47" s="21">
-        <f>code_monthly!N47*100</f>
-        <v>152.4204</v>
+        <f>code_monthly!N47*10</f>
+        <v>15.242039999999999</v>
       </c>
       <c r="M47" s="27">
         <v>98.3</v>
@@ -30220,11 +30265,12 @@
         <v>-0.18</v>
       </c>
       <c r="V47">
-        <f>code_monthly!T47*100</f>
-        <v>65.608015724929217</v>
+        <f>code_monthly!T47*10</f>
+        <v>6.5608015724929212</v>
       </c>
       <c r="W47" s="4">
-        <v>34.825870000000002</v>
+        <f>code_monthly!W47/10</f>
+        <v>2.3102309999999999</v>
       </c>
       <c r="X47" s="21">
         <f>code_monthly_deflated!T47</f>
@@ -30274,8 +30320,8 @@
         <v>0.8508</v>
       </c>
       <c r="L48" s="21">
-        <f>code_monthly!N48*100</f>
-        <v>155.11090000000002</v>
+        <f>code_monthly!N48*10</f>
+        <v>15.511090000000001</v>
       </c>
       <c r="M48" s="27">
         <v>98.7</v>
@@ -30309,11 +30355,12 @@
         <v>-0.25</v>
       </c>
       <c r="V48">
-        <f>code_monthly!T48*100</f>
-        <v>64.470001785819036</v>
+        <f>code_monthly!T48*10</f>
+        <v>6.447000178581904</v>
       </c>
       <c r="W48" s="4">
-        <v>22.831050000000001</v>
+        <f>code_monthly!W48/10</f>
+        <v>1.77305</v>
       </c>
       <c r="X48" s="21">
         <f>code_monthly_deflated!T48</f>
@@ -30363,8 +30410,8 @@
         <v>0.84602999999999995</v>
       </c>
       <c r="L49" s="21">
-        <f>code_monthly!N49*100</f>
-        <v>161.6893</v>
+        <f>code_monthly!N49*10</f>
+        <v>16.16893</v>
       </c>
       <c r="M49" s="27">
         <v>99.1</v>
@@ -30398,11 +30445,12 @@
         <v>-0.06</v>
       </c>
       <c r="V49">
-        <f>code_monthly!T49*100</f>
-        <v>61.847011521479779</v>
+        <f>code_monthly!T49*10</f>
+        <v>6.1847011521479782</v>
       </c>
       <c r="W49" s="4">
-        <v>12.16216</v>
+        <f>code_monthly!W49/10</f>
+        <v>0.99447510000000006</v>
       </c>
       <c r="X49" s="21">
         <f>code_monthly_deflated!T49</f>
@@ -30452,8 +30500,8 @@
         <v>0.84730000000000005</v>
       </c>
       <c r="L50" s="21">
-        <f>code_monthly!N50*100</f>
-        <v>160.26149999999998</v>
+        <f>code_monthly!N50*10</f>
+        <v>16.026149999999998</v>
       </c>
       <c r="M50" s="27">
         <v>99.1</v>
@@ -30487,11 +30535,12 @@
         <v>-0.22</v>
       </c>
       <c r="V50">
-        <f>code_monthly!T50*100</f>
-        <v>62.398018238940736</v>
+        <f>code_monthly!T50*10</f>
+        <v>6.2398018238940729</v>
       </c>
       <c r="W50" s="4">
-        <v>15.15152</v>
+        <f>code_monthly!W50/10</f>
+        <v>1.3043480000000001</v>
       </c>
       <c r="X50" s="21">
         <f>code_monthly_deflated!T50</f>
@@ -30541,8 +30590,8 @@
         <v>0.82933000000000001</v>
       </c>
       <c r="L51" s="21">
-        <f>code_monthly!N51*100</f>
-        <v>163.6902</v>
+        <f>code_monthly!N51*10</f>
+        <v>16.369019999999999</v>
       </c>
       <c r="M51" s="27">
         <v>99.2</v>
@@ -30576,11 +30625,12 @@
         <v>-0.02</v>
       </c>
       <c r="V51">
-        <f>code_monthly!T51*100</f>
-        <v>61.091012168107802</v>
+        <f>code_monthly!T51*10</f>
+        <v>6.1091012168107808</v>
       </c>
       <c r="W51" s="4">
-        <v>14.56456</v>
+        <f>code_monthly!W51/10</f>
+        <v>1.3472219999999999</v>
       </c>
       <c r="X51" s="21">
         <f>code_monthly_deflated!T51</f>
@@ -30630,8 +30680,8 @@
         <v>0.82830000000000004</v>
       </c>
       <c r="L52" s="21">
-        <f>code_monthly!N52*100</f>
-        <v>164.9512</v>
+        <f>code_monthly!N52*10</f>
+        <v>16.49512</v>
       </c>
       <c r="M52" s="27">
         <v>99.6</v>
@@ -30665,11 +30715,12 @@
         <v>-0.02</v>
       </c>
       <c r="V52">
-        <f>code_monthly!T52*100</f>
-        <v>60.623990610556334</v>
+        <f>code_monthly!T52*10</f>
+        <v>6.0623990610556335</v>
       </c>
       <c r="W52" s="4">
-        <v>3.8297870000000001</v>
+        <f>code_monthly!W52/10</f>
+        <v>0.35856569999999999</v>
       </c>
       <c r="X52" s="21">
         <f>code_monthly_deflated!T52</f>
@@ -30719,8 +30770,8 @@
         <v>0.82069999999999999</v>
       </c>
       <c r="L53" s="21">
-        <f>code_monthly!N53*100</f>
-        <v>164.9838</v>
+        <f>code_monthly!N53*10</f>
+        <v>16.498379999999997</v>
       </c>
       <c r="M53" s="27">
         <v>99</v>
@@ -30754,11 +30805,12 @@
         <v>-0.02</v>
       </c>
       <c r="V53">
-        <f>code_monthly!T53*100</f>
-        <v>60.612011603563509</v>
+        <f>code_monthly!T53*10</f>
+        <v>6.0612011603563509</v>
       </c>
       <c r="W53" s="4">
-        <v>3.2301479999999998</v>
+        <f>code_monthly!W53/10</f>
+        <v>0.30112919999999999</v>
       </c>
       <c r="X53" s="21">
         <f>code_monthly_deflated!T53</f>
@@ -30808,8 +30860,8 @@
         <v>0.82333999999999996</v>
       </c>
       <c r="L54" s="21">
-        <f>code_monthly!N54*100</f>
-        <v>166.91980000000001</v>
+        <f>code_monthly!N54*10</f>
+        <v>16.691980000000001</v>
       </c>
       <c r="M54" s="27">
         <v>99.5</v>
@@ -30843,11 +30895,12 @@
         <v>-0.01</v>
       </c>
       <c r="V54">
-        <f>code_monthly!T54*100</f>
-        <v>59.909010195315361</v>
+        <f>code_monthly!T54*10</f>
+        <v>5.9909010195315364</v>
       </c>
       <c r="W54" s="4">
-        <v>4.0662649999999996</v>
+        <f>code_monthly!W54/10</f>
+        <v>0.3797468</v>
       </c>
       <c r="X54" s="21">
         <f>code_monthly_deflated!T54</f>
@@ -30897,8 +30950,8 @@
         <v>0.82609999999999995</v>
       </c>
       <c r="L55" s="21">
-        <f>code_monthly!N55*100</f>
-        <v>166.4392</v>
+        <f>code_monthly!N55*10</f>
+        <v>16.643920000000001</v>
       </c>
       <c r="M55" s="27">
         <v>99.7</v>
@@ -30932,11 +30985,12 @@
         <v>-0.11</v>
       </c>
       <c r="V55">
-        <f>code_monthly!T55*100</f>
-        <v>60.081999913481923</v>
+        <f>code_monthly!T55*10</f>
+        <v>6.0081999913481923</v>
       </c>
       <c r="W55" s="4">
-        <v>7.1672349999999998</v>
+        <f>code_monthly!W55/10</f>
+        <v>0.65625</v>
       </c>
       <c r="X55" s="21">
         <f>code_monthly_deflated!T55</f>
@@ -30986,8 +31040,8 @@
         <v>0.82201000000000002</v>
       </c>
       <c r="L56" s="21">
-        <f>code_monthly!N56*100</f>
-        <v>168.24250000000001</v>
+        <f>code_monthly!N56*10</f>
+        <v>16.824249999999999</v>
       </c>
       <c r="M56" s="27">
         <v>100.1</v>
@@ -31021,11 +31075,12 @@
         <v>-0.45</v>
       </c>
       <c r="V56">
-        <f>code_monthly!T56*100</f>
-        <v>59.438013581586105</v>
+        <f>code_monthly!T56*10</f>
+        <v>5.94380135815861</v>
       </c>
       <c r="W56" s="4">
-        <v>28.34225</v>
+        <f>code_monthly!W56/10</f>
+        <v>2.2844830000000003</v>
       </c>
       <c r="X56" s="21">
         <f>code_monthly_deflated!T56</f>
@@ -31075,8 +31130,8 @@
         <v>0.81330000000000002</v>
       </c>
       <c r="L57" s="21">
-        <f>code_monthly!N57*100</f>
-        <v>167.59120000000001</v>
+        <f>code_monthly!N57*10</f>
+        <v>16.759119999999999</v>
       </c>
       <c r="M57" s="27">
         <v>100</v>
@@ -31110,11 +31165,12 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="V57">
-        <f>code_monthly!T57*100</f>
-        <v>59.669004100453961</v>
+        <f>code_monthly!T57*10</f>
+        <v>5.9669004100453957</v>
       </c>
       <c r="W57" s="4">
-        <v>49.140889999999999</v>
+        <f>code_monthly!W57/10</f>
+        <v>3.3966749999999997</v>
       </c>
       <c r="X57" s="21">
         <f>code_monthly_deflated!T57</f>
@@ -31164,8 +31220,8 @@
         <v>0.79200000000000004</v>
       </c>
       <c r="L58" s="21">
-        <f>code_monthly!N58*100</f>
-        <v>170.34030000000001</v>
+        <f>code_monthly!N58*10</f>
+        <v>17.034030000000001</v>
       </c>
       <c r="M58" s="27">
         <v>100.2</v>
@@ -31199,11 +31255,12 @@
         <v>-0.31</v>
       </c>
       <c r="V58">
-        <f>code_monthly!T58*100</f>
-        <v>58.706013785346158</v>
+        <f>code_monthly!T58*10</f>
+        <v>5.8706013785346158</v>
       </c>
       <c r="W58" s="4">
-        <v>47.50958</v>
+        <f>code_monthly!W58/10</f>
+        <v>3.4540390000000003</v>
       </c>
       <c r="X58" s="21">
         <f>code_monthly_deflated!T58</f>
@@ -31253,8 +31310,8 @@
         <v>0.79808000000000001</v>
       </c>
       <c r="L59" s="21">
-        <f>code_monthly!N59*100</f>
-        <v>169.10169999999999</v>
+        <f>code_monthly!N59*10</f>
+        <v>16.910170000000001</v>
       </c>
       <c r="M59" s="27">
         <v>99.9</v>
@@ -31288,11 +31345,12 @@
         <v>0.05</v>
       </c>
       <c r="V59">
-        <f>code_monthly!T59*100</f>
-        <v>59.136011051337746</v>
+        <f>code_monthly!T59*10</f>
+        <v>5.9136011051337745</v>
       </c>
       <c r="W59" s="4">
-        <v>58.695650000000001</v>
+        <f>code_monthly!W59/10</f>
+        <v>3.7604460000000004</v>
       </c>
       <c r="X59" s="21">
         <f>code_monthly_deflated!T59</f>
@@ -31342,8 +31400,8 @@
         <v>0.79159999999999997</v>
       </c>
       <c r="L60" s="21">
-        <f>code_monthly!N60*100</f>
-        <v>165.90899999999999</v>
+        <f>code_monthly!N60*10</f>
+        <v>16.590899999999998</v>
       </c>
       <c r="M60" s="27">
         <v>100.2</v>
@@ -31377,11 +31435,12 @@
         <v>0.19</v>
       </c>
       <c r="V60">
-        <f>code_monthly!T60*100</f>
-        <v>60.274005629592132</v>
+        <f>code_monthly!T60*10</f>
+        <v>6.0274005629592136</v>
       </c>
       <c r="W60" s="4">
-        <v>48.484850000000002</v>
+        <f>code_monthly!W60/10</f>
+        <v>3.545706</v>
       </c>
       <c r="X60" s="21">
         <f>code_monthly_deflated!T60</f>
@@ -31431,8 +31490,8 @@
         <v>0.78369999999999995</v>
       </c>
       <c r="L61" s="21">
-        <f>code_monthly!N61*100</f>
-        <v>162.422</v>
+        <f>code_monthly!N61*10</f>
+        <v>16.2422</v>
       </c>
       <c r="M61" s="27">
         <v>100.3</v>
@@ -31466,11 +31525,12 @@
         <v>-0.01</v>
       </c>
       <c r="V61">
-        <f>code_monthly!T61*100</f>
-        <v>61.568014185270471</v>
+        <f>code_monthly!T61*10</f>
+        <v>6.1568014185270474</v>
       </c>
       <c r="W61" s="4">
-        <v>30.76923</v>
+        <f>code_monthly!W61/10</f>
+        <v>2.1169920000000002</v>
       </c>
       <c r="X61" s="21">
         <f>code_monthly_deflated!T61</f>
@@ -31520,8 +31580,8 @@
         <v>0.78269999999999995</v>
       </c>
       <c r="L62" s="21">
-        <f>code_monthly!N62*100</f>
-        <v>160.0102</v>
+        <f>code_monthly!N62*10</f>
+        <v>16.00102</v>
       </c>
       <c r="M62" s="27">
         <v>100.4</v>
@@ -31555,11 +31615,12 @@
         <v>0.04</v>
       </c>
       <c r="V62">
-        <f>code_monthly!T62*100</f>
-        <v>62.49601587898772</v>
+        <f>code_monthly!T62*10</f>
+        <v>6.2496015878987716</v>
       </c>
       <c r="W62" s="4">
-        <v>8.4615379999999991</v>
+        <f>code_monthly!W62/10</f>
+        <v>0.68041240000000003</v>
       </c>
       <c r="X62" s="21">
         <f>code_monthly_deflated!T62</f>
@@ -31609,8 +31670,8 @@
         <v>0.79649999999999999</v>
       </c>
       <c r="L63" s="21">
-        <f>code_monthly!N63*100</f>
-        <v>156.13049999999998</v>
+        <f>code_monthly!N63*10</f>
+        <v>15.613049999999999</v>
       </c>
       <c r="M63" s="27">
         <v>100.1</v>
@@ -31644,11 +31705,12 @@
         <v>0.06</v>
       </c>
       <c r="V63">
-        <f>code_monthly!T63*100</f>
-        <v>64.04898466347062</v>
+        <f>code_monthly!T63*10</f>
+        <v>6.4048984663470616</v>
       </c>
       <c r="W63" s="4">
-        <v>14.991479999999999</v>
+        <f>code_monthly!W63/10</f>
+        <v>1.370717</v>
       </c>
       <c r="X63" s="21">
         <f>code_monthly_deflated!T63</f>
@@ -31698,8 +31760,8 @@
         <v>0.78147999999999995</v>
       </c>
       <c r="L64" s="21">
-        <f>code_monthly!N64*100</f>
-        <v>155.69049999999999</v>
+        <f>code_monthly!N64*10</f>
+        <v>15.569050000000001</v>
       </c>
       <c r="M64" s="27">
         <v>100.1</v>
@@ -31733,11 +31795,12 @@
         <v>0.19</v>
       </c>
       <c r="V64">
-        <f>code_monthly!T64*100</f>
-        <v>64.229994765255427</v>
+        <f>code_monthly!T64*10</f>
+        <v>6.4229994765255425</v>
       </c>
       <c r="W64" s="4">
-        <v>12.56906</v>
+        <f>code_monthly!W64/10</f>
+        <v>1.1696659999999999</v>
       </c>
       <c r="X64" s="21">
         <f>code_monthly_deflated!T64</f>
@@ -31787,8 +31850,8 @@
         <v>0.74950000000000006</v>
       </c>
       <c r="L65" s="21">
-        <f>code_monthly!N65*100</f>
-        <v>150.69999999999999</v>
+        <f>code_monthly!N65*10</f>
+        <v>15.069999999999999</v>
       </c>
       <c r="M65" s="27">
         <v>99.3</v>
@@ -31822,11 +31885,12 @@
         <v>0.59</v>
       </c>
       <c r="V65">
-        <f>code_monthly!T65*100</f>
-        <v>66.357000663570005</v>
+        <f>code_monthly!T65*10</f>
+        <v>6.6357000663570007</v>
       </c>
       <c r="W65" s="4">
-        <v>12.28758</v>
+        <f>code_monthly!W65/10</f>
+        <v>1.1257490000000001</v>
       </c>
       <c r="X65" s="21">
         <f>code_monthly_deflated!T65</f>
@@ -31876,8 +31940,8 @@
         <v>0.72430000000000005</v>
       </c>
       <c r="L66" s="21">
-        <f>code_monthly!N66*100</f>
-        <v>154.38050000000001</v>
+        <f>code_monthly!N66*10</f>
+        <v>15.43805</v>
       </c>
       <c r="M66" s="27">
         <v>99.5</v>
@@ -31911,11 +31975,12 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="V66">
-        <f>code_monthly!T66*100</f>
-        <v>64.775020161225015</v>
+        <f>code_monthly!T66*10</f>
+        <v>6.4775020161225019</v>
       </c>
       <c r="W66" s="4">
-        <v>10.45392</v>
+        <f>code_monthly!W66/10</f>
+        <v>0.97186699999999993</v>
       </c>
       <c r="X66" s="21">
         <f>code_monthly_deflated!T66</f>
@@ -31965,8 +32030,8 @@
         <v>0.73670000000000002</v>
       </c>
       <c r="L67" s="21">
-        <f>code_monthly!N67*100</f>
-        <v>148.09110000000001</v>
+        <f>code_monthly!N67*10</f>
+        <v>14.80911</v>
       </c>
       <c r="M67" s="27">
         <v>99.7</v>
@@ -32000,11 +32065,12 @@
         <v>0.3</v>
       </c>
       <c r="V67">
-        <f>code_monthly!T67*100</f>
-        <v>67.526002575441737</v>
+        <f>code_monthly!T67*10</f>
+        <v>6.7526002575441737</v>
       </c>
       <c r="W67" s="4">
-        <v>17.823340000000002</v>
+        <f>code_monthly!W67/10</f>
+        <v>1.5782120000000002</v>
       </c>
       <c r="X67" s="21">
         <f>code_monthly_deflated!T67</f>
@@ -32054,8 +32120,8 @@
         <v>0.73839999999999995</v>
       </c>
       <c r="L68" s="21">
-        <f>code_monthly!N68*100</f>
-        <v>154.26859999999999</v>
+        <f>code_monthly!N68*10</f>
+        <v>15.42686</v>
       </c>
       <c r="M68" s="27">
         <v>99.9</v>
@@ -32089,11 +32155,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="V68">
-        <f>code_monthly!T68*100</f>
-        <v>64.82200525576819</v>
+        <f>code_monthly!T68*10</f>
+        <v>6.4822005255768191</v>
       </c>
       <c r="W68" s="4">
-        <v>22.5</v>
+        <f>code_monthly!W68/10</f>
+        <v>1.705263</v>
       </c>
       <c r="X68" s="21">
         <f>code_monthly_deflated!T68</f>
@@ -32143,8 +32210,8 @@
         <v>0.71540000000000004</v>
       </c>
       <c r="L69" s="21">
-        <f>code_monthly!N69*100</f>
-        <v>153.191</v>
+        <f>code_monthly!N69*10</f>
+        <v>15.319100000000001</v>
       </c>
       <c r="M69" s="27">
         <v>100.1</v>
@@ -32178,11 +32245,12 @@
         <v>-0.21</v>
       </c>
       <c r="V69">
-        <f>code_monthly!T69*100</f>
-        <v>65.277986304678464</v>
+        <f>code_monthly!T69*10</f>
+        <v>6.5277986304678475</v>
       </c>
       <c r="W69" s="4">
-        <v>43.812710000000003</v>
+        <f>code_monthly!W69/10</f>
+        <v>3.0607479999999998</v>
       </c>
       <c r="X69" s="21">
         <f>code_monthly_deflated!T69</f>
@@ -32232,8 +32300,8 @@
         <v>0.71</v>
       </c>
       <c r="L70" s="21">
-        <f>code_monthly!N70*100</f>
-        <v>157.3193</v>
+        <f>code_monthly!N70*10</f>
+        <v>15.73193</v>
       </c>
       <c r="M70" s="27">
         <v>100.2</v>
@@ -32267,11 +32335,12 @@
         <v>-0.4</v>
       </c>
       <c r="V70">
-        <f>code_monthly!T70*100</f>
-        <v>63.564991707946831</v>
+        <f>code_monthly!T70*10</f>
+        <v>6.3564991707946827</v>
       </c>
       <c r="W70" s="4">
-        <v>31.153849999999998</v>
+        <f>code_monthly!W70/10</f>
+        <v>2.34104</v>
       </c>
       <c r="X70" s="21">
         <f>code_monthly_deflated!T70</f>
@@ -32321,8 +32390,8 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="L71" s="21">
-        <f>code_monthly!N71*100</f>
-        <v>156.0428</v>
+        <f>code_monthly!N71*10</f>
+        <v>15.604279999999999</v>
       </c>
       <c r="M71" s="27">
         <v>100</v>
@@ -32356,11 +32425,12 @@
         <v>-0.2</v>
       </c>
       <c r="V71">
-        <f>code_monthly!T71*100</f>
-        <v>64.084981812682159</v>
+        <f>code_monthly!T71*10</f>
+        <v>6.4084981812682162</v>
       </c>
       <c r="W71" s="4">
-        <v>46.560850000000002</v>
+        <f>code_monthly!W71/10</f>
+        <v>2.7329189999999999</v>
       </c>
       <c r="X71" s="21">
         <f>code_monthly_deflated!T71</f>
@@ -32410,8 +32480,8 @@
         <v>0.72889999999999999</v>
       </c>
       <c r="L72" s="21">
-        <f>code_monthly!N72*100</f>
-        <v>154.1806</v>
+        <f>code_monthly!N72*10</f>
+        <v>15.418060000000001</v>
       </c>
       <c r="M72" s="27">
         <v>100.3</v>
@@ -32445,11 +32515,12 @@
         <v>-0.61</v>
       </c>
       <c r="V72">
-        <f>code_monthly!T72*100</f>
-        <v>64.85900301334928</v>
+        <f>code_monthly!T72*10</f>
+        <v>6.4859003013349277</v>
       </c>
       <c r="W72" s="4">
-        <v>87.412589999999994</v>
+        <f>code_monthly!W72/10</f>
+        <v>4.0322580000000006</v>
       </c>
       <c r="X72" s="21">
         <f>code_monthly_deflated!T72</f>
@@ -32499,8 +32570,8 @@
         <v>0.73929999999999996</v>
       </c>
       <c r="L73" s="21">
-        <f>code_monthly!N73*100</f>
-        <v>151.5795</v>
+        <f>code_monthly!N73*10</f>
+        <v>15.15795</v>
       </c>
       <c r="M73" s="27">
         <v>100.2</v>
@@ -32534,11 +32605,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V73">
-        <f>code_monthly!T73*100</f>
-        <v>65.971981699372279</v>
+        <f>code_monthly!T73*10</f>
+        <v>6.5971981699372275</v>
       </c>
       <c r="W73" s="4">
-        <v>41.923079999999999</v>
+        <f>code_monthly!W73/10</f>
+        <v>2.6456309999999998</v>
       </c>
       <c r="X73" s="21">
         <f>code_monthly_deflated!T73</f>
@@ -32588,8 +32660,8 @@
         <v>0.71382699999999999</v>
       </c>
       <c r="L74" s="21">
-        <f>code_monthly!N74*100</f>
-        <v>154.29</v>
+        <f>code_monthly!N74*10</f>
+        <v>15.428999999999998</v>
       </c>
       <c r="M74" s="27">
         <v>100.3</v>
@@ -32623,11 +32695,12 @@
         <v>-0.19</v>
       </c>
       <c r="V74">
-        <f>code_monthly!T74*100</f>
-        <v>64.81301445330223</v>
+        <f>code_monthly!T74*10</f>
+        <v>6.4813014453302227</v>
       </c>
       <c r="W74" s="4">
-        <v>36.675460000000001</v>
+        <f>code_monthly!W74/10</f>
+        <v>2.6885880000000002</v>
       </c>
       <c r="X74" s="21">
         <f>code_monthly_deflated!T74</f>
@@ -32677,8 +32750,8 @@
         <v>0.72082500000000005</v>
       </c>
       <c r="L75" s="21">
-        <f>code_monthly!N75*100</f>
-        <v>150.3895</v>
+        <f>code_monthly!N75*10</f>
+        <v>15.03895</v>
       </c>
       <c r="M75" s="27">
         <v>100.3</v>
@@ -32712,11 +32785,12 @@
         <v>-0.1</v>
       </c>
       <c r="V75">
-        <f>code_monthly!T75*100</f>
-        <v>66.494003903198035</v>
+        <f>code_monthly!T75*10</f>
+        <v>6.6494003903198031</v>
       </c>
       <c r="W75" s="4">
-        <v>25.246549999999999</v>
+        <f>code_monthly!W75/10</f>
+        <v>2.0349759999999999</v>
       </c>
       <c r="X75" s="21">
         <f>code_monthly_deflated!T75</f>
@@ -32766,8 +32840,8 @@
         <v>0.73640000000000005</v>
       </c>
       <c r="L76" s="21">
-        <f>code_monthly!N76*100</f>
-        <v>148.19210000000001</v>
+        <f>code_monthly!N76*10</f>
+        <v>14.81921</v>
       </c>
       <c r="M76" s="27">
         <v>100.3</v>
@@ -32801,11 +32875,12 @@
         <v>-0.34</v>
       </c>
       <c r="V76">
-        <f>code_monthly!T76*100</f>
-        <v>67.4799803768217</v>
+        <f>code_monthly!T76*10</f>
+        <v>6.7479980376821702</v>
       </c>
       <c r="W76" s="4">
-        <v>13.893969999999999</v>
+        <f>code_monthly!W76/10</f>
+        <v>1.1782949999999999</v>
       </c>
       <c r="X76" s="21">
         <f>code_monthly_deflated!T76</f>
@@ -32855,8 +32930,8 @@
         <v>0.75990000000000002</v>
       </c>
       <c r="L77" s="21">
-        <f>code_monthly!N77*100</f>
-        <v>142.46030000000002</v>
+        <f>code_monthly!N77*10</f>
+        <v>14.246030000000001</v>
       </c>
       <c r="M77" s="27">
         <v>99.5</v>
@@ -32890,11 +32965,12 @@
         <v>0.59</v>
       </c>
       <c r="V77">
-        <f>code_monthly!T77*100</f>
-        <v>70.194994675709651</v>
+        <f>code_monthly!T77*10</f>
+        <v>7.0194994675709657</v>
       </c>
       <c r="W77" s="4">
-        <v>9.8609360000000006</v>
+        <f>code_monthly!W77/10</f>
+        <v>0.91441970000000006</v>
       </c>
       <c r="X77" s="21">
         <f>code_monthly_deflated!T77</f>
@@ -32944,8 +33020,8 @@
         <v>0.77344999999999997</v>
       </c>
       <c r="L78" s="21">
-        <f>code_monthly!N78*100</f>
-        <v>138.61939999999998</v>
+        <f>code_monthly!N78*10</f>
+        <v>13.861939999999999</v>
       </c>
       <c r="M78" s="27">
         <v>99.8</v>
@@ -32979,11 +33055,12 @@
         <v>0.31</v>
       </c>
       <c r="V78">
-        <f>code_monthly!T78*100</f>
-        <v>72.13997463558492</v>
+        <f>code_monthly!T78*10</f>
+        <v>7.213997463558492</v>
       </c>
       <c r="W78" s="4">
-        <v>16.12903</v>
+        <f>code_monthly!W78/10</f>
+        <v>1.5037590000000001</v>
       </c>
       <c r="X78" s="21">
         <f>code_monthly_deflated!T78</f>
@@ -33033,8 +33110,8 @@
         <v>0.80071000000000003</v>
       </c>
       <c r="L79" s="21">
-        <f>code_monthly!N79*100</f>
-        <v>143.74009999999998</v>
+        <f>code_monthly!N79*10</f>
+        <v>14.374009999999998</v>
       </c>
       <c r="M79" s="27">
         <v>100.2</v>
@@ -33068,11 +33145,12 @@
         <v>0.32</v>
       </c>
       <c r="V79">
-        <f>code_monthly!T79*100</f>
-        <v>69.570008647552072</v>
+        <f>code_monthly!T79*10</f>
+        <v>6.9570008647552068</v>
       </c>
       <c r="W79" s="4">
-        <v>13.61816</v>
+        <f>code_monthly!W79/10</f>
+        <v>1.263941</v>
       </c>
       <c r="X79" s="21">
         <f>code_monthly_deflated!T79</f>
@@ -33122,8 +33200,8 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="L80" s="21">
-        <f>code_monthly!N80*100</f>
-        <v>146.17099999999999</v>
+        <f>code_monthly!N80*10</f>
+        <v>14.617100000000001</v>
       </c>
       <c r="M80" s="27">
         <v>100.2</v>
@@ -33157,11 +33235,12 @@
         <v>0.37</v>
       </c>
       <c r="V80">
-        <f>code_monthly!T80*100</f>
-        <v>68.41302310307789</v>
+        <f>code_monthly!T80*10</f>
+        <v>6.8413023103077899</v>
       </c>
       <c r="W80" s="4">
-        <v>17.96284</v>
+        <f>code_monthly!W80/10</f>
+        <v>1.574308</v>
       </c>
       <c r="X80" s="21">
         <f>code_monthly_deflated!T80</f>
@@ -33211,8 +33290,8 @@
         <v>0.78890000000000005</v>
       </c>
       <c r="L81" s="21">
-        <f>code_monthly!N81*100</f>
-        <v>146.35069999999999</v>
+        <f>code_monthly!N81*10</f>
+        <v>14.635069999999999</v>
       </c>
       <c r="M81" s="27">
         <v>100.4</v>
@@ -33246,11 +33325,12 @@
         <v>-0.17</v>
       </c>
       <c r="V81">
-        <f>code_monthly!T81*100</f>
-        <v>68.329020633314357</v>
+        <f>code_monthly!T81*10</f>
+        <v>6.8329020633314368</v>
       </c>
       <c r="W81" s="4">
-        <v>35.883450000000003</v>
+        <f>code_monthly!W81/10</f>
+        <v>2.6810870000000002</v>
       </c>
       <c r="X81" s="21">
         <f>code_monthly_deflated!T81</f>
@@ -33300,8 +33380,8 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="L82" s="21">
-        <f>code_monthly!N82*100</f>
-        <v>134.6584</v>
+        <f>code_monthly!N82*10</f>
+        <v>13.46584</v>
       </c>
       <c r="M82" s="27">
         <v>100.6</v>
@@ -33335,11 +33415,12 @@
         <v>-0.22</v>
       </c>
       <c r="V82">
-        <f>code_monthly!T82*100</f>
-        <v>74.261984399042319</v>
+        <f>code_monthly!T82*10</f>
+        <v>7.4261984399042316</v>
       </c>
       <c r="W82" s="4">
-        <v>10.5913</v>
+        <f>code_monthly!W82/10</f>
+        <v>0.98644739999999997</v>
       </c>
       <c r="X82" s="21">
         <f>code_monthly_deflated!T82</f>
@@ -33389,8 +33470,8 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="L83" s="21">
-        <f>code_monthly!N83*100</f>
-        <v>132.16329999999999</v>
+        <f>code_monthly!N83*10</f>
+        <v>13.216330000000001</v>
       </c>
       <c r="M83" s="27">
         <v>100.6</v>
@@ -33424,11 +33505,12 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <f>code_monthly!T83*100</f>
-        <v>75.663970254980001</v>
+        <f>code_monthly!T83*10</f>
+        <v>7.5663970254980004</v>
       </c>
       <c r="W83" s="4">
-        <v>45.706020000000002</v>
+        <f>code_monthly!W83/10</f>
+        <v>2.5754809999999999</v>
       </c>
       <c r="X83" s="21">
         <f>code_monthly_deflated!T83</f>
@@ -33478,8 +33560,8 @@
         <v>0.83918999999999999</v>
       </c>
       <c r="L84" s="21">
-        <f>code_monthly!N84*100</f>
-        <v>130.90719999999999</v>
+        <f>code_monthly!N84*10</f>
+        <v>13.090720000000001</v>
       </c>
       <c r="M84" s="27">
         <v>100.9</v>
@@ -33513,11 +33595,12 @@
         <v>0.39</v>
       </c>
       <c r="V84">
-        <f>code_monthly!T84*100</f>
-        <v>76.389992299888775</v>
+        <f>code_monthly!T84*10</f>
+        <v>7.6389992299888778</v>
       </c>
       <c r="W84" s="4">
-        <v>25.864149999999999</v>
+        <f>code_monthly!W84/10</f>
+        <v>1.76132</v>
       </c>
       <c r="X84" s="21">
         <f>code_monthly_deflated!T84</f>
@@ -33567,8 +33650,8 @@
         <v>0.86861999999999995</v>
       </c>
       <c r="L85" s="21">
-        <f>code_monthly!N85*100</f>
-        <v>129.6344</v>
+        <f>code_monthly!N85*10</f>
+        <v>12.963439999999999</v>
       </c>
       <c r="M85" s="27">
         <v>101.1</v>
@@ -33602,11 +33685,12 @@
         <v>-0.04</v>
       </c>
       <c r="V85">
-        <f>code_monthly!T85*100</f>
-        <v>77.140018390180387</v>
+        <f>code_monthly!T85*10</f>
+        <v>7.7140018390180387</v>
       </c>
       <c r="W85" s="4">
-        <v>61.290500000000002</v>
+        <f>code_monthly!W85/10</f>
+        <v>3.108867</v>
       </c>
       <c r="X85" s="21">
         <f>code_monthly_deflated!T85</f>
@@ -33656,8 +33740,8 @@
         <v>0.88866000000000001</v>
       </c>
       <c r="L86" s="21">
-        <f>code_monthly!N86*100</f>
-        <v>122.15979999999999</v>
+        <f>code_monthly!N86*10</f>
+        <v>12.21598</v>
       </c>
       <c r="M86" s="27">
         <v>101.2</v>
@@ -33691,11 +33775,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="V86">
-        <f>code_monthly!T86*100</f>
-        <v>81.859989947593235</v>
+        <f>code_monthly!T86*10</f>
+        <v>8.1859989947593235</v>
       </c>
       <c r="W86" s="4">
-        <v>3.3605779999999998</v>
+        <f>code_monthly!W86/10</f>
+        <v>0.29768099999999997</v>
       </c>
       <c r="X86" s="21">
         <f>code_monthly_deflated!T86</f>
@@ -33745,8 +33830,8 @@
         <v>0.83506999999999998</v>
       </c>
       <c r="L87" s="21">
-        <f>code_monthly!N87*100</f>
-        <v>124.92190000000001</v>
+        <f>code_monthly!N87*10</f>
+        <v>12.492190000000001</v>
       </c>
       <c r="M87" s="27">
         <v>101.4</v>
@@ -33780,11 +33865,12 @@
         <v>0.04</v>
       </c>
       <c r="V87">
-        <f>code_monthly!T87*100</f>
-        <v>80.050015249527888</v>
+        <f>code_monthly!T87*10</f>
+        <v>8.0050015249527888</v>
       </c>
       <c r="W87" s="4">
-        <v>3.633238</v>
+        <f>code_monthly!W87/10</f>
+        <v>0.34579260000000001</v>
       </c>
       <c r="X87" s="21">
         <f>code_monthly_deflated!T87</f>
@@ -33834,8 +33920,8 @@
         <v>0.85143000000000002</v>
       </c>
       <c r="L88" s="21">
-        <f>code_monthly!N88*100</f>
-        <v>123.4004</v>
+        <f>code_monthly!N88*10</f>
+        <v>12.340040000000002</v>
       </c>
       <c r="M88" s="27">
         <v>101.9</v>
@@ -33869,11 +33955,12 @@
         <v>-0.24</v>
       </c>
       <c r="V88">
-        <f>code_monthly!T88*100</f>
-        <v>81.037014466727825</v>
+        <f>code_monthly!T88*10</f>
+        <v>8.1037014466727815</v>
       </c>
       <c r="W88" s="4">
-        <v>3.1379410000000001</v>
+        <f>code_monthly!W88/10</f>
+        <v>0.3031006</v>
       </c>
       <c r="X88" s="21">
         <f>code_monthly_deflated!T88</f>
@@ -33923,8 +34010,8 @@
         <v>0.86365000000000003</v>
       </c>
       <c r="L89" s="21">
-        <f>code_monthly!N89*100</f>
-        <v>125</v>
+        <f>code_monthly!N89*10</f>
+        <v>12.5</v>
       </c>
       <c r="M89" s="27">
         <v>101.4</v>
@@ -33958,11 +34045,12 @@
         <v>0.11</v>
       </c>
       <c r="V89">
-        <f>code_monthly!T89*100</f>
-        <v>80</v>
+        <f>code_monthly!T89*10</f>
+        <v>8</v>
       </c>
       <c r="W89" s="4">
-        <v>2.60711</v>
+        <f>code_monthly!W89/10</f>
+        <v>0.25258079999999999</v>
       </c>
       <c r="X89" s="21">
         <f>code_monthly_deflated!T89</f>
@@ -34012,8 +34100,8 @@
         <v>0.86336000000000002</v>
       </c>
       <c r="L90" s="21">
-        <f>code_monthly!N90*100</f>
-        <v>124.39359999999999</v>
+        <f>code_monthly!N90*10</f>
+        <v>12.439359999999999</v>
       </c>
       <c r="M90" s="27">
         <v>102.1</v>
@@ -34047,11 +34135,12 @@
         <v>-0.5</v>
       </c>
       <c r="V90">
-        <f>code_monthly!T90*100</f>
-        <v>80.389987909345834</v>
+        <f>code_monthly!T90*10</f>
+        <v>8.038998790934583</v>
       </c>
       <c r="W90" s="4">
-        <v>2.5618270000000001</v>
+        <f>code_monthly!W90/10</f>
+        <v>0.24758110000000003</v>
       </c>
       <c r="X90" s="21">
         <f>code_monthly_deflated!T90</f>
@@ -34101,8 +34190,8 @@
         <v>0.8508</v>
       </c>
       <c r="L91" s="21">
-        <f>code_monthly!N91*100</f>
-        <v>124.78469999999999</v>
+        <f>code_monthly!N91*10</f>
+        <v>12.47847</v>
       </c>
       <c r="M91" s="27">
         <v>102.5</v>
@@ -34136,11 +34225,12 @@
         <v>-0.03</v>
       </c>
       <c r="V91">
-        <f>code_monthly!T91*100</f>
-        <v>80.138029742428358</v>
+        <f>code_monthly!T91*10</f>
+        <v>8.0138029742428358</v>
       </c>
       <c r="W91" s="4">
-        <v>11.61077</v>
+        <f>code_monthly!W91/10</f>
+        <v>1.0683549999999999</v>
       </c>
       <c r="X91" s="21">
         <f>code_monthly_deflated!T91</f>
@@ -34190,8 +34280,8 @@
         <v>0.84338999999999997</v>
       </c>
       <c r="L92" s="21">
-        <f>code_monthly!N92*100</f>
-        <v>129.3159</v>
+        <f>code_monthly!N92*10</f>
+        <v>12.93159</v>
       </c>
       <c r="M92" s="27">
         <v>102.9</v>
@@ -34225,11 +34315,12 @@
         <v>0.4</v>
       </c>
       <c r="V92">
-        <f>code_monthly!T92*100</f>
-        <v>77.330011236050638</v>
+        <f>code_monthly!T92*10</f>
+        <v>7.7330011236050638</v>
       </c>
       <c r="W92" s="4">
-        <v>22.65155</v>
+        <f>code_monthly!W92/10</f>
+        <v>1.6736119999999999</v>
       </c>
       <c r="X92" s="21">
         <f>code_monthly_deflated!T92</f>
@@ -34279,8 +34370,8 @@
         <v>0.87644999999999995</v>
       </c>
       <c r="L93" s="21">
-        <f>code_monthly!N93*100</f>
-        <v>128.09020000000001</v>
+        <f>code_monthly!N93*10</f>
+        <v>12.80902</v>
       </c>
       <c r="M93" s="27">
         <v>103.3</v>
@@ -34314,11 +34405,12 @@
         <v>0.37</v>
       </c>
       <c r="V93">
-        <f>code_monthly!T93*100</f>
-        <v>78.06998505740485</v>
+        <f>code_monthly!T93*10</f>
+        <v>7.806998505740486</v>
       </c>
       <c r="W93" s="4">
-        <v>23.08615</v>
+        <f>code_monthly!W93/10</f>
+        <v>1.5574109999999999</v>
       </c>
       <c r="X93" s="21">
         <f>code_monthly_deflated!T93</f>
@@ -34368,8 +34460,8 @@
         <v>0.87751000000000001</v>
       </c>
       <c r="L94" s="21">
-        <f>code_monthly!N94*100</f>
-        <v>130.11179999999999</v>
+        <f>code_monthly!N94*10</f>
+        <v>13.01118</v>
       </c>
       <c r="M94" s="27">
         <v>103.3</v>
@@ -34403,11 +34495,12 @@
         <v>0.19</v>
       </c>
       <c r="V94">
-        <f>code_monthly!T94*100</f>
-        <v>76.856979920345424</v>
+        <f>code_monthly!T94*10</f>
+        <v>7.6856979920345427</v>
       </c>
       <c r="W94" s="4">
-        <v>10.95168</v>
+        <f>code_monthly!W94/10</f>
+        <v>0.7945837</v>
       </c>
       <c r="X94" s="21">
         <f>code_monthly_deflated!T94</f>
@@ -34457,8 +34550,8 @@
         <v>0.90271000000000001</v>
       </c>
       <c r="L95" s="21">
-        <f>code_monthly!N95*100</f>
-        <v>131.44919999999999</v>
+        <f>code_monthly!N95*10</f>
+        <v>13.144919999999999</v>
       </c>
       <c r="M95" s="27">
         <v>103.2</v>
@@ -34492,11 +34585,12 @@
         <v>0.24</v>
       </c>
       <c r="V95">
-        <f>code_monthly!T95*100</f>
-        <v>76.075016051828399</v>
+        <f>code_monthly!T95*10</f>
+        <v>7.607501605182839</v>
       </c>
       <c r="W95" s="4">
-        <v>36.61083</v>
+        <f>code_monthly!W95/10</f>
+        <v>1.5085229999999998</v>
       </c>
       <c r="X95" s="21">
         <f>code_monthly_deflated!T95</f>
@@ -34546,8 +34640,8 @@
         <v>0.91644000000000003</v>
       </c>
       <c r="L96" s="21">
-        <f>code_monthly!N96*100</f>
-        <v>129.2056</v>
+        <f>code_monthly!N96*10</f>
+        <v>12.920560000000002</v>
       </c>
       <c r="M96" s="27">
         <v>103.8</v>
@@ -34581,11 +34675,12 @@
         <v>0.25</v>
       </c>
       <c r="V96">
-        <f>code_monthly!T96*100</f>
-        <v>77.396026178431882</v>
+        <f>code_monthly!T96*10</f>
+        <v>7.7396026178431887</v>
       </c>
       <c r="W96" s="4">
-        <v>28.35558</v>
+        <f>code_monthly!W96/10</f>
+        <v>1.3630660000000001</v>
       </c>
       <c r="X96" s="21">
         <f>code_monthly_deflated!T96</f>
@@ -34635,8 +34730,8 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="L97" s="21">
-        <f>code_monthly!N97*100</f>
-        <v>133.9674</v>
+        <f>code_monthly!N97*10</f>
+        <v>13.396740000000001</v>
       </c>
       <c r="M97" s="27">
         <v>104.1</v>
@@ -34670,11 +34765,12 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="V97">
-        <f>code_monthly!T97*100</f>
-        <v>74.645025580850273</v>
+        <f>code_monthly!T97*10</f>
+        <v>7.4645025580850266</v>
       </c>
       <c r="W97" s="4">
-        <v>11.383699999999999</v>
+        <f>code_monthly!W97/10</f>
+        <v>0.78470589999999996</v>
       </c>
       <c r="X97" s="21">
         <f>code_monthly_deflated!T97</f>
@@ -34724,8 +34820,8 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="L98" s="21">
-        <f>code_monthly!N98*100</f>
-        <v>132.12479999999999</v>
+        <f>code_monthly!N98*10</f>
+        <v>13.212479999999999</v>
       </c>
       <c r="M98" s="27">
         <v>104.2</v>
@@ -34759,11 +34855,12 @@
         <v>0.09</v>
       </c>
       <c r="V98">
-        <f>code_monthly!T98*100</f>
-        <v>75.686018067766241</v>
+        <f>code_monthly!T98*10</f>
+        <v>7.5686018067766234</v>
       </c>
       <c r="W98" s="4">
-        <v>6.0531699999999997</v>
+        <f>code_monthly!W98/10</f>
+        <v>0.49234460000000002</v>
       </c>
       <c r="X98" s="21">
         <f>code_monthly_deflated!T98</f>
@@ -34813,8 +34910,8 @@
         <v>0.87924999999999998</v>
       </c>
       <c r="L99" s="21">
-        <f>code_monthly!N99*100</f>
-        <v>134.17239999999998</v>
+        <f>code_monthly!N99*10</f>
+        <v>13.41724</v>
       </c>
       <c r="M99" s="27">
         <v>104.6</v>
@@ -34848,11 +34945,12 @@
         <v>0.15</v>
       </c>
       <c r="V99">
-        <f>code_monthly!T99*100</f>
-        <v>74.53097656447973</v>
+        <f>code_monthly!T99*10</f>
+        <v>7.453097656447973</v>
       </c>
       <c r="W99" s="4">
-        <v>4.302848</v>
+        <f>code_monthly!W99/10</f>
+        <v>0.41025869999999998</v>
       </c>
       <c r="X99" s="21">
         <f>code_monthly_deflated!T99</f>
@@ -34902,8 +35000,8 @@
         <v>0.88790000000000002</v>
       </c>
       <c r="L100" s="21">
-        <f>code_monthly!N100*100</f>
-        <v>135.16069999999999</v>
+        <f>code_monthly!N100*10</f>
+        <v>13.516069999999999</v>
       </c>
       <c r="M100" s="27">
         <v>104.9</v>
@@ -34937,11 +35035,12 @@
         <v>0.01</v>
       </c>
       <c r="V100">
-        <f>code_monthly!T100*100</f>
-        <v>73.98600332789043</v>
+        <f>code_monthly!T100*10</f>
+        <v>7.3986003327890426</v>
       </c>
       <c r="W100" s="4">
-        <v>2.8436129999999999</v>
+        <f>code_monthly!W100/10</f>
+        <v>0.2751441</v>
       </c>
       <c r="X100" s="21">
         <f>code_monthly_deflated!T100</f>
@@ -34991,8 +35090,8 @@
         <v>0.88229999999999997</v>
       </c>
       <c r="L101" s="21">
-        <f>code_monthly!N101*100</f>
-        <v>141.55880000000002</v>
+        <f>code_monthly!N101*10</f>
+        <v>14.15588</v>
       </c>
       <c r="M101" s="27">
         <v>104.4</v>
@@ -35026,11 +35125,12 @@
         <v>-0.64</v>
       </c>
       <c r="V101">
-        <f>code_monthly!T101*100</f>
-        <v>70.642022961483136</v>
+        <f>code_monthly!T101*10</f>
+        <v>7.0642022961483146</v>
       </c>
       <c r="W101" s="4">
-        <v>2.0618159999999999</v>
+        <f>code_monthly!W101/10</f>
+        <v>0.199908</v>
       </c>
       <c r="X101" s="21">
         <f>code_monthly_deflated!T101</f>
@@ -35080,8 +35180,8 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="L102" s="21">
-        <f>code_monthly!N102*100</f>
-        <v>139.0608</v>
+        <f>code_monthly!N102*10</f>
+        <v>13.906080000000001</v>
       </c>
       <c r="M102" s="27">
         <v>104.9</v>
@@ -35115,11 +35215,12 @@
         <v>-0.11</v>
       </c>
       <c r="V102">
-        <f>code_monthly!T102*100</f>
-        <v>71.910991451221335</v>
+        <f>code_monthly!T102*10</f>
+        <v>7.1910991451221324</v>
       </c>
       <c r="W102" s="4">
-        <v>3.8875060000000001</v>
+        <f>code_monthly!W102/10</f>
+        <v>0.37435309999999999</v>
       </c>
       <c r="X102" s="21">
         <f>code_monthly_deflated!T102</f>
@@ -35169,8 +35270,8 @@
         <v>0.88180000000000003</v>
       </c>
       <c r="L103" s="21">
-        <f>code_monthly!N103*100</f>
-        <v>140.16990000000001</v>
+        <f>code_monthly!N103*10</f>
+        <v>14.01699</v>
       </c>
       <c r="M103" s="27">
         <v>105</v>
@@ -35204,11 +35305,12 @@
         <v>0.42</v>
       </c>
       <c r="V103">
-        <f>code_monthly!T103*100</f>
-        <v>71.341992824422363</v>
+        <f>code_monthly!T103*10</f>
+        <v>7.1341992824422364</v>
       </c>
       <c r="W103" s="4">
-        <v>5.4802340000000003</v>
+        <f>code_monthly!W103/10</f>
+        <v>0.52648780000000006</v>
       </c>
       <c r="X103" s="21">
         <f>code_monthly_deflated!T103</f>
@@ -35258,8 +35360,8 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="L104" s="21">
-        <f>code_monthly!N104*100</f>
-        <v>137.7107</v>
+        <f>code_monthly!N104*10</f>
+        <v>13.771070000000002</v>
       </c>
       <c r="M104" s="27">
         <v>105.4</v>
@@ -35293,11 +35395,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="V104">
-        <f>code_monthly!T104*100</f>
-        <v>72.6159986115821</v>
+        <f>code_monthly!T104*10</f>
+        <v>7.26159986115821</v>
       </c>
       <c r="W104" s="4">
-        <v>8.3864429999999999</v>
+        <f>code_monthly!W104/10</f>
+        <v>0.78136539999999999</v>
       </c>
       <c r="X104" s="21">
         <f>code_monthly_deflated!T104</f>
@@ -35347,8 +35450,8 @@
         <v>0.87409999999999999</v>
       </c>
       <c r="L105" s="21">
-        <f>code_monthly!N105*100</f>
-        <v>132.8356</v>
+        <f>code_monthly!N105*10</f>
+        <v>13.283560000000001</v>
       </c>
       <c r="M105" s="27">
         <v>105.8</v>
@@ -35382,11 +35485,12 @@
         <v>0.45</v>
       </c>
       <c r="V105">
-        <f>code_monthly!T105*100</f>
-        <v>75.281024062826532</v>
+        <f>code_monthly!T105*10</f>
+        <v>7.5281024062826525</v>
       </c>
       <c r="W105" s="4">
-        <v>6.4669639999999999</v>
+        <f>code_monthly!W105/10</f>
+        <v>0.50164530000000007</v>
       </c>
       <c r="X105" s="21">
         <f>code_monthly_deflated!T105</f>
@@ -35436,8 +35540,8 @@
         <v>0.8861</v>
       </c>
       <c r="L106" s="21">
-        <f>code_monthly!N106*100</f>
-        <v>132.10040000000001</v>
+        <f>code_monthly!N106*10</f>
+        <v>13.210040000000001</v>
       </c>
       <c r="M106" s="27">
         <v>105.8</v>
@@ -35471,11 +35575,12 @@
         <v>0.31</v>
       </c>
       <c r="V106">
-        <f>code_monthly!T106*100</f>
-        <v>75.699997880400062</v>
+        <f>code_monthly!T106*10</f>
+        <v>7.5699997880400058</v>
       </c>
       <c r="W106" s="4">
-        <v>5.3595269999999999</v>
+        <f>code_monthly!W106/10</f>
+        <v>0.4592601</v>
       </c>
       <c r="X106" s="21">
         <f>code_monthly_deflated!T106</f>
@@ -35525,8 +35630,8 @@
         <v>0.89090000000000003</v>
       </c>
       <c r="L107" s="21">
-        <f>code_monthly!N107*100</f>
-        <v>131.35429999999999</v>
+        <f>code_monthly!N107*10</f>
+        <v>13.135429999999999</v>
       </c>
       <c r="M107" s="27">
         <v>105.8</v>
@@ -35560,11 +35665,12 @@
         <v>0.24</v>
       </c>
       <c r="V107">
-        <f>code_monthly!T107*100</f>
-        <v>76.129978234439236</v>
+        <f>code_monthly!T107*10</f>
+        <v>7.6129978234439228</v>
       </c>
       <c r="W107" s="4">
-        <v>8.3855020000000007</v>
+        <f>code_monthly!W107/10</f>
+        <v>0.46394229999999997</v>
       </c>
       <c r="X107" s="21">
         <f>code_monthly_deflated!T107</f>
@@ -35614,8 +35720,8 @@
         <v>0.89690000000000003</v>
       </c>
       <c r="L108" s="21">
-        <f>code_monthly!N108*100</f>
-        <v>130.11010000000002</v>
+        <f>code_monthly!N108*10</f>
+        <v>13.011010000000001</v>
       </c>
       <c r="M108" s="27">
         <v>106.5</v>
@@ -35649,11 +35755,12 @@
         <v>0.26</v>
       </c>
       <c r="V108">
-        <f>code_monthly!T108*100</f>
-        <v>76.857984122677635</v>
+        <f>code_monthly!T108*10</f>
+        <v>7.6857984122677632</v>
       </c>
       <c r="W108" s="4">
-        <v>7.8872010000000001</v>
+        <f>code_monthly!W108/10</f>
+        <v>0.48462370000000005</v>
       </c>
       <c r="X108" s="21">
         <f>code_monthly_deflated!T108</f>
@@ -35703,8 +35810,8 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="L109" s="21">
-        <f>code_monthly!N109*100</f>
-        <v>130.31010000000001</v>
+        <f>code_monthly!N109*10</f>
+        <v>13.03101</v>
       </c>
       <c r="M109" s="27">
         <v>106.6</v>
@@ -35738,11 +35845,12 @@
         <v>0.22</v>
       </c>
       <c r="V109">
-        <f>code_monthly!T109*100</f>
-        <v>76.740022454130568</v>
+        <f>code_monthly!T109*10</f>
+        <v>7.6740022454130568</v>
       </c>
       <c r="W109" s="4">
-        <v>5.411753</v>
+        <f>code_monthly!W109/10</f>
+        <v>0.40949950000000002</v>
       </c>
       <c r="X109" s="21">
         <f>code_monthly_deflated!T109</f>
@@ -35792,8 +35900,8 @@
         <v>0.87760000000000005</v>
       </c>
       <c r="L110" s="21">
-        <f>code_monthly!N110*100</f>
-        <v>127.08900000000001</v>
+        <f>code_monthly!N110*10</f>
+        <v>12.7089</v>
       </c>
       <c r="M110" s="27">
         <v>106.7</v>
@@ -35827,11 +35935,12 @@
         <v>-0.04</v>
       </c>
       <c r="V110">
-        <f>code_monthly!T110*100</f>
-        <v>78.685016012400752</v>
+        <f>code_monthly!T110*10</f>
+        <v>7.8685016012400757</v>
       </c>
       <c r="W110" s="4">
-        <v>11.65958</v>
+        <f>code_monthly!W110/10</f>
+        <v>1.1013280000000001</v>
       </c>
       <c r="X110" s="21">
         <f>code_monthly_deflated!T110</f>
@@ -35881,8 +35990,8 @@
         <v>0.88719999999999999</v>
       </c>
       <c r="L111" s="21">
-        <f>code_monthly!N111*100</f>
-        <v>127.84450000000001</v>
+        <f>code_monthly!N111*10</f>
+        <v>12.78445</v>
       </c>
       <c r="M111" s="27">
         <v>107</v>
@@ -35916,11 +36025,12 @@
         <v>-0.04</v>
       </c>
       <c r="V111">
-        <f>code_monthly!T111*100</f>
-        <v>78.22002510862805</v>
+        <f>code_monthly!T111*10</f>
+        <v>7.8220025108628057</v>
       </c>
       <c r="W111" s="4">
-        <v>19.587499999999999</v>
+        <f>code_monthly!W111/10</f>
+        <v>1.85582</v>
       </c>
       <c r="X111" s="21">
         <f>code_monthly_deflated!T111</f>
@@ -35970,8 +36080,8 @@
         <v>0.89559999999999995</v>
       </c>
       <c r="L112" s="21">
-        <f>code_monthly!N112*100</f>
-        <v>126.9358</v>
+        <f>code_monthly!N112*10</f>
+        <v>12.693580000000001</v>
       </c>
       <c r="M112" s="27">
         <v>107.1</v>
@@ -36005,11 +36115,12 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="V112">
-        <f>code_monthly!T112*100</f>
-        <v>78.779981691532257</v>
+        <f>code_monthly!T112*10</f>
+        <v>7.8779981691532255</v>
       </c>
       <c r="W112" s="4">
-        <v>18.022449999999999</v>
+        <f>code_monthly!W112/10</f>
+        <v>1.721376</v>
       </c>
       <c r="X112" s="21">
         <f>code_monthly_deflated!T112</f>
@@ -36059,8 +36170,8 @@
         <v>0.87509999999999999</v>
       </c>
       <c r="L113" s="21">
-        <f>code_monthly!N113*100</f>
-        <v>131.17160000000001</v>
+        <f>code_monthly!N113*10</f>
+        <v>13.117160000000002</v>
       </c>
       <c r="M113" s="27">
         <v>106.3</v>
@@ -36094,11 +36205,12 @@
         <v>-0.26</v>
       </c>
       <c r="V113">
-        <f>code_monthly!T113*100</f>
-        <v>76.236014503139387</v>
+        <f>code_monthly!T113*10</f>
+        <v>7.6236014503139398</v>
       </c>
       <c r="W113" s="4">
-        <v>16.700589999999998</v>
+        <f>code_monthly!W113/10</f>
+        <v>1.597299</v>
       </c>
       <c r="X113" s="21">
         <f>code_monthly_deflated!T113</f>
@@ -36148,8 +36260,8 @@
         <v>0.86119999999999997</v>
       </c>
       <c r="L114" s="21">
-        <f>code_monthly!N114*100</f>
-        <v>133.1824</v>
+        <f>code_monthly!N114*10</f>
+        <v>13.318239999999999</v>
       </c>
       <c r="M114" s="27">
         <v>106.8</v>
@@ -36183,11 +36295,12 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="V114">
-        <f>code_monthly!T114*100</f>
-        <v>75.084996215716188</v>
+        <f>code_monthly!T114*10</f>
+        <v>7.5084996215716195</v>
       </c>
       <c r="W114" s="4">
-        <v>18.68676</v>
+        <f>code_monthly!W114/10</f>
+        <v>1.7850490000000001</v>
       </c>
       <c r="X114" s="21">
         <f>code_monthly_deflated!T114</f>
@@ -36237,8 +36350,8 @@
         <v>0.86119999999999997</v>
       </c>
       <c r="L115" s="21">
-        <f>code_monthly!N115*100</f>
-        <v>130.4495</v>
+        <f>code_monthly!N115*10</f>
+        <v>13.04495</v>
       </c>
       <c r="M115" s="27">
         <v>107</v>
@@ -36272,11 +36385,12 @@
         <v>0.23</v>
       </c>
       <c r="V115">
-        <f>code_monthly!T115*100</f>
-        <v>76.658017087072011</v>
+        <f>code_monthly!T115*10</f>
+        <v>7.6658017087072006</v>
       </c>
       <c r="W115" s="4">
-        <v>23.368469999999999</v>
+        <f>code_monthly!W115/10</f>
+        <v>2.2029649999999998</v>
       </c>
       <c r="X115" s="21">
         <f>code_monthly_deflated!T115</f>
@@ -36326,8 +36440,8 @@
         <v>0.85709999999999997</v>
       </c>
       <c r="L116" s="21">
-        <f>code_monthly!N116*100</f>
-        <v>129.32429999999999</v>
+        <f>code_monthly!N116*10</f>
+        <v>12.93243</v>
       </c>
       <c r="M116" s="27">
         <v>107.6</v>
@@ -36361,11 +36475,12 @@
         <v>1.4</v>
       </c>
       <c r="V116">
-        <f>code_monthly!T116*100</f>
-        <v>77.324988420582983</v>
+        <f>code_monthly!T116*10</f>
+        <v>7.7324988420582983</v>
       </c>
       <c r="W116" s="4">
-        <v>31.063669999999998</v>
+        <f>code_monthly!W116/10</f>
+        <v>2.7513680000000003</v>
       </c>
       <c r="X116" s="21">
         <f>code_monthly_deflated!T116</f>
@@ -36415,8 +36530,8 @@
         <v>0.88270999999999999</v>
       </c>
       <c r="L117" s="21">
-        <f>code_monthly!N117*100</f>
-        <v>126.09699999999999</v>
+        <f>code_monthly!N117*10</f>
+        <v>12.6097</v>
       </c>
       <c r="M117" s="27">
         <v>107.9</v>
@@ -36450,11 +36565,12 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="V117">
-        <f>code_monthly!T117*100</f>
-        <v>79.304027851574588</v>
+        <f>code_monthly!T117*10</f>
+        <v>7.930402785157459</v>
       </c>
       <c r="W117" s="4">
-        <v>53.341079999999998</v>
+        <f>code_monthly!W117/10</f>
+        <v>3.8010039999999998</v>
       </c>
       <c r="X117" s="21">
         <f>code_monthly_deflated!T117</f>
@@ -36504,8 +36620,8 @@
         <v>0.89710000000000001</v>
       </c>
       <c r="L118" s="21">
-        <f>code_monthly!N118*100</f>
-        <v>126.95989999999999</v>
+        <f>code_monthly!N118*10</f>
+        <v>12.695989999999998</v>
       </c>
       <c r="M118" s="27">
         <v>107.9</v>
@@ -36539,11 +36655,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V118">
-        <f>code_monthly!T118*100</f>
-        <v>78.765027382661785</v>
+        <f>code_monthly!T118*10</f>
+        <v>7.8765027382661774</v>
       </c>
       <c r="W118" s="4">
-        <v>12.868130000000001</v>
+        <f>code_monthly!W118/10</f>
+        <v>0.9047444</v>
       </c>
       <c r="X118" s="21">
         <f>code_monthly_deflated!T118</f>
@@ -36593,8 +36710,8 @@
         <v>0.91369</v>
       </c>
       <c r="L119" s="21">
-        <f>code_monthly!N119*100</f>
-        <v>121.61599999999999</v>
+        <f>code_monthly!N119*10</f>
+        <v>12.1616</v>
       </c>
       <c r="M119" s="27">
         <v>107.9</v>
@@ -36628,11 +36745,12 @@
         <v>0.05</v>
       </c>
       <c r="V119">
-        <f>code_monthly!T119*100</f>
-        <v>82.226022891724782</v>
+        <f>code_monthly!T119*10</f>
+        <v>8.2226022891724782</v>
       </c>
       <c r="W119" s="4">
-        <v>12.874040000000001</v>
+        <f>code_monthly!W119/10</f>
+        <v>1.0019550000000002</v>
       </c>
       <c r="X119" s="21">
         <f>code_monthly_deflated!T119</f>
@@ -36682,8 +36800,8 @@
         <v>0.90749000000000002</v>
       </c>
       <c r="L120" s="21">
-        <f>code_monthly!N120*100</f>
-        <v>121.5894</v>
+        <f>code_monthly!N120*10</f>
+        <v>12.158940000000001</v>
       </c>
       <c r="M120" s="27">
         <v>108.4</v>
@@ -36717,11 +36835,12 @@
         <v>-0.08</v>
       </c>
       <c r="V120">
-        <f>code_monthly!T120*100</f>
-        <v>82.244011402309738</v>
+        <f>code_monthly!T120*10</f>
+        <v>8.2244011402309738</v>
       </c>
       <c r="W120" s="4">
-        <v>9.8089480000000009</v>
+        <f>code_monthly!W120/10</f>
+        <v>0.7752985</v>
       </c>
       <c r="X120" s="21">
         <f>code_monthly_deflated!T120</f>
@@ -36771,8 +36890,8 @@
         <v>0.88778999999999997</v>
       </c>
       <c r="L121" s="21">
-        <f>code_monthly!N121*100</f>
-        <v>122.93170000000001</v>
+        <f>code_monthly!N121*10</f>
+        <v>12.29317</v>
       </c>
       <c r="M121" s="27">
         <v>108.5</v>
@@ -36806,11 +36925,12 @@
         <v>0.04</v>
       </c>
       <c r="V121">
-        <f>code_monthly!T121*100</f>
-        <v>81.345983176023765</v>
+        <f>code_monthly!T121*10</f>
+        <v>8.1345983176023768</v>
       </c>
       <c r="W121" s="4">
-        <v>30.820509999999999</v>
+        <f>code_monthly!W121/10</f>
+        <v>2.3191299999999999</v>
       </c>
       <c r="X121" s="21">
         <f>code_monthly_deflated!T121</f>
@@ -36860,8 +36980,8 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="L122" s="21">
-        <f>code_monthly!N122*100</f>
-        <v>129.01730000000001</v>
+        <f>code_monthly!N122*10</f>
+        <v>12.901730000000001</v>
       </c>
       <c r="M122" s="27">
         <v>108.3</v>
@@ -36895,11 +37015,12 @@
         <v>0.1</v>
       </c>
       <c r="V122">
-        <f>code_monthly!T122*100</f>
-        <v>77.508985229112682</v>
+        <f>code_monthly!T122*10</f>
+        <v>7.7508985229112684</v>
       </c>
       <c r="W122" s="4">
-        <v>33.607880000000002</v>
+        <f>code_monthly!W122/10</f>
+        <v>3.0739969999999999</v>
       </c>
       <c r="X122" s="21">
         <f>code_monthly_deflated!T122</f>
@@ -36949,8 +37070,8 @@
         <v>0.85129999999999995</v>
       </c>
       <c r="L123" s="21">
-        <f>code_monthly!N123*100</f>
-        <v>129.29999999999998</v>
+        <f>code_monthly!N123*10</f>
+        <v>12.93</v>
       </c>
       <c r="M123" s="27">
         <v>108.5</v>
@@ -36984,11 +37105,12 @@
         <v>0.02</v>
       </c>
       <c r="V123">
-        <f>code_monthly!T123*100</f>
-        <v>77.33952049497293</v>
+        <f>code_monthly!T123*10</f>
+        <v>7.7339520494972938</v>
       </c>
       <c r="W123" s="4">
-        <v>29.628360000000001</v>
+        <f>code_monthly!W123/10</f>
+        <v>2.7892099999999997</v>
       </c>
       <c r="X123" s="21">
         <f>code_monthly_deflated!T123</f>
@@ -37038,8 +37160,8 @@
         <v>0.85145000000000004</v>
       </c>
       <c r="L124" s="21">
-        <f>code_monthly!N124*100</f>
-        <v>131.13030000000001</v>
+        <f>code_monthly!N124*10</f>
+        <v>13.113030000000002</v>
       </c>
       <c r="M124" s="27">
         <v>108.5</v>
@@ -37073,11 +37195,12 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="V124">
-        <f>code_monthly!T124*100</f>
-        <v>76.260025333580401</v>
+        <f>code_monthly!T124*10</f>
+        <v>7.6260025333580401</v>
       </c>
       <c r="W124" s="4">
-        <v>32.719079999999998</v>
+        <f>code_monthly!W124/10</f>
+        <v>3.0637339999999997</v>
       </c>
       <c r="X124" s="21">
         <f>code_monthly_deflated!T124</f>
@@ -37127,8 +37250,8 @@
         <v>0.83979999999999999</v>
       </c>
       <c r="L125" s="21">
-        <f>code_monthly!N125*100</f>
-        <v>130.88999999999999</v>
+        <f>code_monthly!N125*10</f>
+        <v>13.088999999999999</v>
       </c>
       <c r="M125" s="27">
         <v>108.2</v>
@@ -37162,11 +37285,12 @@
         <v>-0.22</v>
       </c>
       <c r="V125">
-        <f>code_monthly!T125*100</f>
-        <v>76.400030560012226</v>
+        <f>code_monthly!T125*10</f>
+        <v>7.6400030560012224</v>
       </c>
       <c r="W125" s="4">
-        <v>0.27874199999999999</v>
+        <f>code_monthly!W125/10</f>
+        <v>2.5147000000000003E-2</v>
       </c>
       <c r="X125" s="21">
         <f>code_monthly_deflated!T125</f>
@@ -37216,8 +37340,8 @@
         <v>0.86060000000000003</v>
       </c>
       <c r="L126" s="21">
-        <f>code_monthly!N126*100</f>
-        <v>128.18389999999999</v>
+        <f>code_monthly!N126*10</f>
+        <v>12.818389999999999</v>
       </c>
       <c r="M126" s="27">
         <v>108.6</v>
@@ -37251,11 +37375,12 @@
         <v>-0.15</v>
       </c>
       <c r="V126">
-        <f>code_monthly!T126*100</f>
-        <v>78.012917378859598</v>
+        <f>code_monthly!T126*10</f>
+        <v>7.8012917378859594</v>
       </c>
       <c r="W126" s="4">
-        <v>1.3315969999999999</v>
+        <f>code_monthly!W126/10</f>
+        <v>0.1226318</v>
       </c>
       <c r="X126" s="21">
         <f>code_monthly_deflated!T126</f>
@@ -37305,8 +37430,8 @@
         <v>0.87246999999999997</v>
       </c>
       <c r="L127" s="21">
-        <f>code_monthly!N127*100</f>
-        <v>123.71639999999999</v>
+        <f>code_monthly!N127*10</f>
+        <v>12.371639999999999</v>
       </c>
       <c r="M127" s="27">
         <v>108.6</v>
@@ -37340,11 +37465,12 @@
         <v>0.05</v>
       </c>
       <c r="V127">
-        <f>code_monthly!T127*100</f>
-        <v>80.830027385213285</v>
+        <f>code_monthly!T127*10</f>
+        <v>8.0830027385213281</v>
       </c>
       <c r="W127" s="4">
-        <v>0.32774399999999998</v>
+        <f>code_monthly!W127/10</f>
+        <v>2.9154300000000001E-2</v>
       </c>
       <c r="X127" s="21">
         <f>code_monthly_deflated!T127</f>
@@ -37394,8 +37520,8 @@
         <v>0.89080000000000004</v>
       </c>
       <c r="L128" s="21">
-        <f>code_monthly!N128*100</f>
-        <v>124.71469999999999</v>
+        <f>code_monthly!N128*10</f>
+        <v>12.47147</v>
       </c>
       <c r="M128" s="27">
         <v>108.5</v>
@@ -37429,11 +37555,12 @@
         <v>-0.54</v>
       </c>
       <c r="V128">
-        <f>code_monthly!T128*100</f>
-        <v>80.183009701342343</v>
+        <f>code_monthly!T128*10</f>
+        <v>8.0183009701342343</v>
       </c>
       <c r="W128" s="4">
-        <v>64.263289999999998</v>
+        <f>code_monthly!W128/10</f>
+        <v>4.6872259999999999</v>
       </c>
       <c r="X128" s="21">
         <f>code_monthly_deflated!T128</f>
@@ -37483,8 +37610,8 @@
         <v>0.89531000000000005</v>
       </c>
       <c r="L129" s="21">
-        <f>code_monthly!N129*100</f>
-        <v>123.4499</v>
+        <f>code_monthly!N129*10</f>
+        <v>12.344989999999999</v>
       </c>
       <c r="M129" s="27">
         <v>108.5</v>
@@ -37518,11 +37645,12 @@
         <v>0.2</v>
       </c>
       <c r="V129">
-        <f>code_monthly!T129*100</f>
-        <v>81.00452086230932</v>
+        <f>code_monthly!T129*10</f>
+        <v>8.1004520862309324</v>
       </c>
       <c r="W129" s="4">
-        <v>80.667310000000001</v>
+        <f>code_monthly!W129/10</f>
+        <v>4.1576560000000002</v>
       </c>
       <c r="X129" s="21">
         <f>code_monthly_deflated!T129</f>
@@ -37572,8 +37700,8 @@
         <v>0.89693000000000001</v>
       </c>
       <c r="L130" s="21">
-        <f>code_monthly!N130*100</f>
-        <v>123.10570000000001</v>
+        <f>code_monthly!N130*10</f>
+        <v>12.31057</v>
       </c>
       <c r="M130" s="27">
         <v>108.6</v>
@@ -37607,11 +37735,12 @@
         <v>0.3</v>
       </c>
       <c r="V130">
-        <f>code_monthly!T130*100</f>
-        <v>81.231007175134863</v>
+        <f>code_monthly!T130*10</f>
+        <v>8.1231007175134859</v>
       </c>
       <c r="W130" s="4">
-        <v>59.145400000000002</v>
+        <f>code_monthly!W130/10</f>
+        <v>3.3135019999999997</v>
       </c>
       <c r="X130" s="21">
         <f>code_monthly_deflated!T130</f>
@@ -37661,8 +37790,8 @@
         <v>0.90007000000000004</v>
       </c>
       <c r="L131" s="21">
-        <f>code_monthly!N131*100</f>
-        <v>131.17849999999999</v>
+        <f>code_monthly!N131*10</f>
+        <v>13.117850000000001</v>
       </c>
       <c r="M131" s="27">
         <v>109.1</v>
@@ -37696,11 +37825,12 @@
         <v>0.31</v>
       </c>
       <c r="V131">
-        <f>code_monthly!T131*100</f>
-        <v>76.232004482441866</v>
+        <f>code_monthly!T131*10</f>
+        <v>7.6232004482441864</v>
       </c>
       <c r="W131" s="4">
-        <v>26.232009999999999</v>
+        <f>code_monthly!W131/10</f>
+        <v>1.729204</v>
       </c>
       <c r="X131" s="21">
         <f>code_monthly_deflated!T131</f>
@@ -37750,8 +37880,8 @@
         <v>0.89139999999999997</v>
       </c>
       <c r="L132" s="21">
-        <f>code_monthly!N132*100</f>
-        <v>133.56479999999999</v>
+        <f>code_monthly!N132*10</f>
+        <v>13.356479999999999</v>
       </c>
       <c r="M132" s="27">
         <v>108.6</v>
@@ -37785,11 +37915,12 @@
         <v>0.37</v>
       </c>
       <c r="V132">
-        <f>code_monthly!T132*100</f>
-        <v>74.870025635496788</v>
+        <f>code_monthly!T132*10</f>
+        <v>7.4870025635496784</v>
       </c>
       <c r="W132" s="4">
-        <v>28.754439999999999</v>
+        <f>code_monthly!W132/10</f>
+        <v>2.2405919999999999</v>
       </c>
       <c r="X132" s="21">
         <f>code_monthly_deflated!T132</f>
@@ -37839,8 +37970,8 @@
         <v>0.90539999999999998</v>
       </c>
       <c r="L133" s="21">
-        <f>code_monthly!N133*100</f>
-        <v>128.66540000000001</v>
+        <f>code_monthly!N133*10</f>
+        <v>12.866540000000001</v>
       </c>
       <c r="M133" s="27">
         <v>109.1</v>
@@ -37874,11 +38005,12 @@
         <v>0.26</v>
       </c>
       <c r="V133">
-        <f>code_monthly!T133*100</f>
-        <v>77.720972382629668</v>
+        <f>code_monthly!T133*10</f>
+        <v>7.7720972382629672</v>
       </c>
       <c r="W133" s="4">
-        <v>23.84571</v>
+        <f>code_monthly!W133/10</f>
+        <v>1.9145530000000002</v>
       </c>
       <c r="X133" s="21">
         <f>code_monthly_deflated!T133</f>
@@ -37928,8 +38060,8 @@
         <v>0.90305000000000002</v>
       </c>
       <c r="L134" s="21">
-        <f>code_monthly!N134*100</f>
-        <v>129.49010000000001</v>
+        <f>code_monthly!N134*10</f>
+        <v>12.949010000000001</v>
       </c>
       <c r="M134" s="27">
         <v>109.1</v>
@@ -37963,11 +38095,12 @@
         <v>-0.03</v>
       </c>
       <c r="V134">
-        <f>code_monthly!T134*100</f>
-        <v>77.225980982329929</v>
+        <f>code_monthly!T134*10</f>
+        <v>7.722598098232992</v>
       </c>
       <c r="W134" s="4">
-        <v>12.161289999999999</v>
+        <f>code_monthly!W134/10</f>
+        <v>1.132056</v>
       </c>
       <c r="X134" s="21">
         <f>code_monthly_deflated!T134</f>
@@ -38017,8 +38150,8 @@
         <v>0.90044999999999997</v>
       </c>
       <c r="L135" s="21">
-        <f>code_monthly!N135*100</f>
-        <v>133.31909999999999</v>
+        <f>code_monthly!N135*10</f>
+        <v>13.331910000000001</v>
       </c>
       <c r="M135" s="27">
         <v>108.9</v>
@@ -38052,11 +38185,12 @@
         <v>-0.02</v>
       </c>
       <c r="V135">
-        <f>code_monthly!T135*100</f>
-        <v>75.008007104758434</v>
+        <f>code_monthly!T135*10</f>
+        <v>7.5008007104758434</v>
       </c>
       <c r="W135" s="4">
-        <v>20.803239999999999</v>
+        <f>code_monthly!W135/10</f>
+        <v>1.9387640000000002</v>
       </c>
       <c r="X135" s="21">
         <f>code_monthly_deflated!T135</f>
@@ -38106,8 +38240,8 @@
         <v>0.88441999999999998</v>
       </c>
       <c r="L136" s="21">
-        <f>code_monthly!N136*100</f>
-        <v>136.3066</v>
+        <f>code_monthly!N136*10</f>
+        <v>13.630660000000001</v>
       </c>
       <c r="M136" s="27">
         <v>109.2</v>
@@ -38141,11 +38275,12 @@
         <v>-0.13</v>
       </c>
       <c r="V136">
-        <f>code_monthly!T136*100</f>
-        <v>73.364019057037595</v>
+        <f>code_monthly!T136*10</f>
+        <v>7.3364019057037586</v>
       </c>
       <c r="W136" s="4">
-        <v>21.782330000000002</v>
+        <f>code_monthly!W136/10</f>
+        <v>2.042516</v>
       </c>
       <c r="X136" s="21">
         <f>code_monthly_deflated!T136</f>
@@ -38195,8 +38330,8 @@
         <v>0.87917999999999996</v>
       </c>
       <c r="L137" s="21">
-        <f>code_monthly!N137*100</f>
-        <v>137.06010000000001</v>
+        <f>code_monthly!N137*10</f>
+        <v>13.706009999999999</v>
       </c>
       <c r="M137" s="27">
         <v>109</v>
@@ -38230,11 +38365,12 @@
         <v>-0.39</v>
       </c>
       <c r="V137">
-        <f>code_monthly!T137*100</f>
-        <v>72.960693885383137</v>
+        <f>code_monthly!T137*10</f>
+        <v>7.2960693885383137</v>
       </c>
       <c r="W137" s="4">
-        <v>9.7496749999999999</v>
+        <f>code_monthly!W137/10</f>
+        <v>0.91609429999999992</v>
       </c>
       <c r="X137" s="21">
         <f>code_monthly_deflated!T137</f>
@@ -38284,8 +38420,8 @@
         <v>0.86262000000000005</v>
       </c>
       <c r="L138" s="21">
-        <f>code_monthly!N138*100</f>
-        <v>139.30000000000001</v>
+        <f>code_monthly!N138*10</f>
+        <v>13.93</v>
       </c>
       <c r="M138" s="27">
         <v>109.1</v>
@@ -38319,11 +38455,12 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="V138">
-        <f>code_monthly!T138*100</f>
-        <v>71.787508973438619</v>
+        <f>code_monthly!T138*10</f>
+        <v>7.1787508973438623</v>
       </c>
       <c r="W138" s="4">
-        <v>25.393360000000001</v>
+        <f>code_monthly!W138/10</f>
+        <v>2.392887</v>
       </c>
       <c r="X138" s="21">
         <f>code_monthly_deflated!T138</f>
@@ -38373,8 +38510,8 @@
         <v>0.85026000000000002</v>
       </c>
       <c r="L139" s="21">
-        <f>code_monthly!N139*100</f>
-        <v>137.4665</v>
+        <f>code_monthly!N139*10</f>
+        <v>13.746650000000001</v>
       </c>
       <c r="M139" s="27">
         <v>109.4</v>
@@ -38408,11 +38545,12 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="V139">
-        <f>code_monthly!T139*100</f>
-        <v>72.744996053583961</v>
+        <f>code_monthly!T139*10</f>
+        <v>7.2744996053583968</v>
       </c>
       <c r="W139" s="4">
-        <v>32.509120000000003</v>
+        <f>code_monthly!W139/10</f>
+        <v>3.035984</v>
       </c>
       <c r="X139" s="21">
         <f>code_monthly_deflated!T139</f>
@@ -38462,8 +38600,8 @@
         <v>0.86838000000000004</v>
       </c>
       <c r="L140" s="21">
-        <f>code_monthly!N140*100</f>
-        <v>139.5284</v>
+        <f>code_monthly!N140*10</f>
+        <v>13.95284</v>
       </c>
       <c r="M140" s="27">
         <v>110.1</v>
@@ -38497,11 +38635,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="V140">
-        <f>code_monthly!T140*100</f>
-        <v>71.669996932524143</v>
+        <f>code_monthly!T140*10</f>
+        <v>7.1669996932524143</v>
       </c>
       <c r="W140" s="4">
-        <v>33.08184</v>
+        <f>code_monthly!W140/10</f>
+        <v>3.0852919999999999</v>
       </c>
       <c r="X140" s="21">
         <f>code_monthly_deflated!T140</f>
@@ -38551,8 +38690,8 @@
         <v>0.85624</v>
       </c>
       <c r="L141" s="21">
-        <f>code_monthly!N141*100</f>
-        <v>141.80369999999999</v>
+        <f>code_monthly!N141*10</f>
+        <v>14.18037</v>
       </c>
       <c r="M141" s="27">
         <v>110.8</v>
@@ -38586,11 +38725,12 @@
         <v>0.25</v>
       </c>
       <c r="V141">
-        <f>code_monthly!T141*100</f>
-        <v>70.520021691958661</v>
+        <f>code_monthly!T141*10</f>
+        <v>7.052002169195867</v>
       </c>
       <c r="W141" s="4">
-        <v>27.590530000000001</v>
+        <f>code_monthly!W141/10</f>
+        <v>2.5614820000000003</v>
       </c>
       <c r="X141" s="21">
         <f>code_monthly_deflated!T141</f>
@@ -38640,8 +38780,8 @@
         <v>0.85468999999999995</v>
       </c>
       <c r="L142" s="21">
-        <f>code_monthly!N142*100</f>
-        <v>138.42749999999998</v>
+        <f>code_monthly!N142*10</f>
+        <v>13.842749999999999</v>
       </c>
       <c r="M142" s="27">
         <v>111.3</v>
@@ -38675,11 +38815,12 @@
         <v>0.4</v>
       </c>
       <c r="V142">
-        <f>code_monthly!T142*100</f>
-        <v>72.239981217604893</v>
+        <f>code_monthly!T142*10</f>
+        <v>7.2239981217604887</v>
       </c>
       <c r="W142" s="4">
-        <v>25.890319999999999</v>
+        <f>code_monthly!W142/10</f>
+        <v>2.3283300000000002</v>
       </c>
       <c r="X142" s="21">
         <f>code_monthly_deflated!T142</f>
@@ -38729,8 +38870,8 @@
         <v>0.84770999999999996</v>
       </c>
       <c r="L143" s="21">
-        <f>code_monthly!N143*100</f>
-        <v>139.0401</v>
+        <f>code_monthly!N143*10</f>
+        <v>13.90401</v>
       </c>
       <c r="M143" s="27">
         <v>111.3</v>
@@ -38764,11 +38905,12 @@
         <v>0.21</v>
       </c>
       <c r="V143">
-        <f>code_monthly!T143*100</f>
-        <v>71.92169740959622</v>
+        <f>code_monthly!T143*10</f>
+        <v>7.1921697409596224</v>
       </c>
       <c r="W143" s="4">
-        <v>6.0382819999999997</v>
+        <f>code_monthly!W143/10</f>
+        <v>0.49957330000000005</v>
       </c>
       <c r="X143" s="21">
         <f>code_monthly_deflated!T143</f>
@@ -38818,8 +38960,8 @@
         <v>0.84914999999999996</v>
       </c>
       <c r="L144" s="21">
-        <f>code_monthly!N144*100</f>
-        <v>137.6046</v>
+        <f>code_monthly!N144*10</f>
+        <v>13.760460000000002</v>
       </c>
       <c r="M144" s="27">
         <v>112.1</v>
@@ -38853,11 +38995,12 @@
         <v>-0.38</v>
       </c>
       <c r="V144">
-        <f>code_monthly!T144*100</f>
-        <v>72.671989163152972</v>
+        <f>code_monthly!T144*10</f>
+        <v>7.267198916315297</v>
       </c>
       <c r="W144" s="4">
-        <v>6.1041930000000004</v>
+        <f>code_monthly!W144/10</f>
+        <v>0.52267379999999997</v>
       </c>
       <c r="X144" s="21">
         <f>code_monthly_deflated!T144</f>
@@ -38907,8 +39050,8 @@
         <v>0.85138999999999998</v>
       </c>
       <c r="L145" s="21">
-        <f>code_monthly!N145*100</f>
-        <v>134.26419999999999</v>
+        <f>code_monthly!N145*10</f>
+        <v>13.426419999999998</v>
       </c>
       <c r="M145" s="27">
         <v>112.4</v>
@@ -38942,11 +39085,12 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="V145">
-        <f>code_monthly!T145*100</f>
-        <v>74.480017756036247</v>
+        <f>code_monthly!T145*10</f>
+        <v>7.4480017756036245</v>
       </c>
       <c r="W145" s="4">
-        <v>7.2844259999999998</v>
+        <f>code_monthly!W145/10</f>
+        <v>0.56983539999999999</v>
       </c>
       <c r="X145" s="21">
         <f>code_monthly_deflated!T145</f>
@@ -38996,8 +39140,8 @@
         <v>0.84297</v>
       </c>
       <c r="L146" s="21">
-        <f>code_monthly!N146*100</f>
-        <v>136.9</v>
+        <f>code_monthly!N146*10</f>
+        <v>13.69</v>
       </c>
       <c r="M146" s="27">
         <v>113.6</v>
@@ -39031,11 +39175,12 @@
         <v>0.1</v>
       </c>
       <c r="V146">
-        <f>code_monthly!T146*100</f>
-        <v>73.046018991964928</v>
+        <f>code_monthly!T146*10</f>
+        <v>7.3046018991964932</v>
       </c>
       <c r="W146" s="4">
-        <v>19.896899999999999</v>
+        <f>code_monthly!W146/10</f>
+        <v>1.3277860000000001</v>
       </c>
       <c r="X146" s="21">
         <f>code_monthly_deflated!T146</f>
@@ -39085,8 +39230,8 @@
         <v>0.85489999999999999</v>
       </c>
       <c r="L147" s="21">
-        <f>code_monthly!N147*100</f>
-        <v>133.15049999999999</v>
+        <f>code_monthly!N147*10</f>
+        <v>13.315049999999999</v>
       </c>
       <c r="M147" s="27">
         <v>114.5</v>
@@ -39120,11 +39265,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V147">
-        <f>code_monthly!T147*100</f>
-        <v>75.102984968137562</v>
+        <f>code_monthly!T147*10</f>
+        <v>7.5102984968137569</v>
       </c>
       <c r="W147" s="4">
-        <v>22.154140000000002</v>
+        <f>code_monthly!W147/10</f>
+        <v>1.9731549999999998</v>
       </c>
       <c r="X147" s="21">
         <f>code_monthly_deflated!T147</f>
@@ -39174,8 +39320,8 @@
         <v>0.84060000000000001</v>
       </c>
       <c r="L148" s="21">
-        <f>code_monthly!N148*100</f>
-        <v>134.9837</v>
+        <f>code_monthly!N148*10</f>
+        <v>13.49837</v>
       </c>
       <c r="M148" s="27">
         <v>115.1</v>
@@ -39209,11 +39355,12 @@
         <v>-0.23</v>
       </c>
       <c r="V148">
-        <f>code_monthly!T148*100</f>
-        <v>74.083018912653898</v>
+        <f>code_monthly!T148*10</f>
+        <v>7.4083018912653902</v>
       </c>
       <c r="W148" s="4">
-        <v>27.94162</v>
+        <f>code_monthly!W148/10</f>
+        <v>2.5024310000000001</v>
       </c>
       <c r="X148" s="21">
         <f>code_monthly_deflated!T148</f>
@@ -39263,8 +39410,8 @@
         <v>0.84375</v>
       </c>
       <c r="L149" s="21">
-        <f>code_monthly!N149*100</f>
-        <v>134.03389999999999</v>
+        <f>code_monthly!N149*10</f>
+        <v>13.40339</v>
       </c>
       <c r="M149" s="27">
         <v>114.9</v>
@@ -39298,11 +39445,12 @@
         <v>-0.34</v>
       </c>
       <c r="V149">
-        <f>code_monthly!T149*100</f>
-        <v>74.607990963480148</v>
+        <f>code_monthly!T149*10</f>
+        <v>7.4607990963480137</v>
       </c>
       <c r="W149" s="4">
-        <v>40.127830000000003</v>
+        <f>code_monthly!W149/10</f>
+        <v>3.6075249999999999</v>
       </c>
       <c r="X149" s="21">
         <f>code_monthly_deflated!T149</f>
@@ -39352,8 +39500,8 @@
         <v>0.81552999999999998</v>
       </c>
       <c r="L150" s="21">
-        <f>code_monthly!N150*100</f>
-        <v>133.73269999999999</v>
+        <f>code_monthly!N150*10</f>
+        <v>13.37327</v>
       </c>
       <c r="M150" s="27">
         <v>115.8</v>
@@ -39387,11 +39535,12 @@
         <v>-0.67</v>
       </c>
       <c r="V150">
-        <f>code_monthly!T150*100</f>
-        <v>74.776027104814318</v>
+        <f>code_monthly!T150*10</f>
+        <v>7.4776027104814311</v>
       </c>
       <c r="W150" s="4">
-        <v>36.848599999999998</v>
+        <f>code_monthly!W150/10</f>
+        <v>3.142185</v>
       </c>
       <c r="X150" s="21">
         <f>code_monthly_deflated!T150</f>
@@ -39441,8 +39590,8 @@
         <v>0.84094999999999998</v>
       </c>
       <c r="L151" s="21">
-        <f>code_monthly!N151*100</f>
-        <v>131.3888</v>
+        <f>code_monthly!N151*10</f>
+        <v>13.13888</v>
       </c>
       <c r="M151" s="27">
         <v>117.1</v>
@@ -39476,11 +39625,12 @@
         <v>0.16</v>
       </c>
       <c r="V151">
-        <f>code_monthly!T151*100</f>
-        <v>76.109988065953871</v>
+        <f>code_monthly!T151*10</f>
+        <v>7.6109988065953873</v>
       </c>
       <c r="W151" s="4">
-        <v>41.508279999999999</v>
+        <f>code_monthly!W151/10</f>
+        <v>3.2508229999999996</v>
       </c>
       <c r="X151" s="21">
         <f>code_monthly_deflated!T151</f>
@@ -39495,11 +39645,16 @@
       <c r="P152" s="29"/>
       <c r="Q152" s="29"/>
       <c r="R152" s="29"/>
+      <c r="W152" s="4"/>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="P153" s="29"/>
       <c r="Q153" s="29"/>
       <c r="R153" s="29"/>
+      <c r="W153" s="4"/>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W154" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F29">
@@ -50756,10 +50911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1A12A-60AE-8541-8DC2-9465FA0A2F2C}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:W154"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:V1"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50774,9 +50929,10 @@
     <col min="18" max="18" width="13.5" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" style="21"/>
     <col min="21" max="21" width="23.83203125" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
@@ -50843,8 +50999,11 @@
       <c r="V1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W1" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>221</v>
       </c>
@@ -50900,8 +51059,11 @@
         <f>1/N2</f>
         <v>0.60797998043520429</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W2" s="4">
+        <v>20.83981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>222</v>
       </c>
@@ -50957,8 +51119,11 @@
         <f t="shared" ref="T3:T66" si="0">1/N3</f>
         <v>0.6076098269952539</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W3" s="4">
+        <v>15.58282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>223</v>
       </c>
@@ -51014,8 +51179,11 @@
         <f t="shared" si="0"/>
         <v>0.61796982082583019</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W4" s="4">
+        <v>15.666040000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>224</v>
       </c>
@@ -51071,8 +51239,11 @@
         <f t="shared" si="0"/>
         <v>0.62594008376330201</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W5" s="4">
+        <v>13.264430000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>225</v>
       </c>
@@ -51128,8 +51299,11 @@
         <f t="shared" si="0"/>
         <v>0.65873983070386355</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W6" s="4">
+        <v>13.340020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>226</v>
       </c>
@@ -51185,8 +51359,11 @@
         <f t="shared" si="0"/>
         <v>0.6586001322469065</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W7" s="4">
+        <v>13.909380000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>227</v>
       </c>
@@ -51242,8 +51419,11 @@
         <f t="shared" si="0"/>
         <v>0.65359007222823884</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W8" s="4">
+        <v>25.036390000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>228</v>
       </c>
@@ -51299,8 +51479,11 @@
         <f t="shared" si="0"/>
         <v>0.68860991006065964</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W9" s="4">
+        <v>25.5627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>229</v>
       </c>
@@ -51356,8 +51539,11 @@
         <f t="shared" si="0"/>
         <v>0.66915010575917422</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W10" s="4">
+        <v>19.784949999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>230</v>
       </c>
@@ -51413,8 +51599,11 @@
         <f t="shared" si="0"/>
         <v>0.63702017251780307</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W11" s="4">
+        <v>22.14452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>231</v>
       </c>
@@ -51470,8 +51659,11 @@
         <f t="shared" si="0"/>
         <v>0.64658001201345661</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W12" s="4">
+        <v>30.684329999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>232</v>
       </c>
@@ -51527,8 +51719,11 @@
         <f t="shared" si="0"/>
         <v>0.63308008019858453</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W13" s="4">
+        <v>29.817440000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>233</v>
       </c>
@@ -51584,8 +51779,11 @@
         <f t="shared" si="0"/>
         <v>0.63394978610534214</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W14" s="4">
+        <v>25.502320000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>234</v>
       </c>
@@ -51641,8 +51839,11 @@
         <f t="shared" si="0"/>
         <v>0.64283009807658809</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W15" s="4">
+        <v>20.112359999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>235</v>
       </c>
@@ -51704,8 +51905,11 @@
       <c r="V16">
         <v>58.904285714285727</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W16" s="4">
+        <v>17.93103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>236</v>
       </c>
@@ -51770,8 +51974,11 @@
       <c r="V17">
         <v>55.673000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W17" s="4">
+        <v>23.94089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>237</v>
       </c>
@@ -51836,8 +52043,11 @@
       <c r="V18">
         <v>53.620500000000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W18" s="4">
+        <v>24.84395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>238</v>
       </c>
@@ -51902,8 +52112,11 @@
       <c r="V19">
         <v>60.513478260869562</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W19" s="4">
+        <v>30.9434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>239</v>
       </c>
@@ -51968,8 +52181,11 @@
       <c r="V20">
         <v>59.538333333333327</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W20" s="4">
+        <v>50.85389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>240</v>
       </c>
@@ -52034,8 +52250,11 @@
       <c r="V21">
         <v>57.247999999999976</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W21" s="4">
+        <v>49.402389999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>241</v>
       </c>
@@ -52100,8 +52319,11 @@
       <c r="V22">
         <v>57.715454545454548</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W22" s="4">
+        <v>47.306789999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>242</v>
       </c>
@@ -52166,8 +52388,11 @@
       <c r="V23">
         <v>54.993333333333325</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W23" s="4">
+        <v>44.39141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>243</v>
       </c>
@@ -52232,8 +52457,11 @@
       <c r="V24">
         <v>52.74545454545455</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W24" s="4">
+        <v>43.719810000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>244</v>
       </c>
@@ -52298,8 +52526,11 @@
       <c r="V25">
         <v>62.37227272727273</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W25" s="4">
+        <v>35.585590000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>245</v>
       </c>
@@ -52364,8 +52595,11 @@
       <c r="V26">
         <v>64.545714285714283</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W26" s="4">
+        <v>31.743120000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>246</v>
       </c>
@@ -52430,8 +52664,11 @@
       <c r="V27">
         <v>62.63</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W27" s="4">
+        <v>17.729389999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>247</v>
       </c>
@@ -52496,8 +52733,11 @@
       <c r="V28">
         <v>56.982000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W28" s="4">
+        <v>18.742290000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>248</v>
       </c>
@@ -52562,8 +52802,11 @@
       <c r="V29">
         <v>54.407142857142844</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W29" s="4">
+        <v>13.002359999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>249</v>
       </c>
@@ -52628,8 +52871,11 @@
       <c r="V30">
         <v>58.6842857142857</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W30" s="4">
+        <v>13.27014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>250</v>
       </c>
@@ -52694,8 +52940,11 @@
       <c r="V31">
         <v>59.449090909090906</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W31" s="4">
+        <v>17.384370000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>251</v>
       </c>
@@ -52760,8 +53009,11 @@
       <c r="V32">
         <v>58.423157894736839</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W32" s="4">
+        <v>27.406199999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>252</v>
       </c>
@@ -52826,8 +53078,11 @@
       <c r="V33">
         <v>55.053636363636365</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W33" s="4">
+        <v>26.85371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>253</v>
       </c>
@@ -52892,8 +53147,11 @@
       <c r="V34">
         <v>54.557894736842101</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W34" s="4">
+        <v>25.9542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>254</v>
       </c>
@@ -52958,8 +53216,11 @@
       <c r="V35">
         <v>54.860454545454552</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W35" s="4">
+        <v>18.624639999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>255</v>
       </c>
@@ -53024,8 +53285,11 @@
       <c r="V36">
         <v>56.25545454545454</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W36" s="4">
+        <v>52.076680000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>256</v>
       </c>
@@ -53090,8 +53354,11 @@
       <c r="V37">
         <v>59.584500000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W37" s="4">
+        <v>17.1831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>257</v>
       </c>
@@ -53156,8 +53423,11 @@
       <c r="V38">
         <v>64.94869565217391</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W38" s="4">
+        <v>6.5836300000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>258</v>
       </c>
@@ -53222,8 +53492,11 @@
       <c r="V39">
         <v>66.644090909090906</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W39" s="4">
+        <v>10.47486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>259</v>
       </c>
@@ -53288,8 +53561,11 @@
       <c r="V40">
         <v>66.922631578947374</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W40" s="4">
+        <v>13.510249999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>260</v>
       </c>
@@ -53354,8 +53630,11 @@
       <c r="V41">
         <v>66.855909090909094</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W41" s="4">
+        <v>6.5834279999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>261</v>
       </c>
@@ -53420,8 +53699,11 @@
       <c r="V42">
         <v>66.713999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W42" s="4">
+        <v>4.132231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>262</v>
       </c>
@@ -53486,8 +53768,11 @@
       <c r="V43">
         <v>69.932499999999976</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W43" s="4">
+        <v>3.329634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>263</v>
       </c>
@@ -53552,8 +53837,11 @@
       <c r="V44">
         <v>66.927142857142869</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W44" s="4">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>264</v>
       </c>
@@ -53618,8 +53906,11 @@
       <c r="V45">
         <v>64.80380952380952</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W45" s="4">
+        <v>28.033470000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>265</v>
       </c>
@@ -53684,8 +53975,11 @@
       <c r="V46">
         <v>63.448499999999989</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W46" s="4">
+        <v>37.305700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>266</v>
       </c>
@@ -53750,8 +54044,11 @@
       <c r="V47">
         <v>65.710434782608701</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W47" s="4">
+        <v>23.102309999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>267</v>
       </c>
@@ -53816,8 +54113,11 @@
       <c r="V48">
         <v>64.489047619047625</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W48" s="4">
+        <v>17.730499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>268</v>
       </c>
@@ -53882,8 +54182,11 @@
       <c r="V49">
         <v>65.959523809523816</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W49" s="4">
+        <v>9.9447510000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>269</v>
       </c>
@@ -53948,8 +54251,11 @@
       <c r="V50">
         <v>68.818260869565222</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W50" s="4">
+        <v>13.043480000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>270</v>
       </c>
@@ -54014,8 +54320,11 @@
       <c r="V51">
         <v>70.818571428571431</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W51" s="4">
+        <v>13.47222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>271</v>
       </c>
@@ -54080,8 +54389,11 @@
       <c r="V52">
         <v>70.834999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W52" s="4">
+        <v>3.5856569999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>272</v>
       </c>
@@ -54146,8 +54458,11 @@
       <c r="V53">
         <v>66.071818181818173</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W53" s="4">
+        <v>3.0112920000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>273</v>
       </c>
@@ -54212,8 +54527,11 @@
       <c r="V54">
         <v>59.012</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W54" s="4">
+        <v>3.7974679999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>274</v>
       </c>
@@ -54278,8 +54596,11 @@
       <c r="V55">
         <v>56.766190476190474</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W55" s="4">
+        <v>6.5625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>275</v>
       </c>
@@ -54344,8 +54665,11 @@
       <c r="V56">
         <v>50.025500000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W56" s="4">
+        <v>22.844830000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>276</v>
       </c>
@@ -54410,8 +54734,11 @@
       <c r="V57">
         <v>44.609999999999992</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W57" s="4">
+        <v>33.966749999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>277</v>
       </c>
@@ -54476,8 +54803,11 @@
       <c r="V58">
         <v>40.436190476190482</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W58" s="4">
+        <v>34.540390000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>278</v>
       </c>
@@ -54542,8 +54872,11 @@
       <c r="V59">
         <v>38.088695652173911</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W59" s="4">
+        <v>37.604460000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>279</v>
       </c>
@@ -54608,8 +54941,11 @@
       <c r="V60">
         <v>42.149999999999991</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W60" s="4">
+        <v>35.457059999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>280</v>
       </c>
@@ -54674,8 +55010,11 @@
       <c r="V61">
         <v>50.835454545454553</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W61" s="4">
+        <v>21.169920000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>281</v>
       </c>
@@ -54740,8 +55079,11 @@
       <c r="V62">
         <v>54.317391304347822</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W62" s="4">
+        <v>6.8041239999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>282</v>
       </c>
@@ -54806,8 +55148,11 @@
       <c r="V63">
         <v>55.697999999999993</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W63" s="4">
+        <v>13.70717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>283</v>
       </c>
@@ -54872,8 +55217,11 @@
       <c r="V64">
         <v>54.139047619047609</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W64" s="4">
+        <v>11.69666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>284</v>
       </c>
@@ -54938,8 +55286,11 @@
       <c r="V65">
         <v>46.36</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W65" s="4">
+        <v>11.257490000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>285</v>
       </c>
@@ -55004,8 +55355,11 @@
       <c r="V66">
         <v>49.835999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W66" s="4">
+        <v>9.7186699999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>286</v>
       </c>
@@ -55070,8 +55424,11 @@
       <c r="V67">
         <v>47.037727272727267</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W67" s="4">
+        <v>15.782120000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>287</v>
       </c>
@@ -55136,8 +55493,11 @@
       <c r="V68">
         <v>45.207999999999991</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W68" s="4">
+        <v>17.052630000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>288</v>
       </c>
@@ -55202,8 +55562,11 @@
       <c r="V69">
         <v>42.22684210526316</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W69" s="4">
+        <v>30.607479999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>289</v>
       </c>
@@ -55268,8 +55631,11 @@
       <c r="V70">
         <v>42.685909090909085</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W70" s="4">
+        <v>23.410399999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>290</v>
       </c>
@@ -55334,8 +55700,11 @@
       <c r="V71">
         <v>42.989130434782602</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W71" s="4">
+        <v>27.329190000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>291</v>
       </c>
@@ -55400,8 +55769,11 @@
       <c r="V72">
         <v>39.856000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W72" s="4">
+        <v>40.322580000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>292</v>
       </c>
@@ -55466,8 +55838,11 @@
       <c r="V73">
         <v>40.87590909090909</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W73" s="4">
+        <v>26.456309999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>293</v>
       </c>
@@ -55532,8 +55907,11 @@
       <c r="V74">
         <v>40.522272727272721</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W74" s="4">
+        <v>26.88588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>294</v>
       </c>
@@ -55598,8 +55976,11 @@
       <c r="V75">
         <v>37.821904761904754</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W75" s="4">
+        <v>20.34976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>295</v>
       </c>
@@ -55664,8 +56045,11 @@
       <c r="V76">
         <v>35.44619047619048</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W76" s="4">
+        <v>11.78295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>296</v>
       </c>
@@ -55730,8 +56114,11 @@
       <c r="V77">
         <v>32.0655</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W77" s="4">
+        <v>9.1441970000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>297</v>
       </c>
@@ -55796,8 +56183,11 @@
       <c r="V78">
         <v>29.181428571428576</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W78" s="4">
+        <v>15.03759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>298</v>
       </c>
@@ -55862,8 +56252,11 @@
       <c r="V79">
         <v>28.645238095238092</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W79" s="4">
+        <v>12.63941</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>299</v>
       </c>
@@ -55928,8 +56321,11 @@
       <c r="V80">
         <v>28.068095238095243</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W80" s="4">
+        <v>15.743080000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>300</v>
       </c>
@@ -55994,8 +56390,11 @@
       <c r="V81">
         <v>29.5185</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W81" s="4">
+        <v>26.810870000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>301</v>
       </c>
@@ -56060,8 +56459,11 @@
       <c r="V82">
         <v>33.660454545454542</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W82" s="4">
+        <v>9.8644739999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>302</v>
       </c>
@@ -56126,8 +56528,11 @@
       <c r="V83">
         <v>35.152857142857137</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W83" s="4">
+        <v>25.754809999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>303</v>
       </c>
@@ -56192,8 +56597,11 @@
       <c r="V84">
         <v>31.523636363636363</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W84" s="4">
+        <v>17.613199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>304</v>
       </c>
@@ -56258,8 +56666,11 @@
       <c r="V85">
         <v>33.409545454545452</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W85" s="4">
+        <v>31.08867</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>305</v>
       </c>
@@ -56324,8 +56735,11 @@
       <c r="V86">
         <v>46.000476190476192</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W86" s="4">
+        <v>2.97681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>306</v>
       </c>
@@ -56390,8 +56804,11 @@
       <c r="V87">
         <v>49.708636363636373</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W87" s="4">
+        <v>3.4579260000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>307</v>
       </c>
@@ -56456,8 +56873,11 @@
       <c r="V88">
         <v>46.543499999999987</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W88" s="4">
+        <v>3.0310060000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>308</v>
       </c>
@@ -56522,8 +56942,11 @@
       <c r="V89">
         <v>53.381428571428572</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W89" s="4">
+        <v>2.5258080000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>309</v>
       </c>
@@ -56588,8 +57011,11 @@
       <c r="V90">
         <v>50.93399999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W90" s="4">
+        <v>2.4758110000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>310</v>
       </c>
@@ -56654,8 +57080,11 @@
       <c r="V91">
         <v>41.300434782608697</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W91" s="4">
+        <v>10.68355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>311</v>
       </c>
@@ -56720,8 +57149,11 @@
       <c r="V92">
         <v>39.401666666666671</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W92" s="4">
+        <v>16.73612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>312</v>
       </c>
@@ -56786,8 +57218,11 @@
       <c r="V93">
         <v>36.838571428571427</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W93" s="4">
+        <v>15.574109999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>313</v>
       </c>
@@ -56852,8 +57287,11 @@
       <c r="V94">
         <v>36.087727272727278</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W94" s="4">
+        <v>7.945837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>314</v>
       </c>
@@ -56918,8 +57356,11 @@
       <c r="V95">
         <v>36.293809523809514</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W95" s="4">
+        <v>15.085229999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>315</v>
       </c>
@@ -56984,8 +57425,11 @@
       <c r="V96">
         <v>42.700909090909086</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="W96" s="4">
+        <v>13.630660000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>316</v>
       </c>
@@ -57050,8 +57494,11 @@
       <c r="V97">
         <v>45.381904761904764</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="4">
+        <v>7.8470589999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>317</v>
       </c>
@@ -57116,8 +57563,11 @@
       <c r="V98">
         <v>49.197727272727278</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="4">
+        <v>4.9234460000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>318</v>
       </c>
@@ -57182,8 +57632,11 @@
       <c r="V99">
         <v>54.24727272727273</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="4">
+        <v>4.1025869999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>319</v>
       </c>
@@ -57248,8 +57701,11 @@
       <c r="V100">
         <v>59.363684210526323</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="4">
+        <v>2.7514409999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>320</v>
       </c>
@@ -57314,8 +57770,11 @@
       <c r="V101">
         <v>51.826818181818183</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="4">
+        <v>1.99908</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>321</v>
       </c>
@@ -57380,8 +57839,11 @@
       <c r="V102">
         <v>51.923000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W102" s="4">
+        <v>3.7435309999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>322</v>
       </c>
@@ -57446,8 +57908,11 @@
       <c r="V103">
         <v>49.639047619047624</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W103" s="4">
+        <v>5.2648780000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>323</v>
       </c>
@@ -57512,8 +57977,11 @@
       <c r="V104">
         <v>49.870500000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W104" s="4">
+        <v>7.8136539999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>324</v>
       </c>
@@ -57578,8 +58046,11 @@
       <c r="V105">
         <v>54.791428571428568</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W105" s="4">
+        <v>5.0164530000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>325</v>
       </c>
@@ -57644,8 +58115,11 @@
       <c r="V106">
         <v>54.203333333333333</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W106" s="4">
+        <v>4.5926010000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>326</v>
       </c>
@@ -57710,8 +58184,11 @@
       <c r="V107">
         <v>57.735909090909104</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W107" s="4">
+        <v>4.6394229999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>327</v>
       </c>
@@ -57776,8 +58253,11 @@
       <c r="V108">
         <v>63.12136363636364</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W108" s="4">
+        <v>4.8462370000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>328</v>
       </c>
@@ -57842,8 +58322,11 @@
       <c r="V109">
         <v>73.208500000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W109" s="4">
+        <v>4.0949949999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>329</v>
       </c>
@@ -57908,8 +58391,11 @@
       <c r="V110">
         <v>70.456086956521744</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W110" s="4">
+        <v>11.01328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>330</v>
       </c>
@@ -57974,8 +58460,11 @@
       <c r="V111">
         <v>67.981818181818184</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W111" s="4">
+        <v>18.558199999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>331</v>
       </c>
@@ -58040,8 +58529,11 @@
       <c r="V112">
         <v>65.770526315789468</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W112" s="4">
+        <v>17.213760000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>332</v>
       </c>
@@ -58106,8 +58598,11 @@
       <c r="V113">
         <v>59.286818181818177</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W113" s="4">
+        <v>15.972989999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>333</v>
       </c>
@@ -58172,8 +58667,11 @@
       <c r="V114">
         <v>47.1845</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W114" s="4">
+        <v>17.850490000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>334</v>
       </c>
@@ -58238,8 +58736,11 @@
       <c r="V115">
         <v>39.053333333333327</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W115" s="4">
+        <v>22.02965</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>335</v>
       </c>
@@ -58304,8 +58805,11 @@
       <c r="V116">
         <v>35.997999999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W116" s="4">
+        <v>27.513680000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>336</v>
       </c>
@@ -58370,8 +58874,11 @@
       <c r="V117">
         <v>31.270952380952377</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W117" s="4">
+        <v>38.010039999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>337</v>
       </c>
@@ -58436,8 +58943,11 @@
       <c r="V118">
         <v>27.196999999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W118" s="4">
+        <v>9.0474440000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>338</v>
       </c>
@@ -58502,8 +59012,11 @@
       <c r="V119">
         <v>29.500869565217389</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W119" s="4">
+        <v>10.019550000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>339</v>
       </c>
@@ -58568,8 +59081,11 @@
       <c r="V120">
         <v>31.186666666666671</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W120" s="4">
+        <v>7.7529849999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>340</v>
       </c>
@@ -58634,8 +59150,11 @@
       <c r="V121">
         <v>33.19761904761905</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W121" s="4">
+        <v>23.191299999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>341</v>
       </c>
@@ -58700,8 +59219,11 @@
       <c r="V122">
         <v>40.671304347826087</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W122" s="4">
+        <v>30.73997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>342</v>
       </c>
@@ -58766,8 +59288,11 @@
       <c r="V123">
         <v>41.632857142857141</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W123" s="4">
+        <v>27.892099999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>343</v>
       </c>
@@ -58832,8 +59357,11 @@
       <c r="V124">
         <v>36.870999999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W124" s="4">
+        <v>30.637339999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>344</v>
       </c>
@@ -58898,8 +59426,11 @@
       <c r="V125">
         <v>28.761363636363637</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W125" s="4">
+        <v>0.25147000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>345</v>
       </c>
@@ -58964,8 +59495,11 @@
       <c r="V126">
         <v>22.242499999999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W126" s="4">
+        <v>1.226318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>346</v>
       </c>
@@ -59030,8 +59564,11 @@
       <c r="V127">
         <v>21.613181818181822</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W127" s="4">
+        <v>0.291543</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>347</v>
       </c>
@@ -59096,8 +59633,11 @@
       <c r="V128">
         <v>14.940500000000004</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W128" s="4">
+        <v>46.872259999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>348</v>
       </c>
@@ -59162,8 +59702,11 @@
       <c r="V129">
         <v>11.573684210526316</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W129" s="4">
+        <v>41.576560000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>349</v>
       </c>
@@ -59228,8 +59771,11 @@
       <c r="V130">
         <v>13.358181818181817</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W130" s="4">
+        <v>33.135019999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>350</v>
       </c>
@@ -59294,8 +59840,11 @@
       <c r="V131">
         <v>13.782608695652174</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W131" s="4">
+        <v>17.29204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>351</v>
       </c>
@@ -59360,8 +59909,11 @@
       <c r="V132">
         <v>22.161499999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W132" s="4">
+        <v>22.405919999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>352</v>
       </c>
@@ -59426,8 +59978,11 @@
       <c r="V133">
         <v>30.243636363636366</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W133" s="4">
+        <v>19.145530000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>353</v>
       </c>
@@ -59492,8 +60047,11 @@
       <c r="V134">
         <v>39.881818181818183</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W134" s="4">
+        <v>11.32056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>354</v>
       </c>
@@ -59558,8 +60116,11 @@
       <c r="V135">
         <v>39.617619047619044</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W135" s="4">
+        <v>19.387640000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>355</v>
       </c>
@@ -59624,8 +60185,11 @@
       <c r="V136">
         <v>47.360952380952376</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W136" s="4">
+        <v>20.425160000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>356</v>
       </c>
@@ -59690,8 +60254,11 @@
       <c r="V137">
         <v>59.069000000000017</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W137" s="4">
+        <v>9.1609429999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>357</v>
       </c>
@@ -59756,8 +60323,11 @@
       <c r="V138">
         <v>44.614499999999992</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W138" s="4">
+        <v>23.92887</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>358</v>
       </c>
@@ -59822,8 +60392,11 @@
       <c r="V139">
         <v>44.514782608695661</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W139" s="4">
+        <v>30.359839999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>359</v>
       </c>
@@ -59888,8 +60461,11 @@
       <c r="V140">
         <v>51.413999999999987</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W140" s="4">
+        <v>30.852920000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>360</v>
       </c>
@@ -59954,8 +60530,11 @@
       <c r="V141">
         <v>63.430526315789479</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W141" s="4">
+        <v>25.614820000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>361</v>
       </c>
@@ -60020,8 +60599,11 @@
       <c r="V142">
         <v>71.36727272727272</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W142" s="4">
+        <v>23.283300000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>362</v>
       </c>
@@ -60086,8 +60668,11 @@
       <c r="V143">
         <v>89.549090909090921</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W143" s="4">
+        <v>4.9957330000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>363</v>
       </c>
@@ -60152,8 +60737,11 @@
       <c r="V144">
         <v>111.42190476190477</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W144" s="4">
+        <v>5.2267380000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>364</v>
       </c>
@@ -60218,8 +60806,11 @@
       <c r="V145">
         <v>164.96181818181819</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W145" s="4">
+        <v>5.6983540000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>365</v>
       </c>
@@ -60284,8 +60875,11 @@
       <c r="V146">
         <v>228.93047619047618</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W146" s="4">
+        <v>13.27786</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>366</v>
       </c>
@@ -60350,8 +60944,11 @@
       <c r="V147">
         <v>210.2804545454546</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W147" s="4">
+        <v>19.731549999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>367</v>
       </c>
@@ -60416,8 +61013,11 @@
       <c r="V148">
         <v>284.80571428571426</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W148" s="4">
+        <v>25.02431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>368</v>
       </c>
@@ -60482,8 +61082,11 @@
       <c r="V149">
         <v>205.26599999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W149" s="4">
+        <v>36.075249999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>369</v>
       </c>
@@ -60548,8 +61151,11 @@
       <c r="V150">
         <v>193.15049999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W150" s="4">
+        <v>31.421849999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>370</v>
       </c>
@@ -60614,22 +61220,30 @@
       <c r="V151">
         <v>308.0539130434783</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W151" s="4">
+        <v>32.508229999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="Q152" s="29">
         <v>196.314211</v>
       </c>
       <c r="R152" s="4">
         <v>104.58</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W152" s="4"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="Q153" s="29">
         <v>156.740667</v>
       </c>
       <c r="R153" s="4">
         <v>113.34</v>
       </c>
+      <c r="W153" s="4"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W154" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F29">
